--- a/docs/log.xlsx
+++ b/docs/log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emory-my.sharepoint.com/personal/asshah4_emory_edu/Documents/projects/patient-log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="399" documentId="13_ncr:1_{3CB9D789-FF1C-4735-9260-A83070EE7DFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D314085D-13DF-431C-9286-4368057F24AF}"/>
+  <xr:revisionPtr revIDLastSave="423" documentId="13_ncr:1_{3CB9D789-FF1C-4735-9260-A83070EE7DFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B5596E72-A090-45AB-B9E9-08F30C4342F3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3191" uniqueCount="563">
   <si>
     <t>SITE</t>
   </si>
@@ -1707,6 +1707,18 @@
   </si>
   <si>
     <t>031686454</t>
+  </si>
+  <si>
+    <t>080349991</t>
+  </si>
+  <si>
+    <t>TCD bubble crossover</t>
+  </si>
+  <si>
+    <t>075861500</t>
+  </si>
+  <si>
+    <t>031174840</t>
   </si>
 </sst>
 </file>
@@ -2081,11 +2093,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I642"/>
+  <dimension ref="A1:I647"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A633" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C642" sqref="C642"/>
+      <pane ySplit="1" topLeftCell="A638" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B648" sqref="B648"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15835,6 +15847,115 @@
       <c r="B642" s="4" t="s">
         <v>558</v>
       </c>
+      <c r="C642" s="1">
+        <v>44179</v>
+      </c>
+      <c r="G642" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="643" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A643" t="s">
+        <v>9</v>
+      </c>
+      <c r="B643" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C643" s="1">
+        <v>44179</v>
+      </c>
+      <c r="D643" t="s">
+        <v>36</v>
+      </c>
+      <c r="G643" t="s">
+        <v>75</v>
+      </c>
+      <c r="H643" t="s">
+        <v>91</v>
+      </c>
+      <c r="I643" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="644" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A644" t="s">
+        <v>9</v>
+      </c>
+      <c r="B644" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C644" s="1">
+        <v>44179</v>
+      </c>
+      <c r="D644" t="s">
+        <v>36</v>
+      </c>
+      <c r="G644" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="645" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A645" t="s">
+        <v>9</v>
+      </c>
+      <c r="B645" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C645" s="1">
+        <v>44179</v>
+      </c>
+      <c r="D645" t="s">
+        <v>58</v>
+      </c>
+      <c r="E645" t="s">
+        <v>46</v>
+      </c>
+      <c r="F645" t="s">
+        <v>36</v>
+      </c>
+      <c r="G645" t="s">
+        <v>75</v>
+      </c>
+      <c r="H645" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="646" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A646" t="s">
+        <v>9</v>
+      </c>
+      <c r="B646" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C646" s="1">
+        <v>44179</v>
+      </c>
+      <c r="D646" t="s">
+        <v>58</v>
+      </c>
+      <c r="E646" t="s">
+        <v>46</v>
+      </c>
+      <c r="F646" t="s">
+        <v>36</v>
+      </c>
+      <c r="G646" t="s">
+        <v>75</v>
+      </c>
+      <c r="H646" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="647" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B647" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C647" s="1">
+        <v>44180</v>
+      </c>
+      <c r="G647" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/log.xlsx
+++ b/docs/log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emory-my.sharepoint.com/personal/asshah4_emory_edu/Documents/projects/patient-log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="423" documentId="13_ncr:1_{3CB9D789-FF1C-4735-9260-A83070EE7DFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B5596E72-A090-45AB-B9E9-08F30C4342F3}"/>
+  <xr:revisionPtr revIDLastSave="536" documentId="13_ncr:1_{3CB9D789-FF1C-4735-9260-A83070EE7DFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9A216A20-7106-4A2A-8093-C9C96029C346}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3191" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="590">
   <si>
     <t>SITE</t>
   </si>
@@ -1719,6 +1719,87 @@
   </si>
   <si>
     <t>031174840</t>
+  </si>
+  <si>
+    <t>081514530</t>
+  </si>
+  <si>
+    <t>081550797</t>
+  </si>
+  <si>
+    <t>VSD</t>
+  </si>
+  <si>
+    <t>076462787</t>
+  </si>
+  <si>
+    <t>087054912</t>
+  </si>
+  <si>
+    <t>071434237</t>
+  </si>
+  <si>
+    <t>071991053</t>
+  </si>
+  <si>
+    <t>080911553</t>
+  </si>
+  <si>
+    <t>2000103647</t>
+  </si>
+  <si>
+    <t>080684682</t>
+  </si>
+  <si>
+    <t>200206802</t>
+  </si>
+  <si>
+    <t>051365492</t>
+  </si>
+  <si>
+    <t>081068545</t>
+  </si>
+  <si>
+    <t>007737547</t>
+  </si>
+  <si>
+    <t>081553125</t>
+  </si>
+  <si>
+    <t>080715006</t>
+  </si>
+  <si>
+    <t>080708793</t>
+  </si>
+  <si>
+    <t>081528442</t>
+  </si>
+  <si>
+    <t>070931852</t>
+  </si>
+  <si>
+    <t>080905668</t>
+  </si>
+  <si>
+    <t>080073902</t>
+  </si>
+  <si>
+    <t>051582518</t>
+  </si>
+  <si>
+    <t>077069367</t>
+  </si>
+  <si>
+    <t>081276913</t>
+  </si>
+  <si>
+    <t>076821909</t>
+  </si>
+  <si>
+    <t>081546846</t>
+  </si>
+  <si>
+    <t>W6561</t>
   </si>
 </sst>
 </file>
@@ -2093,11 +2174,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I647"/>
+  <dimension ref="A1:I678"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A638" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B648" sqref="B648"/>
+      <pane ySplit="1" topLeftCell="A675" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E679" sqref="E679"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15947,6 +16028,9 @@
       </c>
     </row>
     <row r="647" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A647" t="s">
+        <v>9</v>
+      </c>
       <c r="B647" s="4" t="s">
         <v>562</v>
       </c>
@@ -15955,6 +16039,527 @@
       </c>
       <c r="G647" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="648" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A648" t="s">
+        <v>9</v>
+      </c>
+      <c r="B648" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C648" s="1">
+        <v>44181</v>
+      </c>
+      <c r="D648" t="s">
+        <v>193</v>
+      </c>
+      <c r="E648" t="s">
+        <v>60</v>
+      </c>
+      <c r="G648" t="s">
+        <v>75</v>
+      </c>
+      <c r="H648" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="649" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A649" t="s">
+        <v>9</v>
+      </c>
+      <c r="B649" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C649" s="1">
+        <v>44181</v>
+      </c>
+      <c r="D649" t="s">
+        <v>193</v>
+      </c>
+      <c r="E649" t="s">
+        <v>60</v>
+      </c>
+      <c r="G649" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="650" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A650" t="s">
+        <v>9</v>
+      </c>
+      <c r="B650" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="C650" s="1">
+        <v>44181</v>
+      </c>
+      <c r="D650" t="s">
+        <v>565</v>
+      </c>
+      <c r="E650" t="s">
+        <v>445</v>
+      </c>
+      <c r="G650" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="651" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A651" t="s">
+        <v>9</v>
+      </c>
+      <c r="B651" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="C651" s="1">
+        <v>44180</v>
+      </c>
+      <c r="G651" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="652" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A652" t="s">
+        <v>9</v>
+      </c>
+      <c r="B652" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C652" s="1">
+        <v>44180</v>
+      </c>
+      <c r="G652" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="653" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A653" t="s">
+        <v>9</v>
+      </c>
+      <c r="B653" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C653" s="1">
+        <v>44180</v>
+      </c>
+      <c r="G653" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="654" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A654" t="s">
+        <v>9</v>
+      </c>
+      <c r="B654" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C654" s="1">
+        <v>44180</v>
+      </c>
+      <c r="G654" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="655" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A655" t="s">
+        <v>9</v>
+      </c>
+      <c r="B655" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="C655" s="1">
+        <v>44180</v>
+      </c>
+      <c r="D655" t="s">
+        <v>260</v>
+      </c>
+      <c r="G655" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="656" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A656" t="s">
+        <v>9</v>
+      </c>
+      <c r="B656" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="C656" s="1">
+        <v>44181</v>
+      </c>
+      <c r="G656" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="657" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A657" t="s">
+        <v>9</v>
+      </c>
+      <c r="B657" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C657" s="1">
+        <v>44181</v>
+      </c>
+      <c r="G657" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="658" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A658" t="s">
+        <v>9</v>
+      </c>
+      <c r="B658" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C658" s="1">
+        <v>44181</v>
+      </c>
+      <c r="G658" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="659" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A659" t="s">
+        <v>9</v>
+      </c>
+      <c r="B659" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C659" s="1">
+        <v>44181</v>
+      </c>
+      <c r="G659" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="660" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A660" t="s">
+        <v>9</v>
+      </c>
+      <c r="B660" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C660" s="1">
+        <v>44181</v>
+      </c>
+      <c r="G660" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="661" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A661" t="s">
+        <v>9</v>
+      </c>
+      <c r="B661" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C661" s="1">
+        <v>44181</v>
+      </c>
+      <c r="G661" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="662" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A662" t="s">
+        <v>9</v>
+      </c>
+      <c r="B662" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="C662" s="1">
+        <v>44181</v>
+      </c>
+      <c r="G662" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="663" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A663" t="s">
+        <v>9</v>
+      </c>
+      <c r="B663" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="C663" s="1">
+        <v>44181</v>
+      </c>
+      <c r="G663" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="664" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A664" t="s">
+        <v>9</v>
+      </c>
+      <c r="B664" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C664" s="1">
+        <v>44181</v>
+      </c>
+      <c r="G664" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="665" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A665" t="s">
+        <v>9</v>
+      </c>
+      <c r="B665" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C665" s="1">
+        <v>44181</v>
+      </c>
+      <c r="G665" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="666" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A666" t="s">
+        <v>9</v>
+      </c>
+      <c r="B666" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C666" s="1">
+        <v>44181</v>
+      </c>
+      <c r="G666" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="667" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A667" t="s">
+        <v>9</v>
+      </c>
+      <c r="B667" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C667" s="1">
+        <v>44181</v>
+      </c>
+      <c r="G667" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="668" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A668" t="s">
+        <v>9</v>
+      </c>
+      <c r="B668" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="C668" s="1">
+        <v>44181</v>
+      </c>
+      <c r="G668" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="669" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A669" t="s">
+        <v>9</v>
+      </c>
+      <c r="B669" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C669" s="1">
+        <v>44181</v>
+      </c>
+      <c r="D669" t="s">
+        <v>49</v>
+      </c>
+      <c r="E669" t="s">
+        <v>10</v>
+      </c>
+      <c r="G669" t="s">
+        <v>75</v>
+      </c>
+      <c r="H669" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="670" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A670" t="s">
+        <v>9</v>
+      </c>
+      <c r="B670" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C670" s="1">
+        <v>44181</v>
+      </c>
+      <c r="D670" t="s">
+        <v>49</v>
+      </c>
+      <c r="E670" t="s">
+        <v>10</v>
+      </c>
+      <c r="G670" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="671" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A671" t="s">
+        <v>9</v>
+      </c>
+      <c r="B671" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C671" s="1">
+        <v>44181</v>
+      </c>
+      <c r="D671" t="s">
+        <v>49</v>
+      </c>
+      <c r="E671" t="s">
+        <v>10</v>
+      </c>
+      <c r="G671" t="s">
+        <v>86</v>
+      </c>
+      <c r="H671" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="672" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A672" t="s">
+        <v>9</v>
+      </c>
+      <c r="B672" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="C672" s="1">
+        <v>44181</v>
+      </c>
+      <c r="G672" t="s">
+        <v>80</v>
+      </c>
+      <c r="I672" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="673" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A673" t="s">
+        <v>9</v>
+      </c>
+      <c r="B673" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="C673" s="1">
+        <v>44181</v>
+      </c>
+      <c r="D673" t="s">
+        <v>271</v>
+      </c>
+      <c r="G673" t="s">
+        <v>125</v>
+      </c>
+      <c r="H673" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="674" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A674" t="s">
+        <v>9</v>
+      </c>
+      <c r="B674" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C674" s="1">
+        <v>44181</v>
+      </c>
+      <c r="D674" t="s">
+        <v>271</v>
+      </c>
+      <c r="G674" t="s">
+        <v>125</v>
+      </c>
+      <c r="H674" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="675" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A675" t="s">
+        <v>9</v>
+      </c>
+      <c r="B675" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C675" s="1">
+        <v>44181</v>
+      </c>
+      <c r="D675" t="s">
+        <v>271</v>
+      </c>
+      <c r="G675" t="s">
+        <v>125</v>
+      </c>
+      <c r="H675" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A676" t="s">
+        <v>9</v>
+      </c>
+      <c r="B676" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="C676" s="1">
+        <v>44181</v>
+      </c>
+      <c r="D676" t="s">
+        <v>249</v>
+      </c>
+      <c r="G676" t="s">
+        <v>125</v>
+      </c>
+      <c r="H676" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A677" t="s">
+        <v>9</v>
+      </c>
+      <c r="B677" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="C677" s="1">
+        <v>44181</v>
+      </c>
+      <c r="D677" t="s">
+        <v>271</v>
+      </c>
+      <c r="G677" t="s">
+        <v>125</v>
+      </c>
+      <c r="H677" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A678" t="s">
+        <v>65</v>
+      </c>
+      <c r="B678" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C678" s="1">
+        <v>44183</v>
+      </c>
+      <c r="D678" t="s">
+        <v>24</v>
+      </c>
+      <c r="E678" t="s">
+        <v>142</v>
+      </c>
+      <c r="H678" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/docs/log.xlsx
+++ b/docs/log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emory-my.sharepoint.com/personal/asshah4_emory_edu/Documents/projects/patient-log/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emory-my.sharepoint.com/personal/asshah4_emory_edu/Documents/projects/clinical/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="536" documentId="13_ncr:1_{3CB9D789-FF1C-4735-9260-A83070EE7DFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9A216A20-7106-4A2A-8093-C9C96029C346}"/>
+  <xr:revisionPtr revIDLastSave="1123" documentId="13_ncr:1_{3CB9D789-FF1C-4735-9260-A83070EE7DFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1E78F8FE-72CE-49BB-8F70-8B592D4AEF15}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3901" uniqueCount="720">
   <si>
     <t>SITE</t>
   </si>
@@ -1800,13 +1800,403 @@
   </si>
   <si>
     <t>W6561</t>
+  </si>
+  <si>
+    <t>ACMC</t>
+  </si>
+  <si>
+    <t>5092331</t>
+  </si>
+  <si>
+    <t>VAD</t>
+  </si>
+  <si>
+    <t>respiratory failure</t>
+  </si>
+  <si>
+    <t>11483621</t>
+  </si>
+  <si>
+    <t>10327055</t>
+  </si>
+  <si>
+    <t>heart transplant</t>
+  </si>
+  <si>
+    <t>procurement</t>
+  </si>
+  <si>
+    <t>11472843</t>
+  </si>
+  <si>
+    <t>ECMO</t>
+  </si>
+  <si>
+    <t>11494242</t>
+  </si>
+  <si>
+    <t>11000204</t>
+  </si>
+  <si>
+    <t>11469706</t>
+  </si>
+  <si>
+    <t>11113585</t>
+  </si>
+  <si>
+    <t>11467575</t>
+  </si>
+  <si>
+    <t>tracheomalacia</t>
+  </si>
+  <si>
+    <t>5457023</t>
+  </si>
+  <si>
+    <t>central stenosis</t>
+  </si>
+  <si>
+    <t>7207975</t>
+  </si>
+  <si>
+    <t>7059295</t>
+  </si>
+  <si>
+    <t>DC-ICD</t>
+  </si>
+  <si>
+    <t>9552531</t>
+  </si>
+  <si>
+    <t>J1260</t>
+  </si>
+  <si>
+    <t>S0769</t>
+  </si>
+  <si>
+    <t>W1358</t>
+  </si>
+  <si>
+    <t>I5512</t>
+  </si>
+  <si>
+    <t>N0677</t>
+  </si>
+  <si>
+    <t>nonagenarian</t>
+  </si>
+  <si>
+    <t>A121120</t>
+  </si>
+  <si>
+    <t>M121120</t>
+  </si>
+  <si>
+    <t>troponinemia</t>
+  </si>
+  <si>
+    <t>H121120</t>
+  </si>
+  <si>
+    <t>PDS</t>
+  </si>
+  <si>
+    <t>L121120</t>
+  </si>
+  <si>
+    <t>S121120</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>W121020</t>
+  </si>
+  <si>
+    <t>LQTS</t>
+  </si>
+  <si>
+    <t>O120920</t>
+  </si>
+  <si>
+    <t>M121020</t>
+  </si>
+  <si>
+    <t>LVH</t>
+  </si>
+  <si>
+    <t>004056883</t>
+  </si>
+  <si>
+    <t>D121020</t>
+  </si>
+  <si>
+    <t>L9125</t>
+  </si>
+  <si>
+    <t>ERS</t>
+  </si>
+  <si>
+    <t>SPECIAL</t>
+  </si>
+  <si>
+    <t>K11469706</t>
+  </si>
+  <si>
+    <t>pneumonia</t>
+  </si>
+  <si>
+    <t>7034118</t>
+  </si>
+  <si>
+    <t>goiter</t>
+  </si>
+  <si>
+    <t>071386635</t>
+  </si>
+  <si>
+    <t>T01192021</t>
+  </si>
+  <si>
+    <t>pancreatic cancer</t>
+  </si>
+  <si>
+    <t>200250881</t>
+  </si>
+  <si>
+    <t>200250457</t>
+  </si>
+  <si>
+    <t>070748082</t>
+  </si>
+  <si>
+    <t>080343926</t>
+  </si>
+  <si>
+    <t>200252952</t>
+  </si>
+  <si>
+    <t>081084674</t>
+  </si>
+  <si>
+    <t>007706112</t>
+  </si>
+  <si>
+    <t>081045218</t>
+  </si>
+  <si>
+    <t>200252941</t>
+  </si>
+  <si>
+    <t>075021113</t>
+  </si>
+  <si>
+    <t>081126674</t>
+  </si>
+  <si>
+    <t>072024482</t>
+  </si>
+  <si>
+    <t>010090173</t>
+  </si>
+  <si>
+    <t>010519528</t>
+  </si>
+  <si>
+    <t>200198511</t>
+  </si>
+  <si>
+    <t>072857782</t>
+  </si>
+  <si>
+    <t>07003582</t>
+  </si>
+  <si>
+    <t>200105414</t>
+  </si>
+  <si>
+    <t>081181237</t>
+  </si>
+  <si>
+    <t>081216287</t>
+  </si>
+  <si>
+    <t>081088961</t>
+  </si>
+  <si>
+    <t>073073553</t>
+  </si>
+  <si>
+    <t>081144088</t>
+  </si>
+  <si>
+    <t>VF arrest</t>
+  </si>
+  <si>
+    <t>CO2 embolus</t>
+  </si>
+  <si>
+    <t>081562242</t>
+  </si>
+  <si>
+    <t>081510265</t>
+  </si>
+  <si>
+    <t>081274803</t>
+  </si>
+  <si>
+    <t>087024006</t>
+  </si>
+  <si>
+    <t>070786439</t>
+  </si>
+  <si>
+    <t>080944677</t>
+  </si>
+  <si>
+    <t>080929572</t>
+  </si>
+  <si>
+    <t>070413000</t>
+  </si>
+  <si>
+    <t>200254068</t>
+  </si>
+  <si>
+    <t>070374657</t>
+  </si>
+  <si>
+    <t>200213756</t>
+  </si>
+  <si>
+    <t>200210186</t>
+  </si>
+  <si>
+    <t>070797063</t>
+  </si>
+  <si>
+    <t>081057619</t>
+  </si>
+  <si>
+    <t>lupus</t>
+  </si>
+  <si>
+    <t>200252739</t>
+  </si>
+  <si>
+    <t>080678498</t>
+  </si>
+  <si>
+    <t>071195267</t>
+  </si>
+  <si>
+    <t>200199768</t>
+  </si>
+  <si>
+    <t>075697052</t>
+  </si>
+  <si>
+    <t>080337430</t>
+  </si>
+  <si>
+    <t>087088449</t>
+  </si>
+  <si>
+    <t>200254423</t>
+  </si>
+  <si>
+    <t>080936335</t>
+  </si>
+  <si>
+    <t>080117366</t>
+  </si>
+  <si>
+    <t>080021471</t>
+  </si>
+  <si>
+    <t>081155573</t>
+  </si>
+  <si>
+    <t>081450956</t>
+  </si>
+  <si>
+    <t>081482602</t>
+  </si>
+  <si>
+    <t>200253384</t>
+  </si>
+  <si>
+    <t>081520194</t>
+  </si>
+  <si>
+    <t>080655007</t>
+  </si>
+  <si>
+    <t>081482161</t>
+  </si>
+  <si>
+    <t>051641983</t>
+  </si>
+  <si>
+    <t>200256419</t>
+  </si>
+  <si>
+    <t>081323814</t>
+  </si>
+  <si>
+    <t>structural</t>
+  </si>
+  <si>
+    <t>200195082</t>
+  </si>
+  <si>
+    <t>081548675</t>
+  </si>
+  <si>
+    <t>080310420</t>
+  </si>
+  <si>
+    <t>200106873</t>
+  </si>
+  <si>
+    <t>080878880</t>
+  </si>
+  <si>
+    <t>072952948</t>
+  </si>
+  <si>
+    <t>200255391</t>
+  </si>
+  <si>
+    <t>006640692</t>
+  </si>
+  <si>
+    <t>073052763</t>
+  </si>
+  <si>
+    <t>050988922</t>
+  </si>
+  <si>
+    <t>074413352</t>
+  </si>
+  <si>
+    <t>081551473</t>
+  </si>
+  <si>
+    <t>080606193</t>
+  </si>
+  <si>
+    <t>200255583</t>
+  </si>
+  <si>
+    <t>031295212</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1817,6 +2207,13 @@
     <font>
       <sz val="11"/>
       <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1851,7 +2248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1860,6 +2257,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2174,11 +2574,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I678"/>
+  <dimension ref="A1:J810"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A675" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E679" sqref="E679"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A794" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D807" sqref="D807"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2187,9 +2587,10 @@
     <col min="2" max="2" width="12.1796875" style="4" customWidth="1"/>
     <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2217,8 +2618,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2247,7 +2651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2276,7 +2680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2299,7 +2703,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2325,7 +2729,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2351,7 +2755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2380,7 +2784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2406,7 +2810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2432,7 +2836,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2458,7 +2862,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2484,7 +2888,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2510,7 +2914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -2539,7 +2943,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -2568,7 +2972,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -2597,7 +3001,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -8100,7 +8504,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>9</v>
       </c>
@@ -8126,7 +8530,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>9</v>
       </c>
@@ -8152,7 +8556,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>9</v>
       </c>
@@ -8178,7 +8582,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>9</v>
       </c>
@@ -8204,7 +8608,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>9</v>
       </c>
@@ -8230,7 +8634,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>9</v>
       </c>
@@ -8256,7 +8660,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>9</v>
       </c>
@@ -8282,7 +8686,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>9</v>
       </c>
@@ -8311,7 +8715,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>9</v>
       </c>
@@ -8340,7 +8744,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>9</v>
       </c>
@@ -8369,7 +8773,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>9</v>
       </c>
@@ -8395,7 +8799,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
         <v>9</v>
       </c>
@@ -8421,7 +8825,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A285" s="3" t="s">
         <v>9</v>
       </c>
@@ -8446,8 +8850,11 @@
       <c r="I285" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A286" s="3" t="s">
         <v>9</v>
       </c>
@@ -8467,7 +8874,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A287" s="3" t="s">
         <v>9</v>
       </c>
@@ -8490,7 +8897,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A288" s="3" t="s">
         <v>9</v>
       </c>
@@ -10873,7 +11280,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A401" s="3" t="s">
         <v>65</v>
       </c>
@@ -10890,7 +11297,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A402" s="3" t="s">
         <v>65</v>
       </c>
@@ -10910,7 +11317,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A403" s="3" t="s">
         <v>65</v>
       </c>
@@ -10930,7 +11337,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A404" s="3" t="s">
         <v>65</v>
       </c>
@@ -10944,7 +11351,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A405" s="3" t="s">
         <v>9</v>
       </c>
@@ -10967,7 +11374,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A406" s="3" t="s">
         <v>9</v>
       </c>
@@ -10996,7 +11403,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A407" s="3" t="s">
         <v>9</v>
       </c>
@@ -11025,7 +11432,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A408" s="3" t="s">
         <v>9</v>
       </c>
@@ -11048,7 +11455,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A409" s="3" t="s">
         <v>9</v>
       </c>
@@ -11073,8 +11480,11 @@
       <c r="I409" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A410" s="3" t="s">
         <v>9</v>
       </c>
@@ -11100,7 +11510,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A411" s="3" t="s">
         <v>9</v>
       </c>
@@ -11129,7 +11539,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A412" s="3" t="s">
         <v>65</v>
       </c>
@@ -11152,7 +11562,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A413" s="3" t="s">
         <v>65</v>
       </c>
@@ -11172,7 +11582,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A414" s="3" t="s">
         <v>65</v>
       </c>
@@ -11186,7 +11596,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A415" s="3" t="s">
         <v>65</v>
       </c>
@@ -11200,7 +11610,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A416" s="3" t="s">
         <v>65</v>
       </c>
@@ -15518,7 +15928,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>65</v>
       </c>
@@ -15541,7 +15951,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>65</v>
       </c>
@@ -15564,7 +15974,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>65</v>
       </c>
@@ -15586,8 +15996,11 @@
       <c r="I627" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J627">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>65</v>
       </c>
@@ -15610,7 +16023,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>65</v>
       </c>
@@ -15633,7 +16046,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>543</v>
       </c>
@@ -15656,7 +16069,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>65</v>
       </c>
@@ -15682,7 +16095,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>65</v>
       </c>
@@ -15705,7 +16118,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>65</v>
       </c>
@@ -15725,7 +16138,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>65</v>
       </c>
@@ -15751,7 +16164,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>65</v>
       </c>
@@ -15774,7 +16187,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>9</v>
       </c>
@@ -15788,7 +16201,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>9</v>
       </c>
@@ -15817,7 +16230,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>9</v>
       </c>
@@ -15840,7 +16253,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>9</v>
       </c>
@@ -15866,7 +16279,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>9</v>
       </c>
@@ -16442,7 +16855,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
         <v>9</v>
       </c>
@@ -16462,7 +16875,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
         <v>9</v>
       </c>
@@ -16482,7 +16895,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
         <v>9</v>
       </c>
@@ -16502,7 +16915,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
         <v>9</v>
       </c>
@@ -16522,7 +16935,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
         <v>9</v>
       </c>
@@ -16542,7 +16955,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
         <v>65</v>
       </c>
@@ -16560,6 +16973,2439 @@
       </c>
       <c r="H678" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="679" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A679" t="s">
+        <v>590</v>
+      </c>
+      <c r="B679" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="C679" s="1">
+        <v>44204</v>
+      </c>
+      <c r="D679" t="s">
+        <v>592</v>
+      </c>
+      <c r="E679" t="s">
+        <v>167</v>
+      </c>
+      <c r="F679" t="s">
+        <v>593</v>
+      </c>
+      <c r="G679" t="s">
+        <v>269</v>
+      </c>
+      <c r="H679" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="680" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A680" t="s">
+        <v>590</v>
+      </c>
+      <c r="B680" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="C680" s="1">
+        <v>44204</v>
+      </c>
+      <c r="D680" t="s">
+        <v>592</v>
+      </c>
+      <c r="E680" t="s">
+        <v>167</v>
+      </c>
+      <c r="F680" t="s">
+        <v>593</v>
+      </c>
+      <c r="G680" t="s">
+        <v>477</v>
+      </c>
+      <c r="H680" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="681" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A681" t="s">
+        <v>590</v>
+      </c>
+      <c r="B681" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C681" s="1">
+        <v>44203</v>
+      </c>
+      <c r="D681" t="s">
+        <v>358</v>
+      </c>
+      <c r="E681" t="s">
+        <v>51</v>
+      </c>
+      <c r="G681" t="s">
+        <v>269</v>
+      </c>
+      <c r="H681" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="682" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A682" t="s">
+        <v>590</v>
+      </c>
+      <c r="B682" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C682" s="1">
+        <v>44203</v>
+      </c>
+      <c r="D682" t="s">
+        <v>358</v>
+      </c>
+      <c r="E682" t="s">
+        <v>51</v>
+      </c>
+      <c r="G682" t="s">
+        <v>477</v>
+      </c>
+      <c r="H682" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="683" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A683" t="s">
+        <v>590</v>
+      </c>
+      <c r="B683" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="C683" s="9">
+        <v>44203</v>
+      </c>
+      <c r="D683" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E683" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F683" s="10"/>
+      <c r="G683" s="10"/>
+      <c r="H683" t="s">
+        <v>150</v>
+      </c>
+      <c r="J683">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A684" t="s">
+        <v>590</v>
+      </c>
+      <c r="B684" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C684" s="1">
+        <v>44201</v>
+      </c>
+      <c r="D684" t="s">
+        <v>51</v>
+      </c>
+      <c r="E684" t="s">
+        <v>592</v>
+      </c>
+      <c r="F684" t="s">
+        <v>596</v>
+      </c>
+      <c r="H684" t="s">
+        <v>150</v>
+      </c>
+      <c r="I684" t="s">
+        <v>597</v>
+      </c>
+      <c r="J684">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A685" t="s">
+        <v>590</v>
+      </c>
+      <c r="B685" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C685" s="1">
+        <v>44202</v>
+      </c>
+      <c r="D685" t="s">
+        <v>24</v>
+      </c>
+      <c r="E685" t="s">
+        <v>51</v>
+      </c>
+      <c r="F685" t="s">
+        <v>599</v>
+      </c>
+      <c r="H685" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="686" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A686" t="s">
+        <v>590</v>
+      </c>
+      <c r="B686" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C686" s="1">
+        <v>44203</v>
+      </c>
+      <c r="D686" t="s">
+        <v>51</v>
+      </c>
+      <c r="E686" t="s">
+        <v>263</v>
+      </c>
+      <c r="F686" t="s">
+        <v>599</v>
+      </c>
+      <c r="H686" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="687" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A687" t="s">
+        <v>590</v>
+      </c>
+      <c r="B687" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="C687" s="1">
+        <v>44202</v>
+      </c>
+      <c r="D687" t="s">
+        <v>51</v>
+      </c>
+      <c r="E687" t="s">
+        <v>60</v>
+      </c>
+      <c r="H687" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="688" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A688" t="s">
+        <v>590</v>
+      </c>
+      <c r="B688" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C688" s="1">
+        <v>44203</v>
+      </c>
+      <c r="D688" t="s">
+        <v>51</v>
+      </c>
+      <c r="E688" t="s">
+        <v>60</v>
+      </c>
+      <c r="F688" t="s">
+        <v>447</v>
+      </c>
+      <c r="H688" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="689" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A689" t="s">
+        <v>590</v>
+      </c>
+      <c r="B689" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C689" s="1">
+        <v>44203</v>
+      </c>
+      <c r="D689" t="s">
+        <v>51</v>
+      </c>
+      <c r="E689" t="s">
+        <v>60</v>
+      </c>
+      <c r="F689" t="s">
+        <v>447</v>
+      </c>
+      <c r="G689" t="s">
+        <v>13</v>
+      </c>
+      <c r="H689" t="s">
+        <v>266</v>
+      </c>
+      <c r="I689" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="690" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A690" t="s">
+        <v>590</v>
+      </c>
+      <c r="B690" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C690" s="1">
+        <v>44201</v>
+      </c>
+      <c r="D690" t="s">
+        <v>167</v>
+      </c>
+      <c r="E690" t="s">
+        <v>51</v>
+      </c>
+      <c r="F690" t="s">
+        <v>447</v>
+      </c>
+      <c r="H690" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="691" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A691" t="s">
+        <v>590</v>
+      </c>
+      <c r="B691" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="C691" s="1">
+        <v>44201</v>
+      </c>
+      <c r="D691" t="s">
+        <v>167</v>
+      </c>
+      <c r="E691" t="s">
+        <v>605</v>
+      </c>
+      <c r="F691" t="s">
+        <v>593</v>
+      </c>
+      <c r="H691" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="692" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A692" t="s">
+        <v>590</v>
+      </c>
+      <c r="B692" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="C692" s="1">
+        <v>44203</v>
+      </c>
+      <c r="D692" t="s">
+        <v>51</v>
+      </c>
+      <c r="E692" t="s">
+        <v>447</v>
+      </c>
+      <c r="F692" t="s">
+        <v>607</v>
+      </c>
+      <c r="G692" t="s">
+        <v>13</v>
+      </c>
+      <c r="H692" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="693" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A693" t="s">
+        <v>590</v>
+      </c>
+      <c r="B693" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="C693" s="1">
+        <v>44203</v>
+      </c>
+      <c r="D693" t="s">
+        <v>51</v>
+      </c>
+      <c r="E693" t="s">
+        <v>447</v>
+      </c>
+      <c r="F693" t="s">
+        <v>607</v>
+      </c>
+      <c r="H693" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="694" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A694" t="s">
+        <v>590</v>
+      </c>
+      <c r="B694" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="C694" s="1">
+        <v>44204</v>
+      </c>
+      <c r="D694" t="s">
+        <v>195</v>
+      </c>
+      <c r="E694" t="s">
+        <v>131</v>
+      </c>
+      <c r="F694" t="s">
+        <v>444</v>
+      </c>
+      <c r="H694" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="695" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A695" t="s">
+        <v>590</v>
+      </c>
+      <c r="B695" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="C695" s="1">
+        <v>44202</v>
+      </c>
+      <c r="D695" t="s">
+        <v>77</v>
+      </c>
+      <c r="E695" t="s">
+        <v>610</v>
+      </c>
+      <c r="F695" t="s">
+        <v>60</v>
+      </c>
+      <c r="G695" t="s">
+        <v>269</v>
+      </c>
+      <c r="H695" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="696" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A696" t="s">
+        <v>590</v>
+      </c>
+      <c r="B696" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="C696" s="1">
+        <v>44202</v>
+      </c>
+      <c r="D696" t="s">
+        <v>77</v>
+      </c>
+      <c r="E696" t="s">
+        <v>610</v>
+      </c>
+      <c r="F696" t="s">
+        <v>60</v>
+      </c>
+      <c r="G696" t="s">
+        <v>477</v>
+      </c>
+      <c r="H696" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="697" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A697" t="s">
+        <v>590</v>
+      </c>
+      <c r="B697" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="C697" s="9">
+        <v>44202</v>
+      </c>
+      <c r="D697" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E697" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="F697" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G697" s="10"/>
+      <c r="H697" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="698" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A698" t="s">
+        <v>590</v>
+      </c>
+      <c r="B698" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="C698" s="1">
+        <v>44202</v>
+      </c>
+      <c r="D698" t="s">
+        <v>526</v>
+      </c>
+      <c r="E698" t="s">
+        <v>51</v>
+      </c>
+      <c r="F698" t="s">
+        <v>447</v>
+      </c>
+      <c r="H698" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="699" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A699" t="s">
+        <v>590</v>
+      </c>
+      <c r="B699" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="C699" s="1">
+        <v>44202</v>
+      </c>
+      <c r="D699" t="s">
+        <v>526</v>
+      </c>
+      <c r="E699" t="s">
+        <v>51</v>
+      </c>
+      <c r="F699" t="s">
+        <v>447</v>
+      </c>
+      <c r="G699" t="s">
+        <v>13</v>
+      </c>
+      <c r="H699" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="700" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A700" t="s">
+        <v>65</v>
+      </c>
+      <c r="B700" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C700" s="1">
+        <v>44204</v>
+      </c>
+      <c r="D700" t="s">
+        <v>351</v>
+      </c>
+      <c r="E700" t="s">
+        <v>60</v>
+      </c>
+      <c r="F700" t="s">
+        <v>163</v>
+      </c>
+      <c r="H700" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="701" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A701" t="s">
+        <v>65</v>
+      </c>
+      <c r="B701" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="C701" s="1">
+        <v>44204</v>
+      </c>
+      <c r="D701" t="s">
+        <v>72</v>
+      </c>
+      <c r="E701" t="s">
+        <v>24</v>
+      </c>
+      <c r="H701" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="702" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A702" t="s">
+        <v>65</v>
+      </c>
+      <c r="B702" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C702" s="1">
+        <v>44204</v>
+      </c>
+      <c r="D702" t="s">
+        <v>24</v>
+      </c>
+      <c r="E702" t="s">
+        <v>63</v>
+      </c>
+      <c r="F702" t="s">
+        <v>22</v>
+      </c>
+      <c r="H702" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="703" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A703" t="s">
+        <v>65</v>
+      </c>
+      <c r="B703" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="C703" s="1">
+        <v>44204</v>
+      </c>
+      <c r="D703" t="s">
+        <v>24</v>
+      </c>
+      <c r="E703" t="s">
+        <v>131</v>
+      </c>
+      <c r="H703" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="704" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A704" t="s">
+        <v>65</v>
+      </c>
+      <c r="B704" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C704" s="1">
+        <v>44204</v>
+      </c>
+      <c r="D704" t="s">
+        <v>78</v>
+      </c>
+      <c r="E704" t="s">
+        <v>24</v>
+      </c>
+      <c r="H704" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="705" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A705" t="s">
+        <v>65</v>
+      </c>
+      <c r="B705" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C705" s="1">
+        <v>44204</v>
+      </c>
+      <c r="D705" t="s">
+        <v>257</v>
+      </c>
+      <c r="H705" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="706" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A706" t="s">
+        <v>65</v>
+      </c>
+      <c r="B706" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="C706" s="1">
+        <v>44204</v>
+      </c>
+      <c r="D706" t="s">
+        <v>617</v>
+      </c>
+      <c r="E706" t="s">
+        <v>24</v>
+      </c>
+      <c r="H706" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="707" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A707" t="s">
+        <v>9</v>
+      </c>
+      <c r="B707" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="C707" s="1">
+        <v>44176</v>
+      </c>
+      <c r="D707" t="s">
+        <v>151</v>
+      </c>
+      <c r="E707" t="s">
+        <v>22</v>
+      </c>
+      <c r="F707" t="s">
+        <v>24</v>
+      </c>
+      <c r="H707" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="708" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A708" t="s">
+        <v>9</v>
+      </c>
+      <c r="B708" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="C708" s="1">
+        <v>44176</v>
+      </c>
+      <c r="D708" t="s">
+        <v>36</v>
+      </c>
+      <c r="E708" t="s">
+        <v>620</v>
+      </c>
+      <c r="H708" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="709" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A709" t="s">
+        <v>9</v>
+      </c>
+      <c r="B709" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C709" s="1">
+        <v>44176</v>
+      </c>
+      <c r="D709" t="s">
+        <v>83</v>
+      </c>
+      <c r="E709" t="s">
+        <v>526</v>
+      </c>
+      <c r="H709" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="710" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A710" t="s">
+        <v>9</v>
+      </c>
+      <c r="B710" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="C710" s="1">
+        <v>44176</v>
+      </c>
+      <c r="D710" t="s">
+        <v>168</v>
+      </c>
+      <c r="E710" t="s">
+        <v>622</v>
+      </c>
+      <c r="F710" t="s">
+        <v>60</v>
+      </c>
+      <c r="H710" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="711" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A711" t="s">
+        <v>9</v>
+      </c>
+      <c r="B711" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="C711" s="1">
+        <v>44176</v>
+      </c>
+      <c r="D711" t="s">
+        <v>63</v>
+      </c>
+      <c r="E711" t="s">
+        <v>11</v>
+      </c>
+      <c r="F711" t="s">
+        <v>435</v>
+      </c>
+      <c r="H711" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="712" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A712" t="s">
+        <v>9</v>
+      </c>
+      <c r="B712" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="C712" s="1">
+        <v>44176</v>
+      </c>
+      <c r="D712" t="s">
+        <v>163</v>
+      </c>
+      <c r="E712" t="s">
+        <v>24</v>
+      </c>
+      <c r="F712" t="s">
+        <v>593</v>
+      </c>
+      <c r="H712" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="713" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A713" t="s">
+        <v>9</v>
+      </c>
+      <c r="B713" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="C713" s="1">
+        <v>44176</v>
+      </c>
+      <c r="D713" t="s">
+        <v>625</v>
+      </c>
+      <c r="E713" t="s">
+        <v>62</v>
+      </c>
+      <c r="F713" t="s">
+        <v>265</v>
+      </c>
+      <c r="H713" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="714" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A714" t="s">
+        <v>9</v>
+      </c>
+      <c r="B714" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="C714" s="1">
+        <v>44175</v>
+      </c>
+      <c r="D714" t="s">
+        <v>627</v>
+      </c>
+      <c r="E714" t="s">
+        <v>10</v>
+      </c>
+      <c r="F714" t="s">
+        <v>42</v>
+      </c>
+      <c r="H714" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="715" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A715" t="s">
+        <v>9</v>
+      </c>
+      <c r="B715" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C715" s="1">
+        <v>44175</v>
+      </c>
+      <c r="D715" t="s">
+        <v>24</v>
+      </c>
+      <c r="E715" t="s">
+        <v>189</v>
+      </c>
+      <c r="H715" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="716" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A716" t="s">
+        <v>9</v>
+      </c>
+      <c r="B716" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="C716" s="1">
+        <v>44175</v>
+      </c>
+      <c r="D716" t="s">
+        <v>19</v>
+      </c>
+      <c r="E716" t="s">
+        <v>630</v>
+      </c>
+      <c r="H716" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="717" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A717" t="s">
+        <v>9</v>
+      </c>
+      <c r="B717" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="C717" s="1">
+        <v>44175</v>
+      </c>
+      <c r="D717" t="s">
+        <v>60</v>
+      </c>
+      <c r="E717" t="s">
+        <v>195</v>
+      </c>
+      <c r="G717" t="s">
+        <v>199</v>
+      </c>
+      <c r="H717" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="718" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A718" t="s">
+        <v>9</v>
+      </c>
+      <c r="B718" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="C718" s="1">
+        <v>44175</v>
+      </c>
+      <c r="D718" t="s">
+        <v>233</v>
+      </c>
+      <c r="E718" t="s">
+        <v>194</v>
+      </c>
+      <c r="H718" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="719" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A719" t="s">
+        <v>65</v>
+      </c>
+      <c r="B719" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="C719" s="1">
+        <v>44183</v>
+      </c>
+      <c r="D719" t="s">
+        <v>634</v>
+      </c>
+      <c r="H719" t="s">
+        <v>69</v>
+      </c>
+      <c r="J719">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A720" t="s">
+        <v>65</v>
+      </c>
+      <c r="B720" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C720" s="1">
+        <v>44183</v>
+      </c>
+      <c r="D720" t="s">
+        <v>24</v>
+      </c>
+      <c r="E720" t="s">
+        <v>12</v>
+      </c>
+      <c r="F720" t="s">
+        <v>22</v>
+      </c>
+      <c r="H720" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="721" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A721" t="s">
+        <v>590</v>
+      </c>
+      <c r="B721" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="C721" s="1">
+        <v>43841</v>
+      </c>
+      <c r="D721" t="s">
+        <v>60</v>
+      </c>
+      <c r="E721" t="s">
+        <v>51</v>
+      </c>
+      <c r="F721" t="s">
+        <v>388</v>
+      </c>
+      <c r="H721" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="722" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A722" t="s">
+        <v>590</v>
+      </c>
+      <c r="B722" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="C722" s="1">
+        <v>44209</v>
+      </c>
+      <c r="D722" t="s">
+        <v>526</v>
+      </c>
+      <c r="E722" t="s">
+        <v>193</v>
+      </c>
+      <c r="F722" t="s">
+        <v>73</v>
+      </c>
+      <c r="H722" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="723" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A723" t="s">
+        <v>590</v>
+      </c>
+      <c r="B723" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C723" s="1">
+        <v>44209</v>
+      </c>
+      <c r="D723" t="s">
+        <v>51</v>
+      </c>
+      <c r="E723" t="s">
+        <v>168</v>
+      </c>
+      <c r="F723" t="s">
+        <v>167</v>
+      </c>
+      <c r="H723" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="724" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A724" t="s">
+        <v>590</v>
+      </c>
+      <c r="B724" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="C724" s="1">
+        <v>44209</v>
+      </c>
+      <c r="D724" t="s">
+        <v>24</v>
+      </c>
+      <c r="E724" t="s">
+        <v>167</v>
+      </c>
+      <c r="F724" t="s">
+        <v>637</v>
+      </c>
+      <c r="H724" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="725" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A725" t="s">
+        <v>590</v>
+      </c>
+      <c r="B725" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="C725" s="1">
+        <v>44209</v>
+      </c>
+      <c r="D725" t="s">
+        <v>49</v>
+      </c>
+      <c r="E725" t="s">
+        <v>24</v>
+      </c>
+      <c r="F725" t="s">
+        <v>51</v>
+      </c>
+      <c r="H725" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="726" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A726" t="s">
+        <v>590</v>
+      </c>
+      <c r="B726" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="C726" s="1">
+        <v>44211</v>
+      </c>
+      <c r="D726" t="s">
+        <v>60</v>
+      </c>
+      <c r="E726" t="s">
+        <v>51</v>
+      </c>
+      <c r="F726" t="s">
+        <v>639</v>
+      </c>
+      <c r="H726" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="727" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A727" t="s">
+        <v>9</v>
+      </c>
+      <c r="B727" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="C727" s="1">
+        <v>44215</v>
+      </c>
+    </row>
+    <row r="728" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A728" t="s">
+        <v>9</v>
+      </c>
+      <c r="B728" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="C728" s="1">
+        <v>44215</v>
+      </c>
+      <c r="D728" t="s">
+        <v>642</v>
+      </c>
+      <c r="E728" t="s">
+        <v>163</v>
+      </c>
+      <c r="F728" t="s">
+        <v>233</v>
+      </c>
+      <c r="G728" t="s">
+        <v>75</v>
+      </c>
+      <c r="H728" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="729" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A729" t="s">
+        <v>9</v>
+      </c>
+      <c r="B729" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="C729" s="1">
+        <v>44215</v>
+      </c>
+      <c r="D729" t="s">
+        <v>642</v>
+      </c>
+      <c r="E729" t="s">
+        <v>163</v>
+      </c>
+      <c r="F729" t="s">
+        <v>233</v>
+      </c>
+      <c r="G729" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="730" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A730" t="s">
+        <v>9</v>
+      </c>
+      <c r="B730" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="C730" s="1">
+        <v>44215</v>
+      </c>
+      <c r="D730" t="s">
+        <v>149</v>
+      </c>
+      <c r="E730" t="s">
+        <v>79</v>
+      </c>
+      <c r="G730" t="s">
+        <v>75</v>
+      </c>
+      <c r="H730" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="731" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A731" t="s">
+        <v>9</v>
+      </c>
+      <c r="B731" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="C731" s="1">
+        <v>44215</v>
+      </c>
+      <c r="D731" t="s">
+        <v>149</v>
+      </c>
+      <c r="E731" t="s">
+        <v>79</v>
+      </c>
+      <c r="G731" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="732" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A732" t="s">
+        <v>9</v>
+      </c>
+      <c r="B732" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="C732" s="1">
+        <v>44215</v>
+      </c>
+      <c r="D732" t="s">
+        <v>36</v>
+      </c>
+      <c r="G732" t="s">
+        <v>75</v>
+      </c>
+      <c r="H732" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="733" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A733" t="s">
+        <v>9</v>
+      </c>
+      <c r="B733" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="C733" s="1">
+        <v>44215</v>
+      </c>
+      <c r="D733" t="s">
+        <v>36</v>
+      </c>
+      <c r="G733" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="734" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A734" t="s">
+        <v>9</v>
+      </c>
+      <c r="B734" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="C734" s="1">
+        <v>44215</v>
+      </c>
+      <c r="G734" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="735" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A735" t="s">
+        <v>9</v>
+      </c>
+      <c r="B735" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="C735" s="1">
+        <v>44215</v>
+      </c>
+      <c r="G735" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="736" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A736" t="s">
+        <v>9</v>
+      </c>
+      <c r="B736" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="C736" s="1">
+        <v>44215</v>
+      </c>
+      <c r="G736" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="737" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A737" t="s">
+        <v>9</v>
+      </c>
+      <c r="B737" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="C737" s="1">
+        <v>44215</v>
+      </c>
+      <c r="G737" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="738" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A738" t="s">
+        <v>9</v>
+      </c>
+      <c r="B738" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C738" s="1">
+        <v>44215</v>
+      </c>
+      <c r="G738" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="739" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A739" t="s">
+        <v>9</v>
+      </c>
+      <c r="B739" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="C739" s="1">
+        <v>44215</v>
+      </c>
+      <c r="G739" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="740" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A740" t="s">
+        <v>9</v>
+      </c>
+      <c r="B740" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="C740" s="1">
+        <v>44215</v>
+      </c>
+      <c r="G740" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="741" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A741" t="s">
+        <v>9</v>
+      </c>
+      <c r="B741" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C741" s="1">
+        <v>44215</v>
+      </c>
+      <c r="G741" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="742" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A742" t="s">
+        <v>9</v>
+      </c>
+      <c r="B742" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="C742" s="1">
+        <v>44215</v>
+      </c>
+      <c r="G742" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="743" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A743" t="s">
+        <v>9</v>
+      </c>
+      <c r="B743" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="C743" s="1">
+        <v>44215</v>
+      </c>
+      <c r="G743" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="744" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A744" t="s">
+        <v>9</v>
+      </c>
+      <c r="B744" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="C744" s="1">
+        <v>44215</v>
+      </c>
+      <c r="G744" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="745" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A745" t="s">
+        <v>9</v>
+      </c>
+      <c r="B745" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="C745" s="1">
+        <v>44215</v>
+      </c>
+      <c r="G745" t="s">
+        <v>125</v>
+      </c>
+      <c r="H745" t="s">
+        <v>126</v>
+      </c>
+      <c r="I745" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="746" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A746" t="s">
+        <v>9</v>
+      </c>
+      <c r="B746" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="C746" s="1">
+        <v>44215</v>
+      </c>
+      <c r="G746" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="747" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A747" t="s">
+        <v>9</v>
+      </c>
+      <c r="B747" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="C747" s="1">
+        <v>44216</v>
+      </c>
+      <c r="G747" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="748" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A748" t="s">
+        <v>9</v>
+      </c>
+      <c r="B748" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C748" s="1">
+        <v>44216</v>
+      </c>
+      <c r="G748" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="749" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A749" t="s">
+        <v>9</v>
+      </c>
+      <c r="B749" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C749" s="1">
+        <v>44216</v>
+      </c>
+      <c r="G749" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="750" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A750" t="s">
+        <v>9</v>
+      </c>
+      <c r="B750" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C750" s="1">
+        <v>44216</v>
+      </c>
+      <c r="G750" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="751" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A751" t="s">
+        <v>9</v>
+      </c>
+      <c r="B751" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="C751" s="1">
+        <v>44216</v>
+      </c>
+      <c r="G751" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="752" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A752" t="s">
+        <v>9</v>
+      </c>
+      <c r="B752" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="C752" s="1">
+        <v>44216</v>
+      </c>
+      <c r="G752" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="753" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A753" t="s">
+        <v>9</v>
+      </c>
+      <c r="B753" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="C753" s="1">
+        <v>44216</v>
+      </c>
+      <c r="G753" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="754" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A754" t="s">
+        <v>9</v>
+      </c>
+      <c r="B754" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="C754" s="1">
+        <v>44216</v>
+      </c>
+      <c r="D754" t="s">
+        <v>42</v>
+      </c>
+      <c r="E754" t="s">
+        <v>666</v>
+      </c>
+      <c r="F754" t="s">
+        <v>43</v>
+      </c>
+      <c r="G754" t="s">
+        <v>75</v>
+      </c>
+      <c r="H754" t="s">
+        <v>91</v>
+      </c>
+      <c r="I754" t="s">
+        <v>667</v>
+      </c>
+      <c r="J754">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A755" t="s">
+        <v>9</v>
+      </c>
+      <c r="B755" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="C755" s="1">
+        <v>44216</v>
+      </c>
+      <c r="D755" t="s">
+        <v>42</v>
+      </c>
+      <c r="E755" t="s">
+        <v>666</v>
+      </c>
+      <c r="F755" t="s">
+        <v>43</v>
+      </c>
+      <c r="G755" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="756" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A756" t="s">
+        <v>9</v>
+      </c>
+      <c r="B756" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="C756" s="1">
+        <v>44217</v>
+      </c>
+      <c r="G756" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="757" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A757" t="s">
+        <v>9</v>
+      </c>
+      <c r="B757" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="C757" s="1">
+        <v>44217</v>
+      </c>
+      <c r="G757" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="758" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A758" t="s">
+        <v>9</v>
+      </c>
+      <c r="B758" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C758" s="1">
+        <v>44217</v>
+      </c>
+      <c r="G758" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="759" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A759" t="s">
+        <v>9</v>
+      </c>
+      <c r="B759" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="C759" s="1">
+        <v>44217</v>
+      </c>
+      <c r="G759" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="760" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A760" t="s">
+        <v>9</v>
+      </c>
+      <c r="B760" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C760" s="1">
+        <v>44217</v>
+      </c>
+      <c r="G760" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="761" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A761" t="s">
+        <v>9</v>
+      </c>
+      <c r="B761" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="C761" s="1">
+        <v>44217</v>
+      </c>
+      <c r="G761" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="762" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A762" t="s">
+        <v>9</v>
+      </c>
+      <c r="B762" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C762" s="1">
+        <v>44217</v>
+      </c>
+      <c r="G762" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="763" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A763" t="s">
+        <v>9</v>
+      </c>
+      <c r="B763" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="C763" s="1">
+        <v>44217</v>
+      </c>
+      <c r="G763" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="764" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A764" t="s">
+        <v>9</v>
+      </c>
+      <c r="B764" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="C764" s="1">
+        <v>44217</v>
+      </c>
+      <c r="G764" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="765" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A765" t="s">
+        <v>9</v>
+      </c>
+      <c r="B765" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="C765" s="1">
+        <v>44217</v>
+      </c>
+      <c r="G765" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="766" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A766" t="s">
+        <v>9</v>
+      </c>
+      <c r="B766" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="C766" s="1">
+        <v>44217</v>
+      </c>
+      <c r="G766" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="767" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A767" t="s">
+        <v>9</v>
+      </c>
+      <c r="B767" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="C767" s="1">
+        <v>44217</v>
+      </c>
+      <c r="G767" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="768" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A768" t="s">
+        <v>9</v>
+      </c>
+      <c r="B768" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="C768" s="1">
+        <v>44217</v>
+      </c>
+      <c r="G768" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="769" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A769" t="s">
+        <v>9</v>
+      </c>
+      <c r="B769" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="C769" s="1">
+        <v>44217</v>
+      </c>
+      <c r="D769" t="s">
+        <v>682</v>
+      </c>
+      <c r="E769" t="s">
+        <v>116</v>
+      </c>
+      <c r="F769" t="s">
+        <v>79</v>
+      </c>
+      <c r="G769" t="s">
+        <v>75</v>
+      </c>
+      <c r="H769" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="770" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A770" t="s">
+        <v>9</v>
+      </c>
+      <c r="B770" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="C770" s="1">
+        <v>44217</v>
+      </c>
+      <c r="D770" t="s">
+        <v>682</v>
+      </c>
+      <c r="E770" t="s">
+        <v>116</v>
+      </c>
+      <c r="F770" t="s">
+        <v>79</v>
+      </c>
+      <c r="G770" t="s">
+        <v>75</v>
+      </c>
+      <c r="H770" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="771" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A771" t="s">
+        <v>9</v>
+      </c>
+      <c r="B771" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="C771" s="1">
+        <v>44217</v>
+      </c>
+      <c r="D771" t="s">
+        <v>131</v>
+      </c>
+      <c r="G771" t="s">
+        <v>125</v>
+      </c>
+      <c r="H771" t="s">
+        <v>127</v>
+      </c>
+      <c r="I771" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="772" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A772" t="s">
+        <v>9</v>
+      </c>
+      <c r="B772" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="C772" s="1">
+        <v>44217</v>
+      </c>
+      <c r="G772" t="s">
+        <v>125</v>
+      </c>
+      <c r="H772" t="s">
+        <v>126</v>
+      </c>
+      <c r="I772" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="773" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A773" t="s">
+        <v>9</v>
+      </c>
+      <c r="B773" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="C773" s="1">
+        <v>44217</v>
+      </c>
+      <c r="G773" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="774" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A774" t="s">
+        <v>9</v>
+      </c>
+      <c r="B774" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="C774" s="1">
+        <v>44217</v>
+      </c>
+      <c r="G774" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="775" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A775" t="s">
+        <v>9</v>
+      </c>
+      <c r="B775" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="C775" s="1">
+        <v>44217</v>
+      </c>
+      <c r="G775" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="776" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A776" t="s">
+        <v>9</v>
+      </c>
+      <c r="B776" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="C776" s="1">
+        <v>44217</v>
+      </c>
+      <c r="G776" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="777" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A777" t="s">
+        <v>9</v>
+      </c>
+      <c r="B777" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="C777" s="1">
+        <v>44217</v>
+      </c>
+      <c r="G777" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="778" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A778" t="s">
+        <v>9</v>
+      </c>
+      <c r="B778" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="C778" s="1">
+        <v>44217</v>
+      </c>
+      <c r="G778" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="779" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A779" t="s">
+        <v>9</v>
+      </c>
+      <c r="B779" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="C779" s="1">
+        <v>44223</v>
+      </c>
+      <c r="G779" t="s">
+        <v>75</v>
+      </c>
+      <c r="H779" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="780" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A780" t="s">
+        <v>9</v>
+      </c>
+      <c r="B780" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="C780" s="1">
+        <v>44223</v>
+      </c>
+      <c r="G780" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="781" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A781" t="s">
+        <v>9</v>
+      </c>
+      <c r="B781" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="C781" s="1">
+        <v>44223</v>
+      </c>
+      <c r="G781" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="782" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A782" t="s">
+        <v>9</v>
+      </c>
+      <c r="B782" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="C782" s="1">
+        <v>44223</v>
+      </c>
+      <c r="G782" t="s">
+        <v>125</v>
+      </c>
+      <c r="H782" t="s">
+        <v>126</v>
+      </c>
+      <c r="I782" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="783" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A783" t="s">
+        <v>9</v>
+      </c>
+      <c r="B783" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="C783" s="1">
+        <v>44223</v>
+      </c>
+      <c r="G783" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="784" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A784" t="s">
+        <v>9</v>
+      </c>
+      <c r="B784" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="C784" s="1">
+        <v>44223</v>
+      </c>
+      <c r="G784" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="785" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A785" t="s">
+        <v>9</v>
+      </c>
+      <c r="B785" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="C785" s="1">
+        <v>44223</v>
+      </c>
+      <c r="G785" t="s">
+        <v>80</v>
+      </c>
+      <c r="H785" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="786" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A786" t="s">
+        <v>9</v>
+      </c>
+      <c r="B786" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="C786" s="1">
+        <v>44223</v>
+      </c>
+      <c r="G786" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="787" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A787" t="s">
+        <v>9</v>
+      </c>
+      <c r="B787" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="C787" s="1">
+        <v>44222</v>
+      </c>
+      <c r="G787" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="788" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A788" t="s">
+        <v>9</v>
+      </c>
+      <c r="B788" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="C788" s="1">
+        <v>44222</v>
+      </c>
+      <c r="G788" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="789" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A789" t="s">
+        <v>9</v>
+      </c>
+      <c r="B789" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="C789" s="1">
+        <v>44222</v>
+      </c>
+      <c r="G789" t="s">
+        <v>80</v>
+      </c>
+      <c r="H789" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="790" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A790" t="s">
+        <v>9</v>
+      </c>
+      <c r="B790" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="C790" s="1">
+        <v>44222</v>
+      </c>
+      <c r="G790" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="791" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A791" t="s">
+        <v>9</v>
+      </c>
+      <c r="B791" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="C791" s="1">
+        <v>44222</v>
+      </c>
+      <c r="G791" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="792" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A792" t="s">
+        <v>9</v>
+      </c>
+      <c r="B792" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="C792" s="1">
+        <v>44222</v>
+      </c>
+      <c r="G792" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="793" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A793" t="s">
+        <v>9</v>
+      </c>
+      <c r="B793" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="C793" s="1">
+        <v>44222</v>
+      </c>
+      <c r="G793" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="794" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A794" t="s">
+        <v>9</v>
+      </c>
+      <c r="B794" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="C794" s="1">
+        <v>44222</v>
+      </c>
+      <c r="D794" t="s">
+        <v>136</v>
+      </c>
+      <c r="E794" t="s">
+        <v>135</v>
+      </c>
+      <c r="F794" t="s">
+        <v>131</v>
+      </c>
+      <c r="G794" t="s">
+        <v>75</v>
+      </c>
+      <c r="H794" t="s">
+        <v>91</v>
+      </c>
+      <c r="I794" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="795" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A795" t="s">
+        <v>9</v>
+      </c>
+      <c r="B795" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="C795" s="1">
+        <v>44221</v>
+      </c>
+      <c r="G795" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="796" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A796" t="s">
+        <v>9</v>
+      </c>
+      <c r="B796" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="C796" s="1">
+        <v>44221</v>
+      </c>
+      <c r="G796" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="797" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A797" t="s">
+        <v>9</v>
+      </c>
+      <c r="B797" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="C797" s="1">
+        <v>44221</v>
+      </c>
+      <c r="G797" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="798" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A798" t="s">
+        <v>9</v>
+      </c>
+      <c r="B798" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="C798" s="1">
+        <v>44221</v>
+      </c>
+      <c r="G798" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="799" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A799" t="s">
+        <v>9</v>
+      </c>
+      <c r="B799" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="C799" s="1">
+        <v>44221</v>
+      </c>
+      <c r="G799" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="800" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A800" t="s">
+        <v>9</v>
+      </c>
+      <c r="B800" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="C800" s="1">
+        <v>44221</v>
+      </c>
+      <c r="G800" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="801" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A801" t="s">
+        <v>9</v>
+      </c>
+      <c r="B801" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="C801" s="1">
+        <v>44221</v>
+      </c>
+      <c r="G801" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="802" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A802" t="s">
+        <v>9</v>
+      </c>
+      <c r="B802" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="C802" s="1">
+        <v>44221</v>
+      </c>
+      <c r="G802" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="803" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A803" t="s">
+        <v>9</v>
+      </c>
+      <c r="B803" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="C803" s="1">
+        <v>44221</v>
+      </c>
+      <c r="G803" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="804" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A804" t="s">
+        <v>9</v>
+      </c>
+      <c r="B804" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="C804" s="1">
+        <v>44221</v>
+      </c>
+      <c r="G804" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="805" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A805" t="s">
+        <v>9</v>
+      </c>
+      <c r="B805" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="C805" s="1">
+        <v>44221</v>
+      </c>
+      <c r="G805" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="806" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A806" t="s">
+        <v>9</v>
+      </c>
+      <c r="B806" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="C806" s="1">
+        <v>44221</v>
+      </c>
+      <c r="G806" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="807" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A807" t="s">
+        <v>9</v>
+      </c>
+      <c r="B807" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="C807" s="1">
+        <v>44221</v>
+      </c>
+      <c r="D807" t="s">
+        <v>74</v>
+      </c>
+      <c r="E807" t="s">
+        <v>36</v>
+      </c>
+      <c r="G807" t="s">
+        <v>75</v>
+      </c>
+      <c r="H807" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="808" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A808" t="s">
+        <v>9</v>
+      </c>
+      <c r="B808" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="C808" s="1">
+        <v>44221</v>
+      </c>
+      <c r="D808" t="s">
+        <v>74</v>
+      </c>
+      <c r="E808" t="s">
+        <v>36</v>
+      </c>
+      <c r="G808" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="809" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A809" t="s">
+        <v>9</v>
+      </c>
+      <c r="B809" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="C809" s="1">
+        <v>44221</v>
+      </c>
+      <c r="G809" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="810" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A810" t="s">
+        <v>9</v>
+      </c>
+      <c r="B810" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="C810" s="1">
+        <v>44221</v>
+      </c>
+      <c r="G810" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/docs/log.xlsx
+++ b/docs/log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emory-my.sharepoint.com/personal/asshah4_emory_edu/Documents/projects/clinical/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emory-my.sharepoint.com/personal/asshah4_emory_edu/Documents/projects/clinical/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2498" documentId="13_ncr:1_{3CB9D789-FF1C-4735-9260-A83070EE7DFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F6B45D85-7FCC-4E6E-8C08-AEDE60B93656}"/>
+  <xr:revisionPtr revIDLastSave="2936" documentId="13_ncr:1_{3CB9D789-FF1C-4735-9260-A83070EE7DFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E6EE5A12-DF75-415A-AAE1-0ED910A31918}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5572" uniqueCount="1077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5965" uniqueCount="1129">
   <si>
     <t>SITE</t>
   </si>
@@ -3230,9 +3230,6 @@
     <t>M5946</t>
   </si>
   <si>
-    <t>atrial fibrillatin</t>
-  </si>
-  <si>
     <t>S2461</t>
   </si>
   <si>
@@ -3261,6 +3258,165 @@
   </si>
   <si>
     <t>SAH</t>
+  </si>
+  <si>
+    <t>A0961</t>
+  </si>
+  <si>
+    <t>A031721</t>
+  </si>
+  <si>
+    <t>M4905</t>
+  </si>
+  <si>
+    <t>M6760</t>
+  </si>
+  <si>
+    <t>W3739</t>
+  </si>
+  <si>
+    <t>W1292</t>
+  </si>
+  <si>
+    <t>F4109</t>
+  </si>
+  <si>
+    <t>W5445</t>
+  </si>
+  <si>
+    <t>J5913</t>
+  </si>
+  <si>
+    <t>080390533</t>
+  </si>
+  <si>
+    <t>080737600</t>
+  </si>
+  <si>
+    <t>080110157</t>
+  </si>
+  <si>
+    <t>080291464</t>
+  </si>
+  <si>
+    <t>081554781</t>
+  </si>
+  <si>
+    <t>200296075</t>
+  </si>
+  <si>
+    <t>AVRT</t>
+  </si>
+  <si>
+    <t>080702661</t>
+  </si>
+  <si>
+    <t>081489693</t>
+  </si>
+  <si>
+    <t>200309504</t>
+  </si>
+  <si>
+    <t>080090879</t>
+  </si>
+  <si>
+    <t>SDH</t>
+  </si>
+  <si>
+    <t>010639649</t>
+  </si>
+  <si>
+    <t>MAT</t>
+  </si>
+  <si>
+    <t>050538172</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t>implantable loop recorder</t>
+  </si>
+  <si>
+    <t>interrogation</t>
+  </si>
+  <si>
+    <t>200197497</t>
+  </si>
+  <si>
+    <t>072487523</t>
+  </si>
+  <si>
+    <t>CTI</t>
+  </si>
+  <si>
+    <t>induction</t>
+  </si>
+  <si>
+    <t>6514399</t>
+  </si>
+  <si>
+    <t>5099054</t>
+  </si>
+  <si>
+    <t>5112511</t>
+  </si>
+  <si>
+    <t>5562518</t>
+  </si>
+  <si>
+    <t>5408246</t>
+  </si>
+  <si>
+    <t>7889276</t>
+  </si>
+  <si>
+    <t>5455279</t>
+  </si>
+  <si>
+    <t>081558935</t>
+  </si>
+  <si>
+    <t>OLT</t>
+  </si>
+  <si>
+    <t>080747402</t>
+  </si>
+  <si>
+    <t>080891180</t>
+  </si>
+  <si>
+    <t>L2544</t>
+  </si>
+  <si>
+    <t>B0046</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>B0778</t>
+  </si>
+  <si>
+    <t>J7566</t>
+  </si>
+  <si>
+    <t>C3945</t>
+  </si>
+  <si>
+    <t>20016336</t>
+  </si>
+  <si>
+    <t>GPA</t>
+  </si>
+  <si>
+    <t>100J</t>
+  </si>
+  <si>
+    <t>B9124</t>
+  </si>
+  <si>
+    <t>L4750</t>
   </si>
 </sst>
 </file>
@@ -3656,11 +3812,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1153"/>
+  <dimension ref="A1:K1224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1154" sqref="C1154"/>
+    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1225" sqref="B1225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24667,6 +24823,18 @@
       <c r="B1025" s="4" t="s">
         <v>919</v>
       </c>
+      <c r="C1025" s="1">
+        <v>44245</v>
+      </c>
+      <c r="G1025" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1025" t="s">
+        <v>728</v>
+      </c>
+      <c r="I1025" t="s">
+        <v>751</v>
+      </c>
       <c r="J1025" s="13" t="s">
         <v>920</v>
       </c>
@@ -24678,6 +24846,18 @@
       <c r="B1026" s="4" t="s">
         <v>921</v>
       </c>
+      <c r="C1026" s="1">
+        <v>44245</v>
+      </c>
+      <c r="G1026" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1026" t="s">
+        <v>728</v>
+      </c>
+      <c r="I1026" t="s">
+        <v>751</v>
+      </c>
       <c r="J1026" s="13" t="s">
         <v>920</v>
       </c>
@@ -24689,6 +24869,18 @@
       <c r="B1027" s="4" t="s">
         <v>922</v>
       </c>
+      <c r="C1027" s="1">
+        <v>44245</v>
+      </c>
+      <c r="G1027" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1027" t="s">
+        <v>728</v>
+      </c>
+      <c r="I1027" t="s">
+        <v>751</v>
+      </c>
       <c r="J1027" s="13" t="s">
         <v>923</v>
       </c>
@@ -24700,6 +24892,18 @@
       <c r="B1028" s="11" t="s">
         <v>924</v>
       </c>
+      <c r="C1028" s="1">
+        <v>44245</v>
+      </c>
+      <c r="G1028" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1028" t="s">
+        <v>728</v>
+      </c>
+      <c r="I1028" t="s">
+        <v>751</v>
+      </c>
       <c r="J1028" s="13" t="s">
         <v>925</v>
       </c>
@@ -24711,6 +24915,18 @@
       <c r="B1029" s="4" t="s">
         <v>926</v>
       </c>
+      <c r="C1029" s="1">
+        <v>44245</v>
+      </c>
+      <c r="G1029" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1029" t="s">
+        <v>728</v>
+      </c>
+      <c r="I1029" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="1030" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1030" t="s">
@@ -24719,6 +24935,18 @@
       <c r="B1030" s="4" t="s">
         <v>927</v>
       </c>
+      <c r="C1030" s="1">
+        <v>44245</v>
+      </c>
+      <c r="G1030" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1030" t="s">
+        <v>728</v>
+      </c>
+      <c r="I1030" t="s">
+        <v>751</v>
+      </c>
       <c r="J1030" s="13" t="s">
         <v>928</v>
       </c>
@@ -24730,6 +24958,18 @@
       <c r="B1031" s="11" t="s">
         <v>926</v>
       </c>
+      <c r="C1031" s="1">
+        <v>44245</v>
+      </c>
+      <c r="G1031" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1031" t="s">
+        <v>728</v>
+      </c>
+      <c r="I1031" t="s">
+        <v>751</v>
+      </c>
       <c r="J1031" s="13" t="s">
         <v>929</v>
       </c>
@@ -24744,95 +24984,113 @@
       <c r="C1032" s="1">
         <v>44245</v>
       </c>
+      <c r="G1032" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1032" t="s">
+        <v>728</v>
+      </c>
+      <c r="I1032" t="s">
+        <v>751</v>
+      </c>
       <c r="J1032" s="13" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="1033" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1033" t="s">
-        <v>63</v>
+        <v>588</v>
       </c>
       <c r="B1033" s="4" t="s">
-        <v>932</v>
+        <v>1109</v>
       </c>
       <c r="C1033" s="1">
-        <v>44246</v>
-      </c>
-      <c r="D1033" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1033" t="s">
-        <v>142</v>
+        <v>44245</v>
+      </c>
+      <c r="G1033" t="s">
+        <v>73</v>
       </c>
       <c r="H1033" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1034" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1034" t="s">
-        <v>63</v>
+        <v>588</v>
       </c>
       <c r="B1034" s="4" t="s">
-        <v>103</v>
+        <v>1110</v>
       </c>
       <c r="C1034" s="1">
-        <v>44246</v>
+        <v>44245</v>
+      </c>
+      <c r="G1034" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1034" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="1035" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1035" t="s">
-        <v>63</v>
+        <v>588</v>
       </c>
       <c r="B1035" s="4" t="s">
-        <v>436</v>
+        <v>1111</v>
       </c>
       <c r="C1035" s="1">
-        <v>44246</v>
+        <v>44245</v>
+      </c>
+      <c r="G1035" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1035" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="1036" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1036" t="s">
-        <v>63</v>
-      </c>
       <c r="B1036" s="4" t="s">
-        <v>933</v>
+        <v>1024</v>
       </c>
       <c r="C1036" s="1">
-        <v>44246</v>
+        <v>44245</v>
+      </c>
+      <c r="G1036" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1036" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="1037" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1037" t="s">
-        <v>63</v>
-      </c>
       <c r="B1037" s="4" t="s">
-        <v>934</v>
+        <v>1113</v>
       </c>
       <c r="C1037" s="1">
-        <v>44246</v>
+        <v>44245</v>
+      </c>
+      <c r="G1037" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1037" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="1038" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1038" t="s">
-        <v>63</v>
+        <v>588</v>
       </c>
       <c r="B1038" s="4" t="s">
-        <v>935</v>
+        <v>1112</v>
       </c>
       <c r="C1038" s="1">
-        <v>44247</v>
-      </c>
-      <c r="D1038" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1038" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1038" t="s">
-        <v>70</v>
+        <v>44245</v>
+      </c>
+      <c r="G1038" t="s">
+        <v>73</v>
       </c>
       <c r="H1038" t="s">
-        <v>195</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1039" spans="1:10" x14ac:dyDescent="0.35">
@@ -24840,19 +25098,19 @@
         <v>63</v>
       </c>
       <c r="B1039" s="4" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C1039" s="1">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="D1039" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="E1039" t="s">
-        <v>937</v>
+        <v>142</v>
       </c>
       <c r="H1039" t="s">
-        <v>195</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1040" spans="1:10" x14ac:dyDescent="0.35">
@@ -24860,19 +25118,10 @@
         <v>63</v>
       </c>
       <c r="B1040" s="4" t="s">
-        <v>938</v>
+        <v>103</v>
       </c>
       <c r="C1040" s="1">
-        <v>44247</v>
-      </c>
-      <c r="D1040" t="s">
-        <v>939</v>
-      </c>
-      <c r="E1040" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1040" t="s">
-        <v>19</v>
+        <v>44246</v>
       </c>
     </row>
     <row r="1041" spans="1:11" x14ac:dyDescent="0.35">
@@ -24880,39 +25129,21 @@
         <v>63</v>
       </c>
       <c r="B1041" s="4" t="s">
-        <v>940</v>
+        <v>436</v>
       </c>
       <c r="C1041" s="1">
-        <v>44247</v>
-      </c>
-      <c r="D1041" t="s">
-        <v>723</v>
-      </c>
-      <c r="E1041" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1041" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+        <v>44246</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1042" t="s">
         <v>63</v>
       </c>
-      <c r="B1042" s="11" t="s">
-        <v>941</v>
+      <c r="B1042" s="4" t="s">
+        <v>933</v>
       </c>
       <c r="C1042" s="1">
-        <v>44247</v>
-      </c>
-      <c r="D1042" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1042" t="s">
-        <v>195</v>
-      </c>
-      <c r="J1042" s="13" t="s">
-        <v>942</v>
+        <v>44246</v>
       </c>
     </row>
     <row r="1043" spans="1:11" x14ac:dyDescent="0.35">
@@ -24920,13 +25151,10 @@
         <v>63</v>
       </c>
       <c r="B1043" s="4" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="C1043" s="1">
-        <v>44247</v>
-      </c>
-      <c r="D1043" t="s">
-        <v>205</v>
+        <v>44246</v>
       </c>
     </row>
     <row r="1044" spans="1:11" x14ac:dyDescent="0.35">
@@ -24934,68 +25162,62 @@
         <v>63</v>
       </c>
       <c r="B1044" s="4" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="C1044" s="1">
         <v>44247</v>
       </c>
       <c r="D1044" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1044" t="s">
         <v>24</v>
       </c>
-      <c r="E1044" t="s">
-        <v>945</v>
+      <c r="F1044" t="s">
+        <v>70</v>
       </c>
       <c r="H1044" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="1045" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1045" t="s">
         <v>63</v>
       </c>
-      <c r="B1045" s="11" t="s">
-        <v>946</v>
+      <c r="B1045" s="4" t="s">
+        <v>936</v>
       </c>
       <c r="C1045" s="1">
         <v>44247</v>
       </c>
       <c r="D1045" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="E1045" t="s">
-        <v>947</v>
-      </c>
-      <c r="F1045" t="s">
-        <v>70</v>
+        <v>937</v>
       </c>
       <c r="H1045" t="s">
         <v>195</v>
       </c>
-      <c r="J1045" s="13" t="s">
-        <v>948</v>
-      </c>
-      <c r="K1045">
-        <v>1</v>
-      </c>
     </row>
     <row r="1046" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1046" t="s">
         <v>63</v>
       </c>
       <c r="B1046" s="4" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="C1046" s="1">
         <v>44247</v>
       </c>
       <c r="D1046" t="s">
-        <v>193</v>
+        <v>939</v>
       </c>
       <c r="E1046" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1046" t="s">
-        <v>148</v>
+        <v>58</v>
+      </c>
+      <c r="F1046" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="1047" spans="1:11" x14ac:dyDescent="0.35">
@@ -25003,165 +25225,153 @@
         <v>63</v>
       </c>
       <c r="B1047" s="4" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="C1047" s="1">
         <v>44247</v>
       </c>
       <c r="D1047" t="s">
+        <v>723</v>
+      </c>
+      <c r="E1047" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1047" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1048" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1048" s="11" t="s">
+        <v>941</v>
+      </c>
+      <c r="C1048" s="1">
+        <v>44247</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1048" t="s">
+        <v>195</v>
+      </c>
+      <c r="J1048" s="13" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1049" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1049" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="C1049" s="1">
+        <v>44247</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1050" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1050" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="C1050" s="1">
+        <v>44247</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>945</v>
+      </c>
+      <c r="H1050" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1051" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1051" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="C1051" s="1">
+        <v>44247</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>947</v>
+      </c>
+      <c r="F1051" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1051" t="s">
+        <v>195</v>
+      </c>
+      <c r="J1051" s="13" t="s">
+        <v>948</v>
+      </c>
+      <c r="K1051">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1052" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1052" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="C1052" s="1">
+        <v>44247</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1052" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1053" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1053" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="C1053" s="1">
+        <v>44247</v>
+      </c>
+      <c r="D1053" t="s">
         <v>66</v>
       </c>
-      <c r="E1047" t="s">
+      <c r="E1053" t="s">
         <v>24</v>
       </c>
-      <c r="H1047" t="s">
+      <c r="H1053" t="s">
         <v>148</v>
       </c>
-      <c r="I1047" t="s">
+      <c r="I1053" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="1048" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1048" t="s">
-        <v>588</v>
-      </c>
-      <c r="B1048" s="4" t="s">
+    <row r="1054" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1054" t="s">
+        <v>588</v>
+      </c>
+      <c r="B1054" s="4" t="s">
         <v>952</v>
-      </c>
-      <c r="C1048" s="1">
-        <v>44249</v>
-      </c>
-      <c r="G1048" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1048" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1048" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="1049" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1049" t="s">
-        <v>588</v>
-      </c>
-      <c r="B1049" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="C1049" s="1">
-        <v>44249</v>
-      </c>
-      <c r="G1049" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1049" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1049" t="s">
-        <v>751</v>
-      </c>
-      <c r="J1049" s="13" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="1050" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1050" t="s">
-        <v>588</v>
-      </c>
-      <c r="B1050" s="4" t="s">
-        <v>954</v>
-      </c>
-      <c r="C1050" s="1">
-        <v>44249</v>
-      </c>
-      <c r="G1050" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1050" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1050" t="s">
-        <v>751</v>
-      </c>
-      <c r="J1050" s="13" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="1051" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A1051" t="s">
-        <v>588</v>
-      </c>
-      <c r="B1051" s="4" t="s">
-        <v>957</v>
-      </c>
-      <c r="C1051" s="1">
-        <v>44249</v>
-      </c>
-      <c r="G1051" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1051" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1051" t="s">
-        <v>751</v>
-      </c>
-      <c r="J1051" s="13" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="1052" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A1052" t="s">
-        <v>588</v>
-      </c>
-      <c r="B1052" s="4" t="s">
-        <v>959</v>
-      </c>
-      <c r="C1052" s="1">
-        <v>44249</v>
-      </c>
-      <c r="G1052" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1052" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1052" t="s">
-        <v>751</v>
-      </c>
-      <c r="J1052" s="13" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="1053" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A1053" t="s">
-        <v>588</v>
-      </c>
-      <c r="B1053" s="4" t="s">
-        <v>961</v>
-      </c>
-      <c r="C1053" s="1">
-        <v>44249</v>
-      </c>
-      <c r="G1053" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1053" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1053" t="s">
-        <v>751</v>
-      </c>
-      <c r="J1053" s="13" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="1054" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1054" t="s">
-        <v>588</v>
-      </c>
-      <c r="B1054" s="4" t="s">
-        <v>963</v>
       </c>
       <c r="C1054" s="1">
         <v>44249</v>
@@ -25175,16 +25385,13 @@
       <c r="I1054" t="s">
         <v>751</v>
       </c>
-      <c r="J1054" s="13" t="s">
-        <v>964</v>
-      </c>
     </row>
     <row r="1055" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1055" t="s">
         <v>588</v>
       </c>
       <c r="B1055" s="4" t="s">
-        <v>965</v>
+        <v>953</v>
       </c>
       <c r="C1055" s="1">
         <v>44249</v>
@@ -25199,7 +25406,7 @@
         <v>751</v>
       </c>
       <c r="J1055" s="13" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
     </row>
     <row r="1056" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -25207,7 +25414,7 @@
         <v>588</v>
       </c>
       <c r="B1056" s="4" t="s">
-        <v>967</v>
+        <v>954</v>
       </c>
       <c r="C1056" s="1">
         <v>44249</v>
@@ -25222,15 +25429,15 @@
         <v>751</v>
       </c>
       <c r="J1056" s="13" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="1057" spans="1:10" x14ac:dyDescent="0.35">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A1057" t="s">
         <v>588</v>
       </c>
       <c r="B1057" s="4" t="s">
-        <v>969</v>
+        <v>957</v>
       </c>
       <c r="C1057" s="1">
         <v>44249</v>
@@ -25244,13 +25451,16 @@
       <c r="I1057" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="1058" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J1057" s="13" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A1058" t="s">
         <v>588</v>
       </c>
       <c r="B1058" s="4" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
       <c r="C1058" s="1">
         <v>44249</v>
@@ -25264,13 +25474,16 @@
       <c r="I1058" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="1059" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J1058" s="13" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A1059" t="s">
         <v>588</v>
       </c>
-      <c r="B1059" s="11" t="s">
-        <v>971</v>
+      <c r="B1059" s="4" t="s">
+        <v>961</v>
       </c>
       <c r="C1059" s="1">
         <v>44249</v>
@@ -25285,7 +25498,7 @@
         <v>751</v>
       </c>
       <c r="J1059" s="13" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
     </row>
     <row r="1060" spans="1:10" ht="29" x14ac:dyDescent="0.35">
@@ -25293,7 +25506,7 @@
         <v>588</v>
       </c>
       <c r="B1060" s="4" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="C1060" s="1">
         <v>44249</v>
@@ -25308,64 +25521,73 @@
         <v>751</v>
       </c>
       <c r="J1060" s="13" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:10" x14ac:dyDescent="0.35">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1061" t="s">
         <v>588</v>
       </c>
       <c r="B1061" s="4" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="C1061" s="1">
-        <v>44247</v>
-      </c>
-    </row>
-    <row r="1062" spans="1:10" x14ac:dyDescent="0.35">
+        <v>44249</v>
+      </c>
+      <c r="G1061" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1061" t="s">
+        <v>728</v>
+      </c>
+      <c r="I1061" t="s">
+        <v>751</v>
+      </c>
+      <c r="J1061" s="13" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1062" t="s">
         <v>588</v>
       </c>
       <c r="B1062" s="4" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
       <c r="C1062" s="1">
-        <v>44251</v>
+        <v>44249</v>
       </c>
       <c r="G1062" t="s">
-        <v>446</v>
+        <v>123</v>
       </c>
       <c r="H1062" t="s">
-        <v>38</v>
+        <v>728</v>
       </c>
       <c r="I1062" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+        <v>751</v>
+      </c>
+      <c r="J1062" s="13" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1063" t="s">
         <v>588</v>
       </c>
       <c r="B1063" s="4" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="C1063" s="1">
-        <v>44251</v>
-      </c>
-      <c r="D1063" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1063" t="s">
-        <v>203</v>
+        <v>44249</v>
       </c>
       <c r="G1063" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="H1063" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1063" s="13" t="s">
-        <v>978</v>
+        <v>728</v>
+      </c>
+      <c r="I1063" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="1064" spans="1:10" x14ac:dyDescent="0.35">
@@ -25373,56 +25595,65 @@
         <v>588</v>
       </c>
       <c r="B1064" s="4" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="C1064" s="1">
-        <v>44251</v>
+        <v>44249</v>
       </c>
       <c r="G1064" t="s">
-        <v>73</v>
+        <v>123</v>
+      </c>
+      <c r="H1064" t="s">
+        <v>728</v>
+      </c>
+      <c r="I1064" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="1065" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1065" t="s">
         <v>588</v>
       </c>
-      <c r="B1065" s="4" t="s">
-        <v>979</v>
+      <c r="B1065" s="11" t="s">
+        <v>971</v>
       </c>
       <c r="C1065" s="1">
-        <v>44251</v>
-      </c>
-      <c r="D1065" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1065" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1065" t="s">
-        <v>60</v>
+        <v>44249</v>
       </c>
       <c r="G1065" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="H1065" t="s">
-        <v>89</v>
+        <v>728</v>
+      </c>
+      <c r="I1065" t="s">
+        <v>751</v>
       </c>
       <c r="J1065" s="13" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1066" spans="1:10" x14ac:dyDescent="0.35">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1066" t="s">
         <v>588</v>
       </c>
       <c r="B1066" s="4" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="C1066" s="1">
-        <v>44251</v>
+        <v>44249</v>
       </c>
       <c r="G1066" t="s">
-        <v>73</v>
+        <v>123</v>
+      </c>
+      <c r="H1066" t="s">
+        <v>728</v>
+      </c>
+      <c r="I1066" t="s">
+        <v>751</v>
+      </c>
+      <c r="J1066" s="13" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="1067" spans="1:10" x14ac:dyDescent="0.35">
@@ -25430,25 +25661,10 @@
         <v>588</v>
       </c>
       <c r="B1067" s="4" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="C1067" s="1">
-        <v>44251</v>
-      </c>
-      <c r="D1067" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1067" t="s">
-        <v>203</v>
-      </c>
-      <c r="G1067" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1067" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1067" s="13" t="s">
-        <v>982</v>
+        <v>44247</v>
       </c>
     </row>
     <row r="1068" spans="1:10" x14ac:dyDescent="0.35">
@@ -25456,16 +25672,19 @@
         <v>588</v>
       </c>
       <c r="B1068" s="4" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="C1068" s="1">
         <v>44251</v>
       </c>
       <c r="G1068" t="s">
-        <v>73</v>
+        <v>446</v>
       </c>
       <c r="H1068" t="s">
-        <v>89</v>
+        <v>38</v>
+      </c>
+      <c r="I1068" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="1069" spans="1:10" ht="29" x14ac:dyDescent="0.35">
@@ -25473,22 +25692,25 @@
         <v>588</v>
       </c>
       <c r="B1069" s="4" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="C1069" s="1">
         <v>44251</v>
       </c>
+      <c r="D1069" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1069" t="s">
+        <v>203</v>
+      </c>
       <c r="G1069" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="H1069" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1069" t="s">
-        <v>751</v>
+        <v>89</v>
       </c>
       <c r="J1069" s="13" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
     </row>
     <row r="1070" spans="1:10" x14ac:dyDescent="0.35">
@@ -25496,45 +25718,42 @@
         <v>588</v>
       </c>
       <c r="B1070" s="4" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="C1070" s="1">
         <v>44251</v>
       </c>
       <c r="G1070" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1070" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1070" t="s">
-        <v>751</v>
-      </c>
-      <c r="J1070" s="13" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="1071" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1071" t="s">
         <v>588</v>
       </c>
       <c r="B1071" s="4" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="C1071" s="1">
         <v>44251</v>
       </c>
+      <c r="D1071" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1071" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1071" t="s">
+        <v>60</v>
+      </c>
       <c r="G1071" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="H1071" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1071" t="s">
-        <v>751</v>
+        <v>89</v>
       </c>
       <c r="J1071" s="13" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
     </row>
     <row r="1072" spans="1:10" x14ac:dyDescent="0.35">
@@ -25542,45 +25761,39 @@
         <v>588</v>
       </c>
       <c r="B1072" s="4" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
       <c r="C1072" s="1">
         <v>44251</v>
       </c>
       <c r="G1072" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1072" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1072" t="s">
-        <v>751</v>
-      </c>
-      <c r="J1072" s="13" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="1073" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1073" t="s">
         <v>588</v>
       </c>
-      <c r="B1073" s="11" t="s">
-        <v>990</v>
+      <c r="B1073" s="4" t="s">
+        <v>981</v>
       </c>
       <c r="C1073" s="1">
         <v>44251</v>
       </c>
+      <c r="D1073" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1073" t="s">
+        <v>203</v>
+      </c>
       <c r="G1073" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="H1073" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1073" t="s">
-        <v>751</v>
+        <v>89</v>
       </c>
       <c r="J1073" s="13" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="1074" spans="1:10" x14ac:dyDescent="0.35">
@@ -25588,30 +25801,24 @@
         <v>588</v>
       </c>
       <c r="B1074" s="4" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
       <c r="C1074" s="1">
         <v>44251</v>
       </c>
       <c r="G1074" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="H1074" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1074" t="s">
-        <v>751</v>
-      </c>
-      <c r="J1074" s="13" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="1075" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1075" t="s">
         <v>588</v>
       </c>
       <c r="B1075" s="4" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="C1075" s="1">
         <v>44251</v>
@@ -25625,13 +25832,16 @@
       <c r="I1075" t="s">
         <v>751</v>
       </c>
+      <c r="J1075" s="13" t="s">
+        <v>985</v>
+      </c>
     </row>
     <row r="1076" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1076" t="s">
         <v>588</v>
       </c>
       <c r="B1076" s="4" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="C1076" s="1">
         <v>44251</v>
@@ -25645,13 +25855,16 @@
       <c r="I1076" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="1077" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="J1076" s="13" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1077" t="s">
         <v>588</v>
       </c>
       <c r="B1077" s="4" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="C1077" s="1">
         <v>44251</v>
@@ -25666,7 +25879,7 @@
         <v>751</v>
       </c>
       <c r="J1077" s="13" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1078" spans="1:10" x14ac:dyDescent="0.35">
@@ -25674,7 +25887,7 @@
         <v>588</v>
       </c>
       <c r="B1078" s="4" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="C1078" s="1">
         <v>44251</v>
@@ -25689,15 +25902,15 @@
         <v>751</v>
       </c>
       <c r="J1078" s="13" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="1079" spans="1:10" x14ac:dyDescent="0.35">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1079" t="s">
         <v>588</v>
       </c>
-      <c r="B1079" s="4" t="s">
-        <v>983</v>
+      <c r="B1079" s="11" t="s">
+        <v>990</v>
       </c>
       <c r="C1079" s="1">
         <v>44251</v>
@@ -25712,7 +25925,7 @@
         <v>751</v>
       </c>
       <c r="J1079" s="13" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
     </row>
     <row r="1080" spans="1:10" x14ac:dyDescent="0.35">
@@ -25720,7 +25933,7 @@
         <v>588</v>
       </c>
       <c r="B1080" s="4" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="C1080" s="1">
         <v>44251</v>
@@ -25735,15 +25948,15 @@
         <v>751</v>
       </c>
       <c r="J1080" s="13" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="1081" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1081" t="s">
         <v>588</v>
       </c>
       <c r="B1081" s="4" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="C1081" s="1">
         <v>44251</v>
@@ -25757,39 +25970,48 @@
       <c r="I1081" t="s">
         <v>751</v>
       </c>
-      <c r="J1081" s="13" t="s">
-        <v>1002</v>
-      </c>
     </row>
     <row r="1082" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1082" t="s">
         <v>588</v>
       </c>
       <c r="B1082" s="4" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="C1082" s="1">
         <v>44251</v>
       </c>
-    </row>
-    <row r="1083" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G1082" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1082" t="s">
+        <v>728</v>
+      </c>
+      <c r="I1082" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1083" t="s">
         <v>588</v>
       </c>
       <c r="B1083" s="4" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="C1083" s="1">
-        <v>44252</v>
-      </c>
-      <c r="D1083" t="s">
-        <v>47</v>
+        <v>44251</v>
       </c>
       <c r="G1083" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="H1083" t="s">
-        <v>89</v>
+        <v>728</v>
+      </c>
+      <c r="I1083" t="s">
+        <v>751</v>
+      </c>
+      <c r="J1083" s="13" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="1084" spans="1:10" x14ac:dyDescent="0.35">
@@ -25797,25 +26019,22 @@
         <v>588</v>
       </c>
       <c r="B1084" s="4" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="C1084" s="1">
-        <v>44252</v>
-      </c>
-      <c r="D1084" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1084" t="s">
-        <v>170</v>
+        <v>44251</v>
       </c>
       <c r="G1084" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="H1084" t="s">
-        <v>89</v>
+        <v>728</v>
+      </c>
+      <c r="I1084" t="s">
+        <v>751</v>
       </c>
       <c r="J1084" s="13" t="s">
-        <v>1009</v>
+        <v>998</v>
       </c>
     </row>
     <row r="1085" spans="1:10" x14ac:dyDescent="0.35">
@@ -25823,22 +26042,22 @@
         <v>588</v>
       </c>
       <c r="B1085" s="4" t="s">
-        <v>1006</v>
+        <v>983</v>
       </c>
       <c r="C1085" s="1">
-        <v>44252</v>
-      </c>
-      <c r="D1085" t="s">
-        <v>47</v>
+        <v>44251</v>
       </c>
       <c r="G1085" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="H1085" t="s">
-        <v>99</v>
+        <v>728</v>
+      </c>
+      <c r="I1085" t="s">
+        <v>751</v>
       </c>
       <c r="J1085" s="13" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
     </row>
     <row r="1086" spans="1:10" x14ac:dyDescent="0.35">
@@ -25846,22 +26065,22 @@
         <v>588</v>
       </c>
       <c r="B1086" s="4" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="C1086" s="1">
-        <v>44252</v>
-      </c>
-      <c r="D1086" t="s">
-        <v>47</v>
+        <v>44251</v>
       </c>
       <c r="G1086" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="H1086" t="s">
-        <v>85</v>
+        <v>728</v>
       </c>
       <c r="I1086" t="s">
-        <v>785</v>
+        <v>751</v>
+      </c>
+      <c r="J1086" s="13" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="1087" spans="1:10" x14ac:dyDescent="0.35">
@@ -25869,13 +26088,10 @@
         <v>588</v>
       </c>
       <c r="B1087" s="4" t="s">
-        <v>1008</v>
+        <v>1107</v>
       </c>
       <c r="C1087" s="1">
-        <v>44252</v>
-      </c>
-      <c r="D1087" t="s">
-        <v>75</v>
+        <v>44250</v>
       </c>
       <c r="G1087" t="s">
         <v>73</v>
@@ -25885,17 +26101,11 @@
       </c>
     </row>
     <row r="1088" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1088" t="s">
-        <v>588</v>
-      </c>
       <c r="B1088" s="4" t="s">
-        <v>1010</v>
+        <v>1108</v>
       </c>
       <c r="C1088" s="1">
-        <v>44252</v>
-      </c>
-      <c r="D1088" t="s">
-        <v>47</v>
+        <v>44250</v>
       </c>
       <c r="G1088" t="s">
         <v>73</v>
@@ -25903,25 +26113,28 @@
       <c r="H1088" t="s">
         <v>89</v>
       </c>
-      <c r="J1088" s="13" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="1089" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1089" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1089" t="s">
         <v>588</v>
       </c>
       <c r="B1089" s="4" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="C1089" s="1">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="G1089" t="s">
-        <v>218</v>
+        <v>123</v>
       </c>
       <c r="H1089" t="s">
-        <v>252</v>
+        <v>728</v>
+      </c>
+      <c r="I1089" t="s">
+        <v>751</v>
+      </c>
+      <c r="J1089" s="13" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="1090" spans="1:10" x14ac:dyDescent="0.35">
@@ -25929,19 +26142,10 @@
         <v>588</v>
       </c>
       <c r="B1090" s="4" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="C1090" s="1">
-        <v>44252</v>
-      </c>
-      <c r="D1090" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1090" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1090" t="s">
-        <v>89</v>
+        <v>44251</v>
       </c>
     </row>
     <row r="1091" spans="1:10" x14ac:dyDescent="0.35">
@@ -25949,7 +26153,7 @@
         <v>588</v>
       </c>
       <c r="B1091" s="4" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="C1091" s="1">
         <v>44252</v>
@@ -25969,22 +26173,25 @@
         <v>588</v>
       </c>
       <c r="B1092" s="4" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="C1092" s="1">
         <v>44252</v>
       </c>
       <c r="D1092" t="s">
-        <v>47</v>
+        <v>75</v>
+      </c>
+      <c r="E1092" t="s">
+        <v>170</v>
       </c>
       <c r="G1092" t="s">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="H1092" t="s">
-        <v>1014</v>
-      </c>
-      <c r="I1092" t="s">
-        <v>1015</v>
+        <v>89</v>
+      </c>
+      <c r="J1092" s="13" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="1093" spans="1:10" x14ac:dyDescent="0.35">
@@ -25992,19 +26199,22 @@
         <v>588</v>
       </c>
       <c r="B1093" s="4" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="C1093" s="1">
         <v>44252</v>
       </c>
+      <c r="D1093" t="s">
+        <v>47</v>
+      </c>
       <c r="G1093" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="H1093" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1093" t="s">
-        <v>751</v>
+        <v>99</v>
+      </c>
+      <c r="J1093" s="13" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="1094" spans="1:10" x14ac:dyDescent="0.35">
@@ -26012,45 +26222,42 @@
         <v>588</v>
       </c>
       <c r="B1094" s="4" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
       <c r="C1094" s="1">
         <v>44252</v>
       </c>
+      <c r="D1094" t="s">
+        <v>47</v>
+      </c>
       <c r="G1094" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="H1094" t="s">
-        <v>728</v>
+        <v>85</v>
       </c>
       <c r="I1094" t="s">
-        <v>751</v>
-      </c>
-      <c r="J1094" s="13" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="1095" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1095" t="s">
         <v>588</v>
       </c>
       <c r="B1095" s="4" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="C1095" s="1">
         <v>44252</v>
       </c>
+      <c r="D1095" t="s">
+        <v>75</v>
+      </c>
       <c r="G1095" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="H1095" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1095" t="s">
-        <v>751</v>
-      </c>
-      <c r="J1095" s="13" t="s">
-        <v>1019</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1096" spans="1:10" x14ac:dyDescent="0.35">
@@ -26058,22 +26265,22 @@
         <v>588</v>
       </c>
       <c r="B1096" s="4" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="C1096" s="1">
         <v>44252</v>
       </c>
+      <c r="D1096" t="s">
+        <v>47</v>
+      </c>
       <c r="G1096" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="H1096" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1096" t="s">
-        <v>751</v>
+        <v>89</v>
       </c>
       <c r="J1096" s="13" t="s">
-        <v>339</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="1097" spans="1:10" x14ac:dyDescent="0.35">
@@ -26081,22 +26288,16 @@
         <v>588</v>
       </c>
       <c r="B1097" s="4" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="C1097" s="1">
         <v>44252</v>
       </c>
       <c r="G1097" t="s">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="H1097" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1097" t="s">
-        <v>751</v>
-      </c>
-      <c r="J1097" s="13" t="s">
-        <v>339</v>
+        <v>252</v>
       </c>
     </row>
     <row r="1098" spans="1:10" x14ac:dyDescent="0.35">
@@ -26104,45 +26305,39 @@
         <v>588</v>
       </c>
       <c r="B1098" s="4" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="C1098" s="1">
         <v>44252</v>
       </c>
+      <c r="D1098" t="s">
+        <v>47</v>
+      </c>
       <c r="G1098" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="H1098" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1098" t="s">
-        <v>751</v>
-      </c>
-      <c r="J1098" s="13" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="1099" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1099" t="s">
         <v>588</v>
       </c>
       <c r="B1099" s="4" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="C1099" s="1">
         <v>44252</v>
       </c>
+      <c r="D1099" t="s">
+        <v>47</v>
+      </c>
       <c r="G1099" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="H1099" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1099" t="s">
-        <v>751</v>
-      </c>
-      <c r="J1099" s="13" t="s">
-        <v>1025</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1100" spans="1:10" x14ac:dyDescent="0.35">
@@ -26150,90 +26345,99 @@
         <v>588</v>
       </c>
       <c r="B1100" s="4" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
       <c r="C1100" s="1">
         <v>44252</v>
       </c>
+      <c r="D1100" t="s">
+        <v>47</v>
+      </c>
       <c r="G1100" t="s">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="H1100" t="s">
-        <v>728</v>
+        <v>1014</v>
       </c>
       <c r="I1100" t="s">
-        <v>751</v>
-      </c>
-      <c r="J1100" s="13" t="s">
-        <v>339</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="1101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1101" t="s">
-        <v>63</v>
+        <v>588</v>
       </c>
       <c r="B1101" s="4" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
       <c r="C1101" s="1">
-        <v>44253</v>
-      </c>
-      <c r="D1101" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1101" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1101" t="s">
-        <v>109</v>
+        <v>44252</v>
+      </c>
+      <c r="G1101" t="s">
+        <v>123</v>
       </c>
       <c r="H1101" t="s">
-        <v>67</v>
+        <v>728</v>
+      </c>
+      <c r="I1101" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="1102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1102" t="s">
-        <v>63</v>
+        <v>588</v>
       </c>
       <c r="B1102" s="4" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
       <c r="C1102" s="1">
-        <v>44253</v>
-      </c>
-      <c r="D1102" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1102" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1102" t="s">
-        <v>22</v>
+        <v>44252</v>
+      </c>
+      <c r="G1102" t="s">
+        <v>123</v>
       </c>
       <c r="H1102" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="1103" spans="1:10" x14ac:dyDescent="0.35">
+        <v>728</v>
+      </c>
+      <c r="I1102" t="s">
+        <v>751</v>
+      </c>
+      <c r="J1102" s="13" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1103" t="s">
-        <v>63</v>
+        <v>588</v>
       </c>
       <c r="B1103" s="4" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
       <c r="C1103" s="1">
-        <v>44253</v>
-      </c>
-    </row>
-    <row r="1104" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+        <v>44252</v>
+      </c>
+      <c r="G1103" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1103" t="s">
+        <v>728</v>
+      </c>
+      <c r="I1103" t="s">
+        <v>751</v>
+      </c>
+      <c r="J1103" s="13" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1104" t="s">
         <v>588</v>
       </c>
       <c r="B1104" s="4" t="s">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="C1104" s="1">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="G1104" t="s">
         <v>123</v>
@@ -26245,7 +26449,7 @@
         <v>751</v>
       </c>
       <c r="J1104" s="13" t="s">
-        <v>1036</v>
+        <v>339</v>
       </c>
     </row>
     <row r="1105" spans="1:10" x14ac:dyDescent="0.35">
@@ -26253,10 +26457,10 @@
         <v>588</v>
       </c>
       <c r="B1105" s="4" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="C1105" s="1">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="G1105" t="s">
         <v>123</v>
@@ -26268,44 +26472,53 @@
         <v>751</v>
       </c>
       <c r="J1105" s="13" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="1106" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1106" t="s">
         <v>588</v>
       </c>
       <c r="B1106" s="4" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="C1106" s="1">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="G1106" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="H1106" t="s">
-        <v>89</v>
+        <v>728</v>
+      </c>
+      <c r="I1106" t="s">
+        <v>751</v>
       </c>
       <c r="J1106" s="13" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="1107" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1107" t="s">
         <v>588</v>
       </c>
       <c r="B1107" s="4" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
       <c r="C1107" s="1">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="G1107" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="H1107" t="s">
-        <v>89</v>
+        <v>728</v>
+      </c>
+      <c r="I1107" t="s">
+        <v>751</v>
+      </c>
+      <c r="J1107" s="13" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="1108" spans="1:10" x14ac:dyDescent="0.35">
@@ -26313,10 +26526,10 @@
         <v>588</v>
       </c>
       <c r="B1108" s="4" t="s">
-        <v>1037</v>
+        <v>1026</v>
       </c>
       <c r="C1108" s="1">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="G1108" t="s">
         <v>123</v>
@@ -26327,255 +26540,306 @@
       <c r="I1108" t="s">
         <v>751</v>
       </c>
+      <c r="J1108" s="13" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="1109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1109" t="s">
-        <v>588</v>
+        <v>63</v>
       </c>
       <c r="B1109" s="4" t="s">
-        <v>1038</v>
+        <v>1027</v>
       </c>
       <c r="C1109" s="1">
         <v>44253</v>
       </c>
-      <c r="J1109" s="13" t="s">
-        <v>1039</v>
+      <c r="D1109" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1109" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1109" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1109" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="1110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1110" t="s">
-        <v>588</v>
+        <v>63</v>
       </c>
       <c r="B1110" s="4" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
       <c r="C1110" s="1">
         <v>44253</v>
       </c>
-    </row>
-    <row r="1111" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="D1110" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1110" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1110" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1111" t="s">
-        <v>588</v>
+        <v>63</v>
       </c>
       <c r="B1111" s="4" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
       <c r="C1111" s="1">
         <v>44253</v>
       </c>
-      <c r="J1111" s="13" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="1112" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H1111" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1112" t="s">
         <v>588</v>
       </c>
       <c r="B1112" s="4" t="s">
-        <v>1043</v>
+        <v>1030</v>
       </c>
       <c r="C1112" s="1">
         <v>44253</v>
       </c>
+      <c r="G1112" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1112" t="s">
+        <v>728</v>
+      </c>
+      <c r="I1112" t="s">
+        <v>751</v>
+      </c>
+      <c r="J1112" s="13" t="s">
+        <v>1036</v>
+      </c>
     </row>
     <row r="1113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1113" t="s">
         <v>588</v>
       </c>
       <c r="B1113" s="4" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
       <c r="C1113" s="1">
         <v>44253</v>
       </c>
+      <c r="G1113" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1113" t="s">
+        <v>728</v>
+      </c>
+      <c r="I1113" t="s">
+        <v>751</v>
+      </c>
+      <c r="J1113" s="13" t="s">
+        <v>1035</v>
+      </c>
     </row>
     <row r="1114" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1114" t="s">
-        <v>63</v>
+        <v>588</v>
       </c>
       <c r="B1114" s="4" t="s">
-        <v>1045</v>
+        <v>1032</v>
       </c>
       <c r="C1114" s="1">
-        <v>44256</v>
-      </c>
-      <c r="D1114" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1114" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1114" t="s">
-        <v>12</v>
+        <v>44253</v>
       </c>
       <c r="G1114" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="H1114" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="J1114" s="13" t="s">
-        <v>1046</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="1115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1115" t="s">
-        <v>63</v>
+        <v>588</v>
       </c>
       <c r="B1115" s="4" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
       <c r="C1115" s="1">
-        <v>44256</v>
-      </c>
-      <c r="D1115" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1115" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1115" t="s">
-        <v>30</v>
+        <v>44253</v>
       </c>
       <c r="G1115" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="H1115" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1116" t="s">
-        <v>63</v>
+        <v>588</v>
       </c>
       <c r="B1116" s="4" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="C1116" s="1">
-        <v>44256</v>
+        <v>44253</v>
       </c>
       <c r="G1116" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="H1116" t="s">
-        <v>27</v>
+        <v>728</v>
       </c>
       <c r="I1116" t="s">
-        <v>1049</v>
+        <v>751</v>
       </c>
     </row>
     <row r="1117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1117" t="s">
-        <v>63</v>
+        <v>588</v>
       </c>
       <c r="B1117" s="4" t="s">
-        <v>1050</v>
+        <v>1038</v>
       </c>
       <c r="C1117" s="1">
-        <v>44256</v>
-      </c>
-      <c r="D1117" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1117" t="s">
-        <v>161</v>
+        <v>44253</v>
       </c>
       <c r="G1117" t="s">
-        <v>218</v>
+        <v>123</v>
       </c>
       <c r="H1117" t="s">
-        <v>219</v>
+        <v>728</v>
       </c>
       <c r="I1117" t="s">
-        <v>1051</v>
+        <v>751</v>
+      </c>
+      <c r="J1117" s="13" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="1118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1118" t="s">
-        <v>63</v>
+        <v>588</v>
       </c>
       <c r="B1118" s="4" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="C1118" s="1">
-        <v>44256</v>
+        <v>44253</v>
       </c>
       <c r="G1118" t="s">
-        <v>267</v>
+        <v>123</v>
       </c>
       <c r="H1118" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="1119" spans="1:10" x14ac:dyDescent="0.35">
+        <v>728</v>
+      </c>
+      <c r="I1118" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1119" t="s">
-        <v>63</v>
+        <v>588</v>
       </c>
       <c r="B1119" s="4" t="s">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="C1119" s="1">
-        <v>44256</v>
+        <v>44253</v>
       </c>
       <c r="G1119" t="s">
-        <v>267</v>
+        <v>123</v>
       </c>
       <c r="H1119" t="s">
-        <v>38</v>
+        <v>728</v>
+      </c>
+      <c r="I1119" t="s">
+        <v>751</v>
+      </c>
+      <c r="J1119" s="13" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="1120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1120" t="s">
-        <v>63</v>
+        <v>588</v>
       </c>
       <c r="B1120" s="4" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="C1120" s="1">
-        <v>44256</v>
+        <v>44253</v>
       </c>
       <c r="G1120" t="s">
-        <v>267</v>
+        <v>123</v>
       </c>
       <c r="H1120" t="s">
-        <v>38</v>
+        <v>728</v>
+      </c>
+      <c r="I1120" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="1121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1121" t="s">
-        <v>63</v>
+        <v>588</v>
       </c>
       <c r="B1121" s="4" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="C1121" s="1">
+        <v>44253</v>
+      </c>
+      <c r="G1121" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1121" t="s">
+        <v>728</v>
+      </c>
+      <c r="I1121" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1122" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1122" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C1122" s="1">
         <v>44256</v>
       </c>
-      <c r="G1121" t="s">
-        <v>267</v>
-      </c>
-      <c r="H1121" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="1122" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1122" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1122" s="4" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C1122" s="1">
-        <v>44257</v>
-      </c>
       <c r="D1122" t="s">
-        <v>30</v>
+        <v>61</v>
+      </c>
+      <c r="E1122" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1122" t="s">
+        <v>12</v>
       </c>
       <c r="G1122" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H1122" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="J1122" s="13" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="1123" spans="1:10" x14ac:dyDescent="0.35">
@@ -26583,10 +26847,19 @@
         <v>63</v>
       </c>
       <c r="B1123" s="4" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="C1123" s="1">
-        <v>44257</v>
+        <v>44256</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1123" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1123" t="s">
+        <v>30</v>
       </c>
       <c r="G1123" t="s">
         <v>16</v>
@@ -26594,19 +26867,16 @@
       <c r="H1123" t="s">
         <v>17</v>
       </c>
-      <c r="I1123" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="1124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1124" t="s">
         <v>63</v>
       </c>
       <c r="B1124" s="4" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="C1124" s="1">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="G1124" t="s">
         <v>26</v>
@@ -26614,22 +26884,34 @@
       <c r="H1124" t="s">
         <v>27</v>
       </c>
+      <c r="I1124" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="1125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1125" t="s">
         <v>63</v>
       </c>
       <c r="B1125" s="4" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C1125" s="1">
-        <v>44257</v>
+        <v>44256</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1125" t="s">
+        <v>161</v>
       </c>
       <c r="G1125" t="s">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="H1125" t="s">
-        <v>27</v>
+        <v>219</v>
+      </c>
+      <c r="I1125" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="1126" spans="1:10" x14ac:dyDescent="0.35">
@@ -26637,16 +26919,16 @@
         <v>63</v>
       </c>
       <c r="B1126" s="4" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C1126" s="1">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="G1126" t="s">
-        <v>26</v>
+        <v>267</v>
       </c>
       <c r="H1126" t="s">
-        <v>1053</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1127" spans="1:10" x14ac:dyDescent="0.35">
@@ -26654,22 +26936,16 @@
         <v>63</v>
       </c>
       <c r="B1127" s="4" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="C1127" s="1">
-        <v>44257</v>
-      </c>
-      <c r="D1127" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1127" t="s">
-        <v>60</v>
+        <v>44256</v>
       </c>
       <c r="G1127" t="s">
-        <v>16</v>
+        <v>267</v>
       </c>
       <c r="H1127" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1128" spans="1:10" x14ac:dyDescent="0.35">
@@ -26677,16 +26953,16 @@
         <v>63</v>
       </c>
       <c r="B1128" s="4" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="C1128" s="1">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="G1128" t="s">
-        <v>26</v>
+        <v>267</v>
       </c>
       <c r="H1128" t="s">
-        <v>1055</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1129" spans="1:10" x14ac:dyDescent="0.35">
@@ -26694,22 +26970,16 @@
         <v>63</v>
       </c>
       <c r="B1129" s="4" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="C1129" s="1">
-        <v>44257</v>
-      </c>
-      <c r="D1129" t="s">
-        <v>56</v>
+        <v>44256</v>
       </c>
       <c r="G1129" t="s">
-        <v>16</v>
+        <v>267</v>
       </c>
       <c r="H1129" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1129" s="13" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1130" spans="1:10" x14ac:dyDescent="0.35">
@@ -26717,16 +26987,19 @@
         <v>63</v>
       </c>
       <c r="B1130" s="4" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="C1130" s="1">
         <v>44257</v>
       </c>
+      <c r="D1130" t="s">
+        <v>30</v>
+      </c>
       <c r="G1130" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H1130" t="s">
-        <v>403</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1131" spans="1:10" x14ac:dyDescent="0.35">
@@ -26734,16 +27007,19 @@
         <v>63</v>
       </c>
       <c r="B1131" s="4" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="C1131" s="1">
         <v>44257</v>
       </c>
       <c r="G1131" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H1131" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c r="I1131" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="1132" spans="1:10" x14ac:dyDescent="0.35">
@@ -26751,19 +27027,16 @@
         <v>63</v>
       </c>
       <c r="B1132" s="4" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="C1132" s="1">
-        <v>44260</v>
-      </c>
-      <c r="D1132" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1132" t="s">
-        <v>269</v>
+        <v>44257</v>
+      </c>
+      <c r="G1132" t="s">
+        <v>26</v>
       </c>
       <c r="H1132" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1133" spans="1:10" x14ac:dyDescent="0.35">
@@ -26771,19 +27044,16 @@
         <v>63</v>
       </c>
       <c r="B1133" s="4" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="C1133" s="1">
-        <v>44260</v>
-      </c>
-      <c r="D1133" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1133" t="s">
-        <v>104</v>
+        <v>44257</v>
+      </c>
+      <c r="G1133" t="s">
+        <v>26</v>
       </c>
       <c r="H1133" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1134" spans="1:10" x14ac:dyDescent="0.35">
@@ -26791,16 +27061,16 @@
         <v>63</v>
       </c>
       <c r="B1134" s="4" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="C1134" s="1">
-        <v>44260</v>
-      </c>
-      <c r="D1134" t="s">
-        <v>24</v>
+        <v>44257</v>
+      </c>
+      <c r="G1134" t="s">
+        <v>26</v>
       </c>
       <c r="H1134" t="s">
-        <v>67</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="1135" spans="1:10" x14ac:dyDescent="0.35">
@@ -26808,22 +27078,22 @@
         <v>63</v>
       </c>
       <c r="B1135" s="4" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="C1135" s="1">
-        <v>44260</v>
+        <v>44257</v>
       </c>
       <c r="D1135" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E1135" t="s">
-        <v>951</v>
-      </c>
-      <c r="F1135" t="s">
-        <v>65</v>
+        <v>60</v>
+      </c>
+      <c r="G1135" t="s">
+        <v>16</v>
       </c>
       <c r="H1135" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1136" spans="1:10" x14ac:dyDescent="0.35">
@@ -26831,168 +27101,156 @@
         <v>63</v>
       </c>
       <c r="B1136" s="4" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="C1136" s="1">
-        <v>44264</v>
-      </c>
-    </row>
-    <row r="1137" spans="1:9" x14ac:dyDescent="0.35">
+        <v>44257</v>
+      </c>
+      <c r="G1136" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1136" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1137" t="s">
         <v>63</v>
       </c>
       <c r="B1137" s="4" t="s">
-        <v>1065</v>
+        <v>1056</v>
       </c>
       <c r="C1137" s="1">
-        <v>44265</v>
+        <v>44257</v>
       </c>
       <c r="D1137" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="G1137" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="H1137" t="s">
-        <v>219</v>
-      </c>
-      <c r="I1137" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="1138" spans="1:9" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="J1137" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1138" t="s">
         <v>63</v>
       </c>
       <c r="B1138" s="4" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="C1138" s="1">
-        <v>44266</v>
-      </c>
-      <c r="D1138" t="s">
-        <v>185</v>
-      </c>
-      <c r="E1138" t="s">
+        <v>44257</v>
+      </c>
+      <c r="G1138" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1138" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1139" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1139" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C1139" s="1">
+        <v>44257</v>
+      </c>
+      <c r="G1139" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1139" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1140" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1140" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C1140" s="1">
+        <v>44260</v>
+      </c>
+      <c r="D1140" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1140" t="s">
+        <v>269</v>
+      </c>
+      <c r="H1140" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1141" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1141" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C1141" s="1">
+        <v>44260</v>
+      </c>
+      <c r="D1141" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1141" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1141" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1142" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1142" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C1142" s="1">
+        <v>44260</v>
+      </c>
+      <c r="D1142" t="s">
         <v>24</v>
       </c>
-      <c r="G1138" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1138" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1139" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1139" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1139" s="4" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C1139" s="1">
-        <v>44266</v>
-      </c>
-      <c r="D1139" t="s">
+      <c r="H1142" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1143" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1143" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C1143" s="1">
+        <v>44260</v>
+      </c>
+      <c r="D1143" t="s">
         <v>24</v>
       </c>
-      <c r="E1139" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1139" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1139" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1139" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="1140" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1140" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1140" s="4" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C1140" s="1">
-        <v>44266</v>
-      </c>
-      <c r="G1140" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1140" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="1141" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1141" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1141" s="4" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C1141" s="1">
-        <v>44264</v>
-      </c>
-      <c r="D1141" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1141" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1141" t="s">
-        <v>262</v>
-      </c>
-      <c r="G1141" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1141" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1142" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1142" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1142" s="4" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C1142" s="1">
-        <v>44264</v>
-      </c>
-      <c r="G1142" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1142" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="1143" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1143" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1143" s="4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C1143" s="1">
-        <v>44264</v>
-      </c>
-      <c r="D1143" t="s">
-        <v>10</v>
-      </c>
       <c r="E1143" t="s">
-        <v>177</v>
-      </c>
-      <c r="G1143" t="s">
-        <v>13</v>
+        <v>951</v>
+      </c>
+      <c r="F1143" t="s">
+        <v>65</v>
       </c>
       <c r="H1143" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1144" spans="1:9" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1144" t="s">
         <v>63</v>
       </c>
@@ -27002,114 +27260,114 @@
       <c r="C1144" s="1">
         <v>44264</v>
       </c>
-      <c r="D1144" t="s">
+    </row>
+    <row r="1145" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1145" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1145" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C1145" s="1">
+        <v>44265</v>
+      </c>
+      <c r="D1145" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1145" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1145" t="s">
+        <v>219</v>
+      </c>
+      <c r="I1145" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1146" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1146" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C1146" s="1">
+        <v>44266</v>
+      </c>
+      <c r="D1146" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1146" t="s">
         <v>24</v>
       </c>
-      <c r="G1144" t="s">
+      <c r="G1146" t="s">
         <v>16</v>
       </c>
-      <c r="H1144" t="s">
+      <c r="H1146" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="1145" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1145" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1145" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C1145" s="1">
-        <v>44267</v>
-      </c>
-      <c r="D1145" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1145" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="1146" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1146" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1146" s="4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C1146" s="1">
-        <v>44267</v>
-      </c>
-      <c r="D1146" t="s">
+    <row r="1147" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1147" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1147" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C1147" s="1">
+        <v>44266</v>
+      </c>
+      <c r="D1147" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1147" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1147" t="s">
         <v>76</v>
       </c>
-      <c r="E1146" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1146" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1146" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="1147" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1147" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1147" s="4" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C1147" s="1">
-        <v>44267</v>
-      </c>
-      <c r="D1147" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1147" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1147" t="s">
-        <v>356</v>
+      <c r="G1147" t="s">
+        <v>16</v>
       </c>
       <c r="H1147" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="1148" spans="1:9" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1148" t="s">
         <v>63</v>
       </c>
       <c r="B1148" s="4" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="C1148" s="1">
-        <v>44267</v>
-      </c>
-      <c r="D1148" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1148" t="s">
-        <v>205</v>
+        <v>44266</v>
+      </c>
+      <c r="G1148" t="s">
+        <v>26</v>
       </c>
       <c r="H1148" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="1149" spans="1:9" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1149" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="B1149" s="4" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="C1149" s="1">
-        <v>44269</v>
+        <v>44264</v>
       </c>
       <c r="D1149" t="s">
         <v>24</v>
       </c>
       <c r="E1149" t="s">
-        <v>1073</v>
+        <v>12</v>
+      </c>
+      <c r="F1149" t="s">
+        <v>262</v>
       </c>
       <c r="G1149" t="s">
         <v>16</v>
@@ -27118,18 +27376,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1150" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1150" t="s">
+        <v>63</v>
+      </c>
       <c r="B1150" s="4" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="C1150" s="1">
-        <v>44269</v>
-      </c>
-      <c r="D1150" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1150" t="s">
-        <v>1073</v>
+        <v>44264</v>
       </c>
       <c r="G1150" t="s">
         <v>26</v>
@@ -27138,58 +27393,1565 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1151" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1151" t="s">
+        <v>63</v>
+      </c>
       <c r="B1151" s="4" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="C1151" s="1">
-        <v>44269</v>
+        <v>44264</v>
       </c>
       <c r="D1151" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E1151" t="s">
-        <v>1073</v>
+        <v>177</v>
       </c>
       <c r="G1151" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H1151" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="1152" spans="1:9" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1152" t="s">
+        <v>63</v>
+      </c>
       <c r="B1152" s="4" t="s">
-        <v>1072</v>
+        <v>1061</v>
       </c>
       <c r="C1152" s="1">
-        <v>44269</v>
+        <v>44264</v>
       </c>
       <c r="D1152" t="s">
         <v>24</v>
       </c>
-      <c r="E1152" t="s">
+      <c r="G1152" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1152" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1153" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1153" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C1153" s="1">
+        <v>44267</v>
+      </c>
+      <c r="D1153" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1153" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1154" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1154" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C1154" s="1">
+        <v>44267</v>
+      </c>
+      <c r="D1154" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1154" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1154" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1154" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1155" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1155" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C1155" s="1">
+        <v>44267</v>
+      </c>
+      <c r="D1155" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1155" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1155" t="s">
+        <v>356</v>
+      </c>
+      <c r="H1155" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1156" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1156" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C1156" s="1">
+        <v>44267</v>
+      </c>
+      <c r="D1156" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1156" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1156" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1157" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1157" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C1157" s="1">
+        <v>44269</v>
+      </c>
+      <c r="D1157" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1157" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G1157" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1157" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1158" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1158" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C1158" s="1">
+        <v>44269</v>
+      </c>
+      <c r="D1158" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1158" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G1158" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1158" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1159" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1159" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C1159" s="1">
+        <v>44269</v>
+      </c>
+      <c r="D1159" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1159" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G1159" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1159" t="s">
         <v>1073</v>
       </c>
-      <c r="G1152" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1152" t="s">
+    </row>
+    <row r="1160" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1160" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1160" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C1160" s="1">
+        <v>44269</v>
+      </c>
+      <c r="D1160" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1160" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G1160" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1160" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="1153" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B1153" s="4" t="s">
+    <row r="1161" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1161" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1161" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C1161" s="1">
+        <v>44269</v>
+      </c>
+      <c r="D1161" t="s">
         <v>1075</v>
       </c>
-      <c r="D1153" t="s">
+      <c r="G1161" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1161" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1162" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1162" s="4" t="s">
         <v>1076</v>
       </c>
-      <c r="G1153" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1153" t="s">
+      <c r="C1162" s="1">
+        <v>44273</v>
+      </c>
+      <c r="D1162" t="s">
+        <v>492</v>
+      </c>
+      <c r="E1162" t="s">
+        <v>723</v>
+      </c>
+      <c r="G1162" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1162" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1163" t="s">
+        <v>588</v>
+      </c>
+      <c r="B1163" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C1163" s="1">
+        <v>44272</v>
+      </c>
+      <c r="D1163" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1163" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1163" t="s">
+        <v>219</v>
+      </c>
+      <c r="I1163" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1164" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1164" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C1164" s="1">
+        <v>44274</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1164" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1164" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1164" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1165" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1165" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C1165" s="1">
+        <v>44274</v>
+      </c>
+      <c r="D1165" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1165" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1165" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1165" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1166" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1166" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C1166" s="1">
+        <v>44274</v>
+      </c>
+      <c r="D1166" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1166" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1166" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1167" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1167" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1167" s="1">
+        <v>44274</v>
+      </c>
+      <c r="D1167" t="s">
+        <v>356</v>
+      </c>
+      <c r="E1167" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1167" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1167" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1168" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1168" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C1168" s="1">
+        <v>44274</v>
+      </c>
+      <c r="D1168" t="s">
+        <v>548</v>
+      </c>
+      <c r="E1168" t="s">
+        <v>409</v>
+      </c>
+      <c r="F1168" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1168" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1169" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1169" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C1169" s="1">
+        <v>44274</v>
+      </c>
+      <c r="D1169" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1169" t="s">
+        <v>261</v>
+      </c>
+      <c r="H1169" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1170" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1170" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1170" s="1">
+        <v>44274</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1171" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1171" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C1171" s="1">
+        <v>44274</v>
+      </c>
+      <c r="D1171" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1171" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1172" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1172" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C1172" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1172" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1172" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1173" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1173" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1173" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D1173" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1173" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1173" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1174" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1174" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1174" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D1174" t="s">
+        <v>356</v>
+      </c>
+      <c r="E1174" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1174" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1175" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1175" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C1175" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D1175" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1175" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1175" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1175" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1176" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1176" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1176" s="1">
+        <v>44284</v>
+      </c>
+      <c r="D1176" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1176" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1176" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1177" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1177" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1177" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D1177" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1177" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1177" t="s">
+        <v>523</v>
+      </c>
+      <c r="H1177" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1178" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1178" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C1178" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D1178" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1178" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1178" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1178" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1179" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1179" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1179" s="1">
+        <v>44286</v>
+      </c>
+      <c r="D1179" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1179" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1179" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1179" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1180" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1180" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1180" s="1">
+        <v>44285</v>
+      </c>
+      <c r="D1180" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1180" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H1180" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1181" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1181" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C1181" s="1">
+        <v>44284</v>
+      </c>
+      <c r="D1181" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1181" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1181" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1181" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1182" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1182" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1182" s="1">
+        <v>44284</v>
+      </c>
+      <c r="D1182" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1182" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1182" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1182" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1183" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1183" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C1183" s="1">
+        <v>44285</v>
+      </c>
+      <c r="D1183" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1183" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1183" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1183" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1184" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1184" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C1184" s="1">
+        <v>44285</v>
+      </c>
+      <c r="D1184" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E1184" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1184" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1184" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1185" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1185" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C1185" s="1">
+        <v>44286</v>
+      </c>
+      <c r="D1185" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1185" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1185" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H1185" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1186" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1186" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C1186" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D1186" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1186" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1186" t="s">
+        <v>262</v>
+      </c>
+      <c r="H1186" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1187" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1187" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="C1187" s="1">
+        <v>44283</v>
+      </c>
+      <c r="G1187" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H1187" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1188" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1188" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C1188" s="1">
+        <v>44283</v>
+      </c>
+      <c r="D1188" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1188" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1188" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1188" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H1188" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1189" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1189" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C1189" s="1">
+        <v>44284</v>
+      </c>
+      <c r="G1189" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H1189" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1190" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1190" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C1190" s="1">
+        <v>44285</v>
+      </c>
+      <c r="D1190" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1190" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1190" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1190" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1190" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1191" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1191" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C1191" s="1">
+        <v>44285</v>
+      </c>
+      <c r="D1191" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1191" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1191" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1191" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1191" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1192" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1192" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C1192" s="1">
+        <v>44285</v>
+      </c>
+      <c r="D1192" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1192" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1192" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1192" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1192" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1193" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1193" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C1193" s="1">
+        <v>44285</v>
+      </c>
+      <c r="D1193" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1193" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1193" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1193" t="s">
+        <v>267</v>
+      </c>
+      <c r="H1193" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1194" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1194" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C1194" s="1">
+        <v>44285</v>
+      </c>
+      <c r="D1194" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1194" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1194" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1194" t="s">
+        <v>267</v>
+      </c>
+      <c r="H1194" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1195" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1195" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C1195" s="1">
+        <v>44285</v>
+      </c>
+      <c r="D1195" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1195" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1195" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1195" t="s">
+        <v>267</v>
+      </c>
+      <c r="H1195" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1196" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1196" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C1196" s="1">
+        <v>44293</v>
+      </c>
+      <c r="D1196" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1196" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F1196" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1196" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1196" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1197" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1197" s="4" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C1197" s="1">
+        <v>44293</v>
+      </c>
+      <c r="D1197" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1197" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1197" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1197" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1197" t="s">
         <v>89</v>
+      </c>
+      <c r="K1197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1198" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1198" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C1198" s="1">
+        <v>44293</v>
+      </c>
+      <c r="D1198" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1198" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1198" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1198" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1198" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1199" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1199" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C1199" s="1">
+        <v>44293</v>
+      </c>
+      <c r="D1199" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1199" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1199" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1199" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1199" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1199" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1200" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1200" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C1200" s="1">
+        <v>44294</v>
+      </c>
+      <c r="D1200" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1200" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1200" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1201" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1201" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="C1201" s="1">
+        <v>44294</v>
+      </c>
+      <c r="D1201" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1201" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1201" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1201" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1202" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1202" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C1202" s="1">
+        <v>44294</v>
+      </c>
+      <c r="D1202" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1202" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F1202" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1202" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1203" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1203" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C1203" s="1">
+        <v>44294</v>
+      </c>
+      <c r="D1203" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1203" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1203" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1204" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1204" s="4" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C1204" s="1">
+        <v>44294</v>
+      </c>
+      <c r="D1204" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1204" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1204" t="s">
+        <v>628</v>
+      </c>
+      <c r="H1204" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1205" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1205" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C1205" s="1">
+        <v>44294</v>
+      </c>
+      <c r="D1205" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1205" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1206" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1206" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C1206" s="1">
+        <v>44297</v>
+      </c>
+      <c r="G1206" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1206" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1207">
+        <v>200187061</v>
+      </c>
+      <c r="C1207" s="1">
+        <v>44298</v>
+      </c>
+      <c r="D1207" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1207" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1207" t="s">
+        <v>192</v>
+      </c>
+      <c r="H1207" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1208">
+        <v>200187061</v>
+      </c>
+      <c r="C1208" s="1">
+        <v>44298</v>
+      </c>
+      <c r="G1208" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H1208" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I1208" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1209">
+        <v>80205399</v>
+      </c>
+      <c r="C1209" s="1">
+        <v>44294</v>
+      </c>
+      <c r="D1209" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1209" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1210">
+        <v>71621858</v>
+      </c>
+      <c r="C1210" s="1">
+        <v>44294</v>
+      </c>
+      <c r="D1210" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1210" t="s">
+        <v>217</v>
+      </c>
+      <c r="H1210" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1211">
+        <v>200308551</v>
+      </c>
+      <c r="C1211" s="1">
+        <v>44294</v>
+      </c>
+      <c r="D1211" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E1211" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1211" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1211" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1212">
+        <v>200308551</v>
+      </c>
+      <c r="C1212" s="1">
+        <v>44298</v>
+      </c>
+      <c r="G1212" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1212" t="s">
+        <v>219</v>
+      </c>
+      <c r="I1212" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1213">
+        <v>200318254</v>
+      </c>
+      <c r="C1213" s="1">
+        <v>44293</v>
+      </c>
+      <c r="D1213" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1213" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1213" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1214">
+        <v>200318089</v>
+      </c>
+      <c r="C1214" s="1">
+        <v>44292</v>
+      </c>
+      <c r="D1214" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1214" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1214" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1215">
+        <v>80304753</v>
+      </c>
+      <c r="C1215" s="1">
+        <v>44292</v>
+      </c>
+      <c r="D1215" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1215" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1215" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1215" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1215" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1216">
+        <v>80747402</v>
+      </c>
+      <c r="C1216" s="1">
+        <v>44293</v>
+      </c>
+      <c r="D1216" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1216" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1216" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1216" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1216" t="s">
+        <v>219</v>
+      </c>
+      <c r="I1216" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1217">
+        <v>76221902</v>
+      </c>
+      <c r="C1217" s="1">
+        <v>44291</v>
+      </c>
+      <c r="D1217" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1217" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1217" t="s">
+        <v>192</v>
+      </c>
+      <c r="H1217" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1218">
+        <v>200296075</v>
+      </c>
+      <c r="C1218" s="1">
+        <v>44293</v>
+      </c>
+      <c r="D1218" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1218" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G1218" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1218" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1219">
+        <v>200296075</v>
+      </c>
+      <c r="C1219" s="1">
+        <v>44293</v>
+      </c>
+      <c r="G1219" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1219" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1220">
+        <v>200296075</v>
+      </c>
+      <c r="C1220" s="1">
+        <v>44293</v>
+      </c>
+      <c r="H1220" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1221">
+        <v>80702661</v>
+      </c>
+      <c r="C1221" s="1">
+        <v>44290</v>
+      </c>
+      <c r="D1221" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1221" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1222">
+        <v>200309504</v>
+      </c>
+      <c r="C1222" s="1">
+        <v>44289</v>
+      </c>
+      <c r="D1222" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1222" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1222" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1222" t="s">
+        <v>219</v>
+      </c>
+      <c r="I1222" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1223" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1223" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C1223" s="1">
+        <v>44302</v>
+      </c>
+      <c r="H1223" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1224" s="4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D1224" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1224" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1224" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/docs/log.xlsx
+++ b/docs/log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emory-my.sharepoint.com/personal/asshah4_emory_edu/Documents/projects/clinical/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emory-my.sharepoint.com/personal/asshah4_emory_edu/Documents/projects/clinical/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2936" documentId="13_ncr:1_{3CB9D789-FF1C-4735-9260-A83070EE7DFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E6EE5A12-DF75-415A-AAE1-0ED910A31918}"/>
+  <xr:revisionPtr revIDLastSave="2498" documentId="13_ncr:1_{3CB9D789-FF1C-4735-9260-A83070EE7DFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F6B45D85-7FCC-4E6E-8C08-AEDE60B93656}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5965" uniqueCount="1129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5572" uniqueCount="1077">
   <si>
     <t>SITE</t>
   </si>
@@ -3230,6 +3230,9 @@
     <t>M5946</t>
   </si>
   <si>
+    <t>atrial fibrillatin</t>
+  </si>
+  <si>
     <t>S2461</t>
   </si>
   <si>
@@ -3258,165 +3261,6 @@
   </si>
   <si>
     <t>SAH</t>
-  </si>
-  <si>
-    <t>A0961</t>
-  </si>
-  <si>
-    <t>A031721</t>
-  </si>
-  <si>
-    <t>M4905</t>
-  </si>
-  <si>
-    <t>M6760</t>
-  </si>
-  <si>
-    <t>W3739</t>
-  </si>
-  <si>
-    <t>W1292</t>
-  </si>
-  <si>
-    <t>F4109</t>
-  </si>
-  <si>
-    <t>W5445</t>
-  </si>
-  <si>
-    <t>J5913</t>
-  </si>
-  <si>
-    <t>080390533</t>
-  </si>
-  <si>
-    <t>080737600</t>
-  </si>
-  <si>
-    <t>080110157</t>
-  </si>
-  <si>
-    <t>080291464</t>
-  </si>
-  <si>
-    <t>081554781</t>
-  </si>
-  <si>
-    <t>200296075</t>
-  </si>
-  <si>
-    <t>AVRT</t>
-  </si>
-  <si>
-    <t>080702661</t>
-  </si>
-  <si>
-    <t>081489693</t>
-  </si>
-  <si>
-    <t>200309504</t>
-  </si>
-  <si>
-    <t>080090879</t>
-  </si>
-  <si>
-    <t>SDH</t>
-  </si>
-  <si>
-    <t>010639649</t>
-  </si>
-  <si>
-    <t>MAT</t>
-  </si>
-  <si>
-    <t>050538172</t>
-  </si>
-  <si>
-    <t>device</t>
-  </si>
-  <si>
-    <t>implantable loop recorder</t>
-  </si>
-  <si>
-    <t>interrogation</t>
-  </si>
-  <si>
-    <t>200197497</t>
-  </si>
-  <si>
-    <t>072487523</t>
-  </si>
-  <si>
-    <t>CTI</t>
-  </si>
-  <si>
-    <t>induction</t>
-  </si>
-  <si>
-    <t>6514399</t>
-  </si>
-  <si>
-    <t>5099054</t>
-  </si>
-  <si>
-    <t>5112511</t>
-  </si>
-  <si>
-    <t>5562518</t>
-  </si>
-  <si>
-    <t>5408246</t>
-  </si>
-  <si>
-    <t>7889276</t>
-  </si>
-  <si>
-    <t>5455279</t>
-  </si>
-  <si>
-    <t>081558935</t>
-  </si>
-  <si>
-    <t>OLT</t>
-  </si>
-  <si>
-    <t>080747402</t>
-  </si>
-  <si>
-    <t>080891180</t>
-  </si>
-  <si>
-    <t>L2544</t>
-  </si>
-  <si>
-    <t>B0046</t>
-  </si>
-  <si>
-    <t>depression</t>
-  </si>
-  <si>
-    <t>B0778</t>
-  </si>
-  <si>
-    <t>J7566</t>
-  </si>
-  <si>
-    <t>C3945</t>
-  </si>
-  <si>
-    <t>20016336</t>
-  </si>
-  <si>
-    <t>GPA</t>
-  </si>
-  <si>
-    <t>100J</t>
-  </si>
-  <si>
-    <t>B9124</t>
-  </si>
-  <si>
-    <t>L4750</t>
   </si>
 </sst>
 </file>
@@ -3812,11 +3656,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1224"/>
+  <dimension ref="A1:K1153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1225" sqref="B1225"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1154" sqref="C1154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24823,18 +24667,6 @@
       <c r="B1025" s="4" t="s">
         <v>919</v>
       </c>
-      <c r="C1025" s="1">
-        <v>44245</v>
-      </c>
-      <c r="G1025" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1025" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1025" t="s">
-        <v>751</v>
-      </c>
       <c r="J1025" s="13" t="s">
         <v>920</v>
       </c>
@@ -24846,18 +24678,6 @@
       <c r="B1026" s="4" t="s">
         <v>921</v>
       </c>
-      <c r="C1026" s="1">
-        <v>44245</v>
-      </c>
-      <c r="G1026" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1026" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1026" t="s">
-        <v>751</v>
-      </c>
       <c r="J1026" s="13" t="s">
         <v>920</v>
       </c>
@@ -24869,18 +24689,6 @@
       <c r="B1027" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="C1027" s="1">
-        <v>44245</v>
-      </c>
-      <c r="G1027" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1027" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1027" t="s">
-        <v>751</v>
-      </c>
       <c r="J1027" s="13" t="s">
         <v>923</v>
       </c>
@@ -24892,18 +24700,6 @@
       <c r="B1028" s="11" t="s">
         <v>924</v>
       </c>
-      <c r="C1028" s="1">
-        <v>44245</v>
-      </c>
-      <c r="G1028" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1028" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1028" t="s">
-        <v>751</v>
-      </c>
       <c r="J1028" s="13" t="s">
         <v>925</v>
       </c>
@@ -24915,18 +24711,6 @@
       <c r="B1029" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="C1029" s="1">
-        <v>44245</v>
-      </c>
-      <c r="G1029" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1029" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1029" t="s">
-        <v>751</v>
-      </c>
     </row>
     <row r="1030" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1030" t="s">
@@ -24935,18 +24719,6 @@
       <c r="B1030" s="4" t="s">
         <v>927</v>
       </c>
-      <c r="C1030" s="1">
-        <v>44245</v>
-      </c>
-      <c r="G1030" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1030" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1030" t="s">
-        <v>751</v>
-      </c>
       <c r="J1030" s="13" t="s">
         <v>928</v>
       </c>
@@ -24958,18 +24730,6 @@
       <c r="B1031" s="11" t="s">
         <v>926</v>
       </c>
-      <c r="C1031" s="1">
-        <v>44245</v>
-      </c>
-      <c r="G1031" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1031" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1031" t="s">
-        <v>751</v>
-      </c>
       <c r="J1031" s="13" t="s">
         <v>929</v>
       </c>
@@ -24984,113 +24744,95 @@
       <c r="C1032" s="1">
         <v>44245</v>
       </c>
-      <c r="G1032" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1032" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1032" t="s">
-        <v>751</v>
-      </c>
       <c r="J1032" s="13" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="1033" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1033" t="s">
-        <v>588</v>
+        <v>63</v>
       </c>
       <c r="B1033" s="4" t="s">
-        <v>1109</v>
+        <v>932</v>
       </c>
       <c r="C1033" s="1">
-        <v>44245</v>
-      </c>
-      <c r="G1033" t="s">
-        <v>73</v>
+        <v>44246</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>142</v>
       </c>
       <c r="H1033" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1034" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1034" t="s">
-        <v>588</v>
+        <v>63</v>
       </c>
       <c r="B1034" s="4" t="s">
-        <v>1110</v>
+        <v>103</v>
       </c>
       <c r="C1034" s="1">
-        <v>44245</v>
-      </c>
-      <c r="G1034" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1034" t="s">
-        <v>89</v>
+        <v>44246</v>
       </c>
     </row>
     <row r="1035" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1035" t="s">
-        <v>588</v>
+        <v>63</v>
       </c>
       <c r="B1035" s="4" t="s">
-        <v>1111</v>
+        <v>436</v>
       </c>
       <c r="C1035" s="1">
-        <v>44245</v>
-      </c>
-      <c r="G1035" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1035" t="s">
-        <v>89</v>
+        <v>44246</v>
       </c>
     </row>
     <row r="1036" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1036" t="s">
+        <v>63</v>
+      </c>
       <c r="B1036" s="4" t="s">
-        <v>1024</v>
+        <v>933</v>
       </c>
       <c r="C1036" s="1">
-        <v>44245</v>
-      </c>
-      <c r="G1036" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1036" t="s">
-        <v>89</v>
+        <v>44246</v>
       </c>
     </row>
     <row r="1037" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1037" t="s">
+        <v>63</v>
+      </c>
       <c r="B1037" s="4" t="s">
-        <v>1113</v>
+        <v>934</v>
       </c>
       <c r="C1037" s="1">
-        <v>44245</v>
-      </c>
-      <c r="G1037" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1037" t="s">
-        <v>89</v>
+        <v>44246</v>
       </c>
     </row>
     <row r="1038" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1038" t="s">
-        <v>588</v>
+        <v>63</v>
       </c>
       <c r="B1038" s="4" t="s">
-        <v>1112</v>
+        <v>935</v>
       </c>
       <c r="C1038" s="1">
-        <v>44245</v>
-      </c>
-      <c r="G1038" t="s">
-        <v>73</v>
+        <v>44247</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1038" t="s">
+        <v>70</v>
       </c>
       <c r="H1038" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
     </row>
     <row r="1039" spans="1:10" x14ac:dyDescent="0.35">
@@ -25098,19 +24840,19 @@
         <v>63</v>
       </c>
       <c r="B1039" s="4" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="C1039" s="1">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="D1039" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="E1039" t="s">
-        <v>142</v>
+        <v>937</v>
       </c>
       <c r="H1039" t="s">
-        <v>67</v>
+        <v>195</v>
       </c>
     </row>
     <row r="1040" spans="1:10" x14ac:dyDescent="0.35">
@@ -25118,10 +24860,19 @@
         <v>63</v>
       </c>
       <c r="B1040" s="4" t="s">
-        <v>103</v>
+        <v>938</v>
       </c>
       <c r="C1040" s="1">
-        <v>44246</v>
+        <v>44247</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>939</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1040" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="1041" spans="1:11" x14ac:dyDescent="0.35">
@@ -25129,21 +24880,39 @@
         <v>63</v>
       </c>
       <c r="B1041" s="4" t="s">
-        <v>436</v>
+        <v>940</v>
       </c>
       <c r="C1041" s="1">
-        <v>44246</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:11" x14ac:dyDescent="0.35">
+        <v>44247</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>723</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1041" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A1042" t="s">
         <v>63</v>
       </c>
-      <c r="B1042" s="4" t="s">
-        <v>933</v>
+      <c r="B1042" s="11" t="s">
+        <v>941</v>
       </c>
       <c r="C1042" s="1">
-        <v>44246</v>
+        <v>44247</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1042" t="s">
+        <v>195</v>
+      </c>
+      <c r="J1042" s="13" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="1043" spans="1:11" x14ac:dyDescent="0.35">
@@ -25151,10 +24920,13 @@
         <v>63</v>
       </c>
       <c r="B1043" s="4" t="s">
-        <v>934</v>
+        <v>943</v>
       </c>
       <c r="C1043" s="1">
-        <v>44246</v>
+        <v>44247</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="1044" spans="1:11" x14ac:dyDescent="0.35">
@@ -25162,62 +24934,68 @@
         <v>63</v>
       </c>
       <c r="B1044" s="4" t="s">
-        <v>935</v>
+        <v>944</v>
       </c>
       <c r="C1044" s="1">
         <v>44247</v>
       </c>
       <c r="D1044" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E1044" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1044" t="s">
-        <v>70</v>
+        <v>945</v>
       </c>
       <c r="H1044" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="1045" spans="1:11" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A1045" t="s">
         <v>63</v>
       </c>
-      <c r="B1045" s="4" t="s">
-        <v>936</v>
+      <c r="B1045" s="11" t="s">
+        <v>946</v>
       </c>
       <c r="C1045" s="1">
         <v>44247</v>
       </c>
       <c r="D1045" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="E1045" t="s">
-        <v>937</v>
+        <v>947</v>
+      </c>
+      <c r="F1045" t="s">
+        <v>70</v>
       </c>
       <c r="H1045" t="s">
         <v>195</v>
       </c>
+      <c r="J1045" s="13" t="s">
+        <v>948</v>
+      </c>
+      <c r="K1045">
+        <v>1</v>
+      </c>
     </row>
     <row r="1046" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1046" t="s">
         <v>63</v>
       </c>
       <c r="B1046" s="4" t="s">
-        <v>938</v>
+        <v>949</v>
       </c>
       <c r="C1046" s="1">
         <v>44247</v>
       </c>
       <c r="D1046" t="s">
-        <v>939</v>
+        <v>193</v>
       </c>
       <c r="E1046" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1046" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="H1046" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="1047" spans="1:11" x14ac:dyDescent="0.35">
@@ -25225,153 +25003,165 @@
         <v>63</v>
       </c>
       <c r="B1047" s="4" t="s">
-        <v>940</v>
+        <v>950</v>
       </c>
       <c r="C1047" s="1">
         <v>44247</v>
       </c>
       <c r="D1047" t="s">
-        <v>723</v>
+        <v>66</v>
       </c>
       <c r="E1047" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1047" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="1048" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="H1047" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1047" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1048" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1048" s="11" t="s">
-        <v>941</v>
+        <v>588</v>
+      </c>
+      <c r="B1048" s="4" t="s">
+        <v>952</v>
       </c>
       <c r="C1048" s="1">
-        <v>44247</v>
-      </c>
-      <c r="D1048" t="s">
-        <v>30</v>
+        <v>44249</v>
+      </c>
+      <c r="G1048" t="s">
+        <v>123</v>
       </c>
       <c r="H1048" t="s">
-        <v>195</v>
-      </c>
-      <c r="J1048" s="13" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="1049" spans="1:11" x14ac:dyDescent="0.35">
+        <v>728</v>
+      </c>
+      <c r="I1048" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1049" t="s">
-        <v>63</v>
+        <v>588</v>
       </c>
       <c r="B1049" s="4" t="s">
-        <v>943</v>
+        <v>953</v>
       </c>
       <c r="C1049" s="1">
-        <v>44247</v>
-      </c>
-      <c r="D1049" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="1050" spans="1:11" x14ac:dyDescent="0.35">
+        <v>44249</v>
+      </c>
+      <c r="G1049" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1049" t="s">
+        <v>728</v>
+      </c>
+      <c r="I1049" t="s">
+        <v>751</v>
+      </c>
+      <c r="J1049" s="13" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A1050" t="s">
-        <v>63</v>
+        <v>588</v>
       </c>
       <c r="B1050" s="4" t="s">
-        <v>944</v>
+        <v>954</v>
       </c>
       <c r="C1050" s="1">
-        <v>44247</v>
-      </c>
-      <c r="D1050" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1050" t="s">
-        <v>945</v>
+        <v>44249</v>
+      </c>
+      <c r="G1050" t="s">
+        <v>123</v>
       </c>
       <c r="H1050" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="1051" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+        <v>728</v>
+      </c>
+      <c r="I1050" t="s">
+        <v>751</v>
+      </c>
+      <c r="J1050" s="13" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A1051" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1051" s="11" t="s">
-        <v>946</v>
+        <v>588</v>
+      </c>
+      <c r="B1051" s="4" t="s">
+        <v>957</v>
       </c>
       <c r="C1051" s="1">
-        <v>44247</v>
-      </c>
-      <c r="D1051" t="s">
-        <v>159</v>
-      </c>
-      <c r="E1051" t="s">
-        <v>947</v>
-      </c>
-      <c r="F1051" t="s">
-        <v>70</v>
+        <v>44249</v>
+      </c>
+      <c r="G1051" t="s">
+        <v>123</v>
       </c>
       <c r="H1051" t="s">
-        <v>195</v>
+        <v>728</v>
+      </c>
+      <c r="I1051" t="s">
+        <v>751</v>
       </c>
       <c r="J1051" s="13" t="s">
-        <v>948</v>
-      </c>
-      <c r="K1051">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1052" spans="1:11" x14ac:dyDescent="0.35">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A1052" t="s">
-        <v>63</v>
+        <v>588</v>
       </c>
       <c r="B1052" s="4" t="s">
-        <v>949</v>
+        <v>959</v>
       </c>
       <c r="C1052" s="1">
-        <v>44247</v>
-      </c>
-      <c r="D1052" t="s">
-        <v>193</v>
-      </c>
-      <c r="E1052" t="s">
-        <v>24</v>
+        <v>44249</v>
+      </c>
+      <c r="G1052" t="s">
+        <v>123</v>
       </c>
       <c r="H1052" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="1053" spans="1:11" x14ac:dyDescent="0.35">
+        <v>728</v>
+      </c>
+      <c r="I1052" t="s">
+        <v>751</v>
+      </c>
+      <c r="J1052" s="13" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A1053" t="s">
-        <v>63</v>
+        <v>588</v>
       </c>
       <c r="B1053" s="4" t="s">
-        <v>950</v>
+        <v>961</v>
       </c>
       <c r="C1053" s="1">
-        <v>44247</v>
-      </c>
-      <c r="D1053" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1053" t="s">
-        <v>24</v>
+        <v>44249</v>
+      </c>
+      <c r="G1053" t="s">
+        <v>123</v>
       </c>
       <c r="H1053" t="s">
-        <v>148</v>
+        <v>728</v>
       </c>
       <c r="I1053" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="1054" spans="1:11" x14ac:dyDescent="0.35">
+        <v>751</v>
+      </c>
+      <c r="J1053" s="13" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A1054" t="s">
         <v>588</v>
       </c>
       <c r="B1054" s="4" t="s">
-        <v>952</v>
+        <v>963</v>
       </c>
       <c r="C1054" s="1">
         <v>44249</v>
@@ -25385,13 +25175,16 @@
       <c r="I1054" t="s">
         <v>751</v>
       </c>
+      <c r="J1054" s="13" t="s">
+        <v>964</v>
+      </c>
     </row>
     <row r="1055" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1055" t="s">
         <v>588</v>
       </c>
       <c r="B1055" s="4" t="s">
-        <v>953</v>
+        <v>965</v>
       </c>
       <c r="C1055" s="1">
         <v>44249</v>
@@ -25406,7 +25199,7 @@
         <v>751</v>
       </c>
       <c r="J1055" s="13" t="s">
-        <v>956</v>
+        <v>966</v>
       </c>
     </row>
     <row r="1056" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -25414,7 +25207,7 @@
         <v>588</v>
       </c>
       <c r="B1056" s="4" t="s">
-        <v>954</v>
+        <v>967</v>
       </c>
       <c r="C1056" s="1">
         <v>44249</v>
@@ -25429,15 +25222,15 @@
         <v>751</v>
       </c>
       <c r="J1056" s="13" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="1057" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1057" t="s">
         <v>588</v>
       </c>
       <c r="B1057" s="4" t="s">
-        <v>957</v>
+        <v>969</v>
       </c>
       <c r="C1057" s="1">
         <v>44249</v>
@@ -25451,16 +25244,13 @@
       <c r="I1057" t="s">
         <v>751</v>
       </c>
-      <c r="J1057" s="13" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="1058" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1058" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1058" t="s">
         <v>588</v>
       </c>
       <c r="B1058" s="4" t="s">
-        <v>959</v>
+        <v>970</v>
       </c>
       <c r="C1058" s="1">
         <v>44249</v>
@@ -25474,16 +25264,13 @@
       <c r="I1058" t="s">
         <v>751</v>
       </c>
-      <c r="J1058" s="13" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="1059" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1059" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1059" t="s">
         <v>588</v>
       </c>
-      <c r="B1059" s="4" t="s">
-        <v>961</v>
+      <c r="B1059" s="11" t="s">
+        <v>971</v>
       </c>
       <c r="C1059" s="1">
         <v>44249</v>
@@ -25498,7 +25285,7 @@
         <v>751</v>
       </c>
       <c r="J1059" s="13" t="s">
-        <v>962</v>
+        <v>972</v>
       </c>
     </row>
     <row r="1060" spans="1:10" ht="29" x14ac:dyDescent="0.35">
@@ -25506,7 +25293,7 @@
         <v>588</v>
       </c>
       <c r="B1060" s="4" t="s">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="C1060" s="1">
         <v>44249</v>
@@ -25521,73 +25308,64 @@
         <v>751</v>
       </c>
       <c r="J1060" s="13" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1061" t="s">
         <v>588</v>
       </c>
       <c r="B1061" s="4" t="s">
-        <v>965</v>
+        <v>975</v>
       </c>
       <c r="C1061" s="1">
-        <v>44249</v>
-      </c>
-      <c r="G1061" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1061" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1061" t="s">
-        <v>751</v>
-      </c>
-      <c r="J1061" s="13" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="1062" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+        <v>44247</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1062" t="s">
         <v>588</v>
       </c>
       <c r="B1062" s="4" t="s">
-        <v>967</v>
+        <v>976</v>
       </c>
       <c r="C1062" s="1">
-        <v>44249</v>
+        <v>44251</v>
       </c>
       <c r="G1062" t="s">
-        <v>123</v>
+        <v>446</v>
       </c>
       <c r="H1062" t="s">
-        <v>728</v>
+        <v>38</v>
       </c>
       <c r="I1062" t="s">
-        <v>751</v>
-      </c>
-      <c r="J1062" s="13" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:10" x14ac:dyDescent="0.35">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1063" t="s">
         <v>588</v>
       </c>
       <c r="B1063" s="4" t="s">
-        <v>969</v>
+        <v>977</v>
       </c>
       <c r="C1063" s="1">
-        <v>44249</v>
+        <v>44251</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>203</v>
       </c>
       <c r="G1063" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="H1063" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1063" t="s">
-        <v>751</v>
+        <v>89</v>
+      </c>
+      <c r="J1063" s="13" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="1064" spans="1:10" x14ac:dyDescent="0.35">
@@ -25595,65 +25373,56 @@
         <v>588</v>
       </c>
       <c r="B1064" s="4" t="s">
-        <v>970</v>
+        <v>977</v>
       </c>
       <c r="C1064" s="1">
-        <v>44249</v>
+        <v>44251</v>
       </c>
       <c r="G1064" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1064" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1064" t="s">
-        <v>751</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1065" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1065" t="s">
         <v>588</v>
       </c>
-      <c r="B1065" s="11" t="s">
-        <v>971</v>
+      <c r="B1065" s="4" t="s">
+        <v>979</v>
       </c>
       <c r="C1065" s="1">
-        <v>44249</v>
+        <v>44251</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1065" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1065" t="s">
+        <v>60</v>
       </c>
       <c r="G1065" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="H1065" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1065" t="s">
-        <v>751</v>
+        <v>89</v>
       </c>
       <c r="J1065" s="13" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="1066" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1066" t="s">
         <v>588</v>
       </c>
       <c r="B1066" s="4" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="C1066" s="1">
-        <v>44249</v>
+        <v>44251</v>
       </c>
       <c r="G1066" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1066" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1066" t="s">
-        <v>751</v>
-      </c>
-      <c r="J1066" s="13" t="s">
-        <v>974</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1067" spans="1:10" x14ac:dyDescent="0.35">
@@ -25661,10 +25430,25 @@
         <v>588</v>
       </c>
       <c r="B1067" s="4" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="C1067" s="1">
-        <v>44247</v>
+        <v>44251</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1067" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1067" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1067" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1067" s="13" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="1068" spans="1:10" x14ac:dyDescent="0.35">
@@ -25672,19 +25456,16 @@
         <v>588</v>
       </c>
       <c r="B1068" s="4" t="s">
-        <v>976</v>
+        <v>981</v>
       </c>
       <c r="C1068" s="1">
         <v>44251</v>
       </c>
       <c r="G1068" t="s">
-        <v>446</v>
+        <v>73</v>
       </c>
       <c r="H1068" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1068" t="s">
-        <v>445</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1069" spans="1:10" ht="29" x14ac:dyDescent="0.35">
@@ -25692,25 +25473,22 @@
         <v>588</v>
       </c>
       <c r="B1069" s="4" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="C1069" s="1">
         <v>44251</v>
       </c>
-      <c r="D1069" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1069" t="s">
-        <v>203</v>
-      </c>
       <c r="G1069" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="H1069" t="s">
-        <v>89</v>
+        <v>728</v>
+      </c>
+      <c r="I1069" t="s">
+        <v>751</v>
       </c>
       <c r="J1069" s="13" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1070" spans="1:10" x14ac:dyDescent="0.35">
@@ -25718,42 +25496,45 @@
         <v>588</v>
       </c>
       <c r="B1070" s="4" t="s">
-        <v>977</v>
+        <v>984</v>
       </c>
       <c r="C1070" s="1">
         <v>44251</v>
       </c>
       <c r="G1070" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="1071" spans="1:10" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+      <c r="H1070" t="s">
+        <v>728</v>
+      </c>
+      <c r="I1070" t="s">
+        <v>751</v>
+      </c>
+      <c r="J1070" s="13" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1071" t="s">
         <v>588</v>
       </c>
       <c r="B1071" s="4" t="s">
-        <v>979</v>
+        <v>987</v>
       </c>
       <c r="C1071" s="1">
         <v>44251</v>
       </c>
-      <c r="D1071" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1071" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1071" t="s">
-        <v>60</v>
-      </c>
       <c r="G1071" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="H1071" t="s">
-        <v>89</v>
+        <v>728</v>
+      </c>
+      <c r="I1071" t="s">
+        <v>751</v>
       </c>
       <c r="J1071" s="13" t="s">
-        <v>980</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1072" spans="1:10" x14ac:dyDescent="0.35">
@@ -25761,39 +25542,45 @@
         <v>588</v>
       </c>
       <c r="B1072" s="4" t="s">
-        <v>979</v>
+        <v>989</v>
       </c>
       <c r="C1072" s="1">
         <v>44251</v>
       </c>
       <c r="G1072" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="1073" spans="1:10" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+      <c r="H1072" t="s">
+        <v>728</v>
+      </c>
+      <c r="I1072" t="s">
+        <v>751</v>
+      </c>
+      <c r="J1072" s="13" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1073" t="s">
         <v>588</v>
       </c>
-      <c r="B1073" s="4" t="s">
-        <v>981</v>
+      <c r="B1073" s="11" t="s">
+        <v>990</v>
       </c>
       <c r="C1073" s="1">
         <v>44251</v>
       </c>
-      <c r="D1073" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1073" t="s">
-        <v>203</v>
-      </c>
       <c r="G1073" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="H1073" t="s">
-        <v>89</v>
+        <v>728</v>
+      </c>
+      <c r="I1073" t="s">
+        <v>751</v>
       </c>
       <c r="J1073" s="13" t="s">
-        <v>982</v>
+        <v>991</v>
       </c>
     </row>
     <row r="1074" spans="1:10" x14ac:dyDescent="0.35">
@@ -25801,24 +25588,30 @@
         <v>588</v>
       </c>
       <c r="B1074" s="4" t="s">
-        <v>981</v>
+        <v>992</v>
       </c>
       <c r="C1074" s="1">
         <v>44251</v>
       </c>
       <c r="G1074" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="H1074" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="1075" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+        <v>728</v>
+      </c>
+      <c r="I1074" t="s">
+        <v>751</v>
+      </c>
+      <c r="J1074" s="13" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1075" t="s">
         <v>588</v>
       </c>
       <c r="B1075" s="4" t="s">
-        <v>983</v>
+        <v>993</v>
       </c>
       <c r="C1075" s="1">
         <v>44251</v>
@@ -25832,16 +25625,13 @@
       <c r="I1075" t="s">
         <v>751</v>
       </c>
-      <c r="J1075" s="13" t="s">
-        <v>985</v>
-      </c>
     </row>
     <row r="1076" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1076" t="s">
         <v>588</v>
       </c>
       <c r="B1076" s="4" t="s">
-        <v>984</v>
+        <v>994</v>
       </c>
       <c r="C1076" s="1">
         <v>44251</v>
@@ -25855,16 +25645,13 @@
       <c r="I1076" t="s">
         <v>751</v>
       </c>
-      <c r="J1076" s="13" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="1077" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1077" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1077" t="s">
         <v>588</v>
       </c>
       <c r="B1077" s="4" t="s">
-        <v>987</v>
+        <v>995</v>
       </c>
       <c r="C1077" s="1">
         <v>44251</v>
@@ -25879,7 +25666,7 @@
         <v>751</v>
       </c>
       <c r="J1077" s="13" t="s">
-        <v>988</v>
+        <v>996</v>
       </c>
     </row>
     <row r="1078" spans="1:10" x14ac:dyDescent="0.35">
@@ -25887,7 +25674,7 @@
         <v>588</v>
       </c>
       <c r="B1078" s="4" t="s">
-        <v>989</v>
+        <v>997</v>
       </c>
       <c r="C1078" s="1">
         <v>44251</v>
@@ -25902,15 +25689,15 @@
         <v>751</v>
       </c>
       <c r="J1078" s="13" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="1079" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1079" t="s">
         <v>588</v>
       </c>
-      <c r="B1079" s="11" t="s">
-        <v>990</v>
+      <c r="B1079" s="4" t="s">
+        <v>983</v>
       </c>
       <c r="C1079" s="1">
         <v>44251</v>
@@ -25925,7 +25712,7 @@
         <v>751</v>
       </c>
       <c r="J1079" s="13" t="s">
-        <v>991</v>
+        <v>999</v>
       </c>
     </row>
     <row r="1080" spans="1:10" x14ac:dyDescent="0.35">
@@ -25933,7 +25720,7 @@
         <v>588</v>
       </c>
       <c r="B1080" s="4" t="s">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="C1080" s="1">
         <v>44251</v>
@@ -25948,15 +25735,15 @@
         <v>751</v>
       </c>
       <c r="J1080" s="13" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="1081" spans="1:10" x14ac:dyDescent="0.35">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1081" t="s">
         <v>588</v>
       </c>
       <c r="B1081" s="4" t="s">
-        <v>993</v>
+        <v>1001</v>
       </c>
       <c r="C1081" s="1">
         <v>44251</v>
@@ -25970,48 +25757,39 @@
       <c r="I1081" t="s">
         <v>751</v>
       </c>
+      <c r="J1081" s="13" t="s">
+        <v>1002</v>
+      </c>
     </row>
     <row r="1082" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1082" t="s">
         <v>588</v>
       </c>
       <c r="B1082" s="4" t="s">
-        <v>994</v>
+        <v>1003</v>
       </c>
       <c r="C1082" s="1">
         <v>44251</v>
       </c>
-      <c r="G1082" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1082" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1082" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="1083" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1083" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1083" t="s">
         <v>588</v>
       </c>
       <c r="B1083" s="4" t="s">
-        <v>995</v>
+        <v>1004</v>
       </c>
       <c r="C1083" s="1">
-        <v>44251</v>
+        <v>44252</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>47</v>
       </c>
       <c r="G1083" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="H1083" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1083" t="s">
-        <v>751</v>
-      </c>
-      <c r="J1083" s="13" t="s">
-        <v>996</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1084" spans="1:10" x14ac:dyDescent="0.35">
@@ -26019,22 +25797,25 @@
         <v>588</v>
       </c>
       <c r="B1084" s="4" t="s">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="C1084" s="1">
-        <v>44251</v>
+        <v>44252</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1084" t="s">
+        <v>170</v>
       </c>
       <c r="G1084" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="H1084" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1084" t="s">
-        <v>751</v>
+        <v>89</v>
       </c>
       <c r="J1084" s="13" t="s">
-        <v>998</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="1085" spans="1:10" x14ac:dyDescent="0.35">
@@ -26042,22 +25823,22 @@
         <v>588</v>
       </c>
       <c r="B1085" s="4" t="s">
-        <v>983</v>
+        <v>1006</v>
       </c>
       <c r="C1085" s="1">
-        <v>44251</v>
+        <v>44252</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>47</v>
       </c>
       <c r="G1085" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="H1085" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1085" t="s">
-        <v>751</v>
+        <v>99</v>
       </c>
       <c r="J1085" s="13" t="s">
-        <v>999</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="1086" spans="1:10" x14ac:dyDescent="0.35">
@@ -26065,22 +25846,22 @@
         <v>588</v>
       </c>
       <c r="B1086" s="4" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="C1086" s="1">
-        <v>44251</v>
+        <v>44252</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>47</v>
       </c>
       <c r="G1086" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="H1086" t="s">
-        <v>728</v>
+        <v>85</v>
       </c>
       <c r="I1086" t="s">
-        <v>751</v>
-      </c>
-      <c r="J1086" s="13" t="s">
-        <v>998</v>
+        <v>785</v>
       </c>
     </row>
     <row r="1087" spans="1:10" x14ac:dyDescent="0.35">
@@ -26088,10 +25869,13 @@
         <v>588</v>
       </c>
       <c r="B1087" s="4" t="s">
-        <v>1107</v>
+        <v>1008</v>
       </c>
       <c r="C1087" s="1">
-        <v>44250</v>
+        <v>44252</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>75</v>
       </c>
       <c r="G1087" t="s">
         <v>73</v>
@@ -26101,11 +25885,17 @@
       </c>
     </row>
     <row r="1088" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1088" t="s">
+        <v>588</v>
+      </c>
       <c r="B1088" s="4" t="s">
-        <v>1108</v>
+        <v>1010</v>
       </c>
       <c r="C1088" s="1">
-        <v>44250</v>
+        <v>44252</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>47</v>
       </c>
       <c r="G1088" t="s">
         <v>73</v>
@@ -26113,28 +25903,25 @@
       <c r="H1088" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="1089" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="J1088" s="13" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1089" t="s">
         <v>588</v>
       </c>
       <c r="B1089" s="4" t="s">
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="C1089" s="1">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="G1089" t="s">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="H1089" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1089" t="s">
-        <v>751</v>
-      </c>
-      <c r="J1089" s="13" t="s">
-        <v>1002</v>
+        <v>252</v>
       </c>
     </row>
     <row r="1090" spans="1:10" x14ac:dyDescent="0.35">
@@ -26142,10 +25929,19 @@
         <v>588</v>
       </c>
       <c r="B1090" s="4" t="s">
-        <v>1003</v>
+        <v>1012</v>
       </c>
       <c r="C1090" s="1">
-        <v>44251</v>
+        <v>44252</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1090" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1090" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="1091" spans="1:10" x14ac:dyDescent="0.35">
@@ -26153,7 +25949,7 @@
         <v>588</v>
       </c>
       <c r="B1091" s="4" t="s">
-        <v>1004</v>
+        <v>1013</v>
       </c>
       <c r="C1091" s="1">
         <v>44252</v>
@@ -26173,25 +25969,22 @@
         <v>588</v>
       </c>
       <c r="B1092" s="4" t="s">
-        <v>1005</v>
+        <v>1013</v>
       </c>
       <c r="C1092" s="1">
         <v>44252</v>
       </c>
       <c r="D1092" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1092" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="G1092" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="H1092" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1092" s="13" t="s">
-        <v>1009</v>
+        <v>1014</v>
+      </c>
+      <c r="I1092" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="1093" spans="1:10" x14ac:dyDescent="0.35">
@@ -26199,22 +25992,19 @@
         <v>588</v>
       </c>
       <c r="B1093" s="4" t="s">
-        <v>1006</v>
+        <v>1016</v>
       </c>
       <c r="C1093" s="1">
         <v>44252</v>
       </c>
-      <c r="D1093" t="s">
-        <v>47</v>
-      </c>
       <c r="G1093" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="H1093" t="s">
-        <v>99</v>
-      </c>
-      <c r="J1093" s="13" t="s">
-        <v>1007</v>
+        <v>728</v>
+      </c>
+      <c r="I1093" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="1094" spans="1:10" x14ac:dyDescent="0.35">
@@ -26222,42 +26012,45 @@
         <v>588</v>
       </c>
       <c r="B1094" s="4" t="s">
-        <v>1006</v>
+        <v>1017</v>
       </c>
       <c r="C1094" s="1">
         <v>44252</v>
       </c>
-      <c r="D1094" t="s">
-        <v>47</v>
-      </c>
       <c r="G1094" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="H1094" t="s">
-        <v>85</v>
+        <v>728</v>
       </c>
       <c r="I1094" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="1095" spans="1:10" x14ac:dyDescent="0.35">
+        <v>751</v>
+      </c>
+      <c r="J1094" s="13" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1095" t="s">
         <v>588</v>
       </c>
       <c r="B1095" s="4" t="s">
-        <v>1008</v>
+        <v>1018</v>
       </c>
       <c r="C1095" s="1">
         <v>44252</v>
       </c>
-      <c r="D1095" t="s">
-        <v>75</v>
-      </c>
       <c r="G1095" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="H1095" t="s">
-        <v>89</v>
+        <v>728</v>
+      </c>
+      <c r="I1095" t="s">
+        <v>751</v>
+      </c>
+      <c r="J1095" s="13" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="1096" spans="1:10" x14ac:dyDescent="0.35">
@@ -26265,22 +26058,22 @@
         <v>588</v>
       </c>
       <c r="B1096" s="4" t="s">
-        <v>1010</v>
+        <v>1020</v>
       </c>
       <c r="C1096" s="1">
         <v>44252</v>
       </c>
-      <c r="D1096" t="s">
-        <v>47</v>
-      </c>
       <c r="G1096" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="H1096" t="s">
-        <v>89</v>
+        <v>728</v>
+      </c>
+      <c r="I1096" t="s">
+        <v>751</v>
       </c>
       <c r="J1096" s="13" t="s">
-        <v>1011</v>
+        <v>339</v>
       </c>
     </row>
     <row r="1097" spans="1:10" x14ac:dyDescent="0.35">
@@ -26288,16 +26081,22 @@
         <v>588</v>
       </c>
       <c r="B1097" s="4" t="s">
-        <v>1010</v>
+        <v>1021</v>
       </c>
       <c r="C1097" s="1">
         <v>44252</v>
       </c>
       <c r="G1097" t="s">
-        <v>218</v>
+        <v>123</v>
       </c>
       <c r="H1097" t="s">
-        <v>252</v>
+        <v>728</v>
+      </c>
+      <c r="I1097" t="s">
+        <v>751</v>
+      </c>
+      <c r="J1097" s="13" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="1098" spans="1:10" x14ac:dyDescent="0.35">
@@ -26305,39 +26104,45 @@
         <v>588</v>
       </c>
       <c r="B1098" s="4" t="s">
-        <v>1012</v>
+        <v>1022</v>
       </c>
       <c r="C1098" s="1">
         <v>44252</v>
       </c>
-      <c r="D1098" t="s">
-        <v>47</v>
-      </c>
       <c r="G1098" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="H1098" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="1099" spans="1:10" x14ac:dyDescent="0.35">
+        <v>728</v>
+      </c>
+      <c r="I1098" t="s">
+        <v>751</v>
+      </c>
+      <c r="J1098" s="13" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1099" t="s">
         <v>588</v>
       </c>
       <c r="B1099" s="4" t="s">
-        <v>1013</v>
+        <v>1024</v>
       </c>
       <c r="C1099" s="1">
         <v>44252</v>
       </c>
-      <c r="D1099" t="s">
-        <v>47</v>
-      </c>
       <c r="G1099" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="H1099" t="s">
-        <v>89</v>
+        <v>728</v>
+      </c>
+      <c r="I1099" t="s">
+        <v>751</v>
+      </c>
+      <c r="J1099" s="13" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="1100" spans="1:10" x14ac:dyDescent="0.35">
@@ -26345,99 +26150,90 @@
         <v>588</v>
       </c>
       <c r="B1100" s="4" t="s">
-        <v>1013</v>
+        <v>1026</v>
       </c>
       <c r="C1100" s="1">
         <v>44252</v>
       </c>
-      <c r="D1100" t="s">
-        <v>47</v>
-      </c>
       <c r="G1100" t="s">
-        <v>218</v>
+        <v>123</v>
       </c>
       <c r="H1100" t="s">
-        <v>1014</v>
+        <v>728</v>
       </c>
       <c r="I1100" t="s">
-        <v>1015</v>
+        <v>751</v>
+      </c>
+      <c r="J1100" s="13" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="1101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1101" t="s">
-        <v>588</v>
+        <v>63</v>
       </c>
       <c r="B1101" s="4" t="s">
-        <v>1016</v>
+        <v>1027</v>
       </c>
       <c r="C1101" s="1">
-        <v>44252</v>
-      </c>
-      <c r="G1101" t="s">
-        <v>123</v>
+        <v>44253</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1101" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1101" t="s">
+        <v>109</v>
       </c>
       <c r="H1101" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1101" t="s">
-        <v>751</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1102" t="s">
-        <v>588</v>
+        <v>63</v>
       </c>
       <c r="B1102" s="4" t="s">
-        <v>1017</v>
+        <v>1028</v>
       </c>
       <c r="C1102" s="1">
-        <v>44252</v>
-      </c>
-      <c r="G1102" t="s">
-        <v>123</v>
+        <v>44253</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1102" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1102" t="s">
+        <v>22</v>
       </c>
       <c r="H1102" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1102" t="s">
-        <v>751</v>
-      </c>
-      <c r="J1102" s="13" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="1103" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1103" t="s">
-        <v>588</v>
+        <v>63</v>
       </c>
       <c r="B1103" s="4" t="s">
-        <v>1018</v>
+        <v>1029</v>
       </c>
       <c r="C1103" s="1">
-        <v>44252</v>
-      </c>
-      <c r="G1103" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1103" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1103" t="s">
-        <v>751</v>
-      </c>
-      <c r="J1103" s="13" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="1104" spans="1:10" x14ac:dyDescent="0.35">
+        <v>44253</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1104" t="s">
         <v>588</v>
       </c>
       <c r="B1104" s="4" t="s">
-        <v>1020</v>
+        <v>1030</v>
       </c>
       <c r="C1104" s="1">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="G1104" t="s">
         <v>123</v>
@@ -26449,7 +26245,7 @@
         <v>751</v>
       </c>
       <c r="J1104" s="13" t="s">
-        <v>339</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1105" spans="1:10" x14ac:dyDescent="0.35">
@@ -26457,10 +26253,10 @@
         <v>588</v>
       </c>
       <c r="B1105" s="4" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="C1105" s="1">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="G1105" t="s">
         <v>123</v>
@@ -26472,53 +26268,44 @@
         <v>751</v>
       </c>
       <c r="J1105" s="13" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="1106" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1106" t="s">
         <v>588</v>
       </c>
       <c r="B1106" s="4" t="s">
-        <v>1022</v>
+        <v>1032</v>
       </c>
       <c r="C1106" s="1">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="G1106" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="H1106" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1106" t="s">
-        <v>751</v>
+        <v>89</v>
       </c>
       <c r="J1106" s="13" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="1107" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1107" t="s">
         <v>588</v>
       </c>
       <c r="B1107" s="4" t="s">
-        <v>1024</v>
+        <v>1034</v>
       </c>
       <c r="C1107" s="1">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="G1107" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="H1107" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1107" t="s">
-        <v>751</v>
-      </c>
-      <c r="J1107" s="13" t="s">
-        <v>1025</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1108" spans="1:10" x14ac:dyDescent="0.35">
@@ -26526,10 +26313,10 @@
         <v>588</v>
       </c>
       <c r="B1108" s="4" t="s">
-        <v>1026</v>
+        <v>1037</v>
       </c>
       <c r="C1108" s="1">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="G1108" t="s">
         <v>123</v>
@@ -26540,306 +26327,255 @@
       <c r="I1108" t="s">
         <v>751</v>
       </c>
-      <c r="J1108" s="13" t="s">
-        <v>339</v>
-      </c>
     </row>
     <row r="1109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1109" t="s">
-        <v>63</v>
+        <v>588</v>
       </c>
       <c r="B1109" s="4" t="s">
-        <v>1027</v>
+        <v>1038</v>
       </c>
       <c r="C1109" s="1">
         <v>44253</v>
       </c>
-      <c r="D1109" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1109" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1109" t="s">
-        <v>109</v>
-      </c>
-      <c r="H1109" t="s">
-        <v>67</v>
+      <c r="J1109" s="13" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="1110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1110" t="s">
-        <v>63</v>
+        <v>588</v>
       </c>
       <c r="B1110" s="4" t="s">
-        <v>1028</v>
+        <v>1040</v>
       </c>
       <c r="C1110" s="1">
         <v>44253</v>
       </c>
-      <c r="D1110" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1110" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1110" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1110" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="1111" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1111" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1111" t="s">
-        <v>63</v>
+        <v>588</v>
       </c>
       <c r="B1111" s="4" t="s">
-        <v>1029</v>
+        <v>1041</v>
       </c>
       <c r="C1111" s="1">
         <v>44253</v>
       </c>
-      <c r="H1111" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="1112" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="J1111" s="13" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1112" t="s">
         <v>588</v>
       </c>
       <c r="B1112" s="4" t="s">
-        <v>1030</v>
+        <v>1043</v>
       </c>
       <c r="C1112" s="1">
         <v>44253</v>
       </c>
-      <c r="G1112" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1112" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1112" t="s">
-        <v>751</v>
-      </c>
-      <c r="J1112" s="13" t="s">
-        <v>1036</v>
-      </c>
     </row>
     <row r="1113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1113" t="s">
         <v>588</v>
       </c>
       <c r="B1113" s="4" t="s">
-        <v>1031</v>
+        <v>1044</v>
       </c>
       <c r="C1113" s="1">
         <v>44253</v>
       </c>
-      <c r="G1113" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1113" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1113" t="s">
-        <v>751</v>
-      </c>
-      <c r="J1113" s="13" t="s">
-        <v>1035</v>
-      </c>
     </row>
     <row r="1114" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1114" t="s">
-        <v>588</v>
+        <v>63</v>
       </c>
       <c r="B1114" s="4" t="s">
-        <v>1032</v>
+        <v>1045</v>
       </c>
       <c r="C1114" s="1">
-        <v>44253</v>
+        <v>44256</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1114" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1114" t="s">
+        <v>12</v>
       </c>
       <c r="G1114" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="H1114" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="J1114" s="13" t="s">
-        <v>1033</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="1115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1115" t="s">
-        <v>588</v>
+        <v>63</v>
       </c>
       <c r="B1115" s="4" t="s">
-        <v>1034</v>
+        <v>1047</v>
       </c>
       <c r="C1115" s="1">
-        <v>44253</v>
+        <v>44256</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1115" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1115" t="s">
+        <v>30</v>
       </c>
       <c r="G1115" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="H1115" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1116" t="s">
-        <v>588</v>
+        <v>63</v>
       </c>
       <c r="B1116" s="4" t="s">
-        <v>1037</v>
+        <v>1047</v>
       </c>
       <c r="C1116" s="1">
-        <v>44253</v>
+        <v>44256</v>
       </c>
       <c r="G1116" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="H1116" t="s">
-        <v>728</v>
+        <v>27</v>
       </c>
       <c r="I1116" t="s">
-        <v>751</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="1117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1117" t="s">
-        <v>588</v>
+        <v>63</v>
       </c>
       <c r="B1117" s="4" t="s">
-        <v>1038</v>
+        <v>1050</v>
       </c>
       <c r="C1117" s="1">
-        <v>44253</v>
+        <v>44256</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1117" t="s">
+        <v>161</v>
       </c>
       <c r="G1117" t="s">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="H1117" t="s">
-        <v>728</v>
+        <v>219</v>
       </c>
       <c r="I1117" t="s">
-        <v>751</v>
-      </c>
-      <c r="J1117" s="13" t="s">
-        <v>1039</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="1118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1118" t="s">
-        <v>588</v>
+        <v>63</v>
       </c>
       <c r="B1118" s="4" t="s">
-        <v>1040</v>
+        <v>1050</v>
       </c>
       <c r="C1118" s="1">
-        <v>44253</v>
+        <v>44256</v>
       </c>
       <c r="G1118" t="s">
-        <v>123</v>
+        <v>267</v>
       </c>
       <c r="H1118" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1118" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="1119" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1119" t="s">
-        <v>588</v>
+        <v>63</v>
       </c>
       <c r="B1119" s="4" t="s">
-        <v>1041</v>
+        <v>1050</v>
       </c>
       <c r="C1119" s="1">
-        <v>44253</v>
+        <v>44256</v>
       </c>
       <c r="G1119" t="s">
-        <v>123</v>
+        <v>267</v>
       </c>
       <c r="H1119" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1119" t="s">
-        <v>751</v>
-      </c>
-      <c r="J1119" s="13" t="s">
-        <v>1042</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1120" t="s">
-        <v>588</v>
+        <v>63</v>
       </c>
       <c r="B1120" s="4" t="s">
-        <v>1043</v>
+        <v>1050</v>
       </c>
       <c r="C1120" s="1">
-        <v>44253</v>
+        <v>44256</v>
       </c>
       <c r="G1120" t="s">
-        <v>123</v>
+        <v>267</v>
       </c>
       <c r="H1120" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1120" t="s">
-        <v>751</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1121" t="s">
-        <v>588</v>
+        <v>63</v>
       </c>
       <c r="B1121" s="4" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="C1121" s="1">
-        <v>44253</v>
+        <v>44256</v>
       </c>
       <c r="G1121" t="s">
-        <v>123</v>
+        <v>267</v>
       </c>
       <c r="H1121" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1121" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="1122" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1122" t="s">
         <v>63</v>
       </c>
       <c r="B1122" s="4" t="s">
-        <v>1045</v>
+        <v>1052</v>
       </c>
       <c r="C1122" s="1">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="D1122" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1122" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1122" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G1122" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H1122" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1122" s="13" t="s">
-        <v>1046</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1123" spans="1:10" x14ac:dyDescent="0.35">
@@ -26847,19 +26583,10 @@
         <v>63</v>
       </c>
       <c r="B1123" s="4" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
       <c r="C1123" s="1">
-        <v>44256</v>
-      </c>
-      <c r="D1123" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1123" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1123" t="s">
-        <v>30</v>
+        <v>44257</v>
       </c>
       <c r="G1123" t="s">
         <v>16</v>
@@ -26867,16 +26594,19 @@
       <c r="H1123" t="s">
         <v>17</v>
       </c>
+      <c r="I1123" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="1124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1124" t="s">
         <v>63</v>
       </c>
       <c r="B1124" s="4" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
       <c r="C1124" s="1">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="G1124" t="s">
         <v>26</v>
@@ -26884,34 +26614,22 @@
       <c r="H1124" t="s">
         <v>27</v>
       </c>
-      <c r="I1124" t="s">
-        <v>1049</v>
-      </c>
     </row>
     <row r="1125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1125" t="s">
         <v>63</v>
       </c>
       <c r="B1125" s="4" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="C1125" s="1">
-        <v>44256</v>
-      </c>
-      <c r="D1125" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1125" t="s">
-        <v>161</v>
+        <v>44257</v>
       </c>
       <c r="G1125" t="s">
-        <v>218</v>
+        <v>26</v>
       </c>
       <c r="H1125" t="s">
-        <v>219</v>
-      </c>
-      <c r="I1125" t="s">
-        <v>1051</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1126" spans="1:10" x14ac:dyDescent="0.35">
@@ -26919,16 +26637,16 @@
         <v>63</v>
       </c>
       <c r="B1126" s="4" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="C1126" s="1">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="G1126" t="s">
-        <v>267</v>
+        <v>26</v>
       </c>
       <c r="H1126" t="s">
-        <v>38</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="1127" spans="1:10" x14ac:dyDescent="0.35">
@@ -26936,16 +26654,22 @@
         <v>63</v>
       </c>
       <c r="B1127" s="4" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="C1127" s="1">
-        <v>44256</v>
+        <v>44257</v>
+      </c>
+      <c r="D1127" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1127" t="s">
+        <v>60</v>
       </c>
       <c r="G1127" t="s">
-        <v>267</v>
+        <v>16</v>
       </c>
       <c r="H1127" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1128" spans="1:10" x14ac:dyDescent="0.35">
@@ -26953,16 +26677,16 @@
         <v>63</v>
       </c>
       <c r="B1128" s="4" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="C1128" s="1">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="G1128" t="s">
-        <v>267</v>
+        <v>26</v>
       </c>
       <c r="H1128" t="s">
-        <v>38</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="1129" spans="1:10" x14ac:dyDescent="0.35">
@@ -26970,16 +26694,22 @@
         <v>63</v>
       </c>
       <c r="B1129" s="4" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="C1129" s="1">
-        <v>44256</v>
+        <v>44257</v>
+      </c>
+      <c r="D1129" t="s">
+        <v>56</v>
       </c>
       <c r="G1129" t="s">
-        <v>267</v>
+        <v>16</v>
       </c>
       <c r="H1129" t="s">
-        <v>38</v>
+        <v>17</v>
+      </c>
+      <c r="J1129" s="13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="1130" spans="1:10" x14ac:dyDescent="0.35">
@@ -26987,19 +26717,16 @@
         <v>63</v>
       </c>
       <c r="B1130" s="4" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="C1130" s="1">
         <v>44257</v>
       </c>
-      <c r="D1130" t="s">
-        <v>30</v>
-      </c>
       <c r="G1130" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H1130" t="s">
-        <v>17</v>
+        <v>403</v>
       </c>
     </row>
     <row r="1131" spans="1:10" x14ac:dyDescent="0.35">
@@ -27007,19 +26734,16 @@
         <v>63</v>
       </c>
       <c r="B1131" s="4" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="C1131" s="1">
         <v>44257</v>
       </c>
       <c r="G1131" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H1131" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1131" t="s">
-        <v>337</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1132" spans="1:10" x14ac:dyDescent="0.35">
@@ -27027,16 +26751,19 @@
         <v>63</v>
       </c>
       <c r="B1132" s="4" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="C1132" s="1">
-        <v>44257</v>
-      </c>
-      <c r="G1132" t="s">
-        <v>26</v>
+        <v>44260</v>
+      </c>
+      <c r="D1132" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1132" t="s">
+        <v>269</v>
       </c>
       <c r="H1132" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1133" spans="1:10" x14ac:dyDescent="0.35">
@@ -27044,16 +26771,19 @@
         <v>63</v>
       </c>
       <c r="B1133" s="4" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="C1133" s="1">
-        <v>44257</v>
-      </c>
-      <c r="G1133" t="s">
-        <v>26</v>
+        <v>44260</v>
+      </c>
+      <c r="D1133" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1133" t="s">
+        <v>104</v>
       </c>
       <c r="H1133" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1134" spans="1:10" x14ac:dyDescent="0.35">
@@ -27061,16 +26791,16 @@
         <v>63</v>
       </c>
       <c r="B1134" s="4" t="s">
-        <v>1052</v>
+        <v>1059</v>
       </c>
       <c r="C1134" s="1">
-        <v>44257</v>
-      </c>
-      <c r="G1134" t="s">
-        <v>26</v>
+        <v>44260</v>
+      </c>
+      <c r="D1134" t="s">
+        <v>24</v>
       </c>
       <c r="H1134" t="s">
-        <v>1053</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1135" spans="1:10" x14ac:dyDescent="0.35">
@@ -27078,22 +26808,22 @@
         <v>63</v>
       </c>
       <c r="B1135" s="4" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="C1135" s="1">
-        <v>44257</v>
+        <v>44260</v>
       </c>
       <c r="D1135" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E1135" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1135" t="s">
-        <v>16</v>
+        <v>951</v>
+      </c>
+      <c r="F1135" t="s">
+        <v>65</v>
       </c>
       <c r="H1135" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1136" spans="1:10" x14ac:dyDescent="0.35">
@@ -27101,156 +26831,168 @@
         <v>63</v>
       </c>
       <c r="B1136" s="4" t="s">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="C1136" s="1">
-        <v>44257</v>
-      </c>
-      <c r="G1136" t="s">
+        <v>44264</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1137" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1137" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C1137" s="1">
+        <v>44265</v>
+      </c>
+      <c r="D1137" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1137" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1137" t="s">
+        <v>219</v>
+      </c>
+      <c r="I1137" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1138" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1138" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C1138" s="1">
+        <v>44266</v>
+      </c>
+      <c r="D1138" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1138" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1138" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1138" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1139" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1139" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C1139" s="1">
+        <v>44266</v>
+      </c>
+      <c r="D1139" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1139" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1139" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1139" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1139" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1140" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1140" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C1140" s="1">
+        <v>44266</v>
+      </c>
+      <c r="G1140" t="s">
         <v>26</v>
       </c>
-      <c r="H1136" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="1137" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1137" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1137" s="4" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C1137" s="1">
-        <v>44257</v>
-      </c>
-      <c r="D1137" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1137" t="s">
+      <c r="H1140" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1141" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1141" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C1141" s="1">
+        <v>44264</v>
+      </c>
+      <c r="D1141" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1141" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1141" t="s">
+        <v>262</v>
+      </c>
+      <c r="G1141" t="s">
         <v>16</v>
       </c>
-      <c r="H1137" t="s">
+      <c r="H1141" t="s">
         <v>17</v>
       </c>
-      <c r="J1137" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1138" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1138" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1138" s="4" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C1138" s="1">
-        <v>44257</v>
-      </c>
-      <c r="G1138" t="s">
+    </row>
+    <row r="1142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1142" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1142" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C1142" s="1">
+        <v>44264</v>
+      </c>
+      <c r="G1142" t="s">
         <v>26</v>
       </c>
-      <c r="H1138" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="1139" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1139" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1139" s="4" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C1139" s="1">
-        <v>44257</v>
-      </c>
-      <c r="G1139" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1139" t="s">
+      <c r="H1142" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="1140" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1140" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1140" s="4" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C1140" s="1">
-        <v>44260</v>
-      </c>
-      <c r="D1140" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1140" t="s">
-        <v>269</v>
-      </c>
-      <c r="H1140" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="1141" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1141" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1141" s="4" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C1141" s="1">
-        <v>44260</v>
-      </c>
-      <c r="D1141" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1141" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1141" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="1142" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1142" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1142" s="4" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C1142" s="1">
-        <v>44260</v>
-      </c>
-      <c r="D1142" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1142" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="1143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1143" t="s">
         <v>63</v>
       </c>
       <c r="B1143" s="4" t="s">
-        <v>1060</v>
+        <v>1067</v>
       </c>
       <c r="C1143" s="1">
-        <v>44260</v>
+        <v>44264</v>
       </c>
       <c r="D1143" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E1143" t="s">
-        <v>951</v>
-      </c>
-      <c r="F1143" t="s">
-        <v>65</v>
+        <v>177</v>
+      </c>
+      <c r="G1143" t="s">
+        <v>13</v>
       </c>
       <c r="H1143" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="1144" spans="1:10" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1144" t="s">
         <v>63</v>
       </c>
@@ -27260,114 +27002,114 @@
       <c r="C1144" s="1">
         <v>44264</v>
       </c>
-    </row>
-    <row r="1145" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D1144" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1144" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1144" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1145" t="s">
         <v>63</v>
       </c>
       <c r="B1145" s="4" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="C1145" s="1">
-        <v>44265</v>
+        <v>44267</v>
       </c>
       <c r="D1145" t="s">
-        <v>161</v>
-      </c>
-      <c r="G1145" t="s">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="H1145" t="s">
-        <v>219</v>
-      </c>
-      <c r="I1145" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="1146" spans="1:10" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1146" t="s">
         <v>63</v>
       </c>
       <c r="B1146" s="4" t="s">
-        <v>1062</v>
+        <v>1069</v>
       </c>
       <c r="C1146" s="1">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="D1146" t="s">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="E1146" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1146" t="s">
-        <v>16</v>
+        <v>35</v>
+      </c>
+      <c r="F1146" t="s">
+        <v>47</v>
       </c>
       <c r="H1146" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1147" spans="1:10" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1147" t="s">
         <v>63</v>
       </c>
       <c r="B1147" s="4" t="s">
-        <v>1063</v>
+        <v>1070</v>
       </c>
       <c r="C1147" s="1">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="D1147" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="E1147" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="F1147" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1147" t="s">
-        <v>16</v>
+        <v>356</v>
       </c>
       <c r="H1147" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="1148" spans="1:10" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1148" t="s">
         <v>63</v>
       </c>
       <c r="B1148" s="4" t="s">
-        <v>1063</v>
+        <v>1071</v>
       </c>
       <c r="C1148" s="1">
-        <v>44266</v>
-      </c>
-      <c r="G1148" t="s">
-        <v>26</v>
+        <v>44267</v>
+      </c>
+      <c r="D1148" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1148" t="s">
+        <v>205</v>
       </c>
       <c r="H1148" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="1149" spans="1:10" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1149" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="B1149" s="4" t="s">
-        <v>1064</v>
+        <v>1072</v>
       </c>
       <c r="C1149" s="1">
-        <v>44264</v>
+        <v>44269</v>
       </c>
       <c r="D1149" t="s">
         <v>24</v>
       </c>
       <c r="E1149" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1149" t="s">
-        <v>262</v>
+        <v>1073</v>
       </c>
       <c r="G1149" t="s">
         <v>16</v>
@@ -27376,15 +27118,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1150" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1150" t="s">
-        <v>63</v>
-      </c>
+    <row r="1150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1150" s="4" t="s">
-        <v>1064</v>
+        <v>1072</v>
       </c>
       <c r="C1150" s="1">
-        <v>44264</v>
+        <v>44269</v>
+      </c>
+      <c r="D1150" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1150" t="s">
+        <v>1073</v>
       </c>
       <c r="G1150" t="s">
         <v>26</v>
@@ -27393,1565 +27138,58 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1151" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1151" t="s">
-        <v>63</v>
-      </c>
+    <row r="1151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1151" s="4" t="s">
-        <v>1066</v>
+        <v>1072</v>
       </c>
       <c r="C1151" s="1">
-        <v>44264</v>
+        <v>44269</v>
       </c>
       <c r="D1151" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E1151" t="s">
-        <v>177</v>
+        <v>1073</v>
       </c>
       <c r="G1151" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H1151" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1152" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1152" t="s">
-        <v>63</v>
-      </c>
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1152" s="4" t="s">
-        <v>1061</v>
+        <v>1072</v>
       </c>
       <c r="C1152" s="1">
-        <v>44264</v>
+        <v>44269</v>
       </c>
       <c r="D1152" t="s">
         <v>24</v>
       </c>
+      <c r="E1152" t="s">
+        <v>1073</v>
+      </c>
       <c r="G1152" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="H1152" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1153" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1153" t="s">
-        <v>63</v>
-      </c>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1153" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B1153" s="4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C1153" s="1">
-        <v>44267</v>
+        <v>1075</v>
       </c>
       <c r="D1153" t="s">
-        <v>136</v>
+        <v>1076</v>
+      </c>
+      <c r="G1153" t="s">
+        <v>78</v>
       </c>
       <c r="H1153" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="1154" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1154" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1154" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C1154" s="1">
-        <v>44267</v>
-      </c>
-      <c r="D1154" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1154" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1154" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1154" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="1155" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1155" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1155" s="4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C1155" s="1">
-        <v>44267</v>
-      </c>
-      <c r="D1155" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1155" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1155" t="s">
-        <v>356</v>
-      </c>
-      <c r="H1155" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="1156" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1156" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1156" s="4" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C1156" s="1">
-        <v>44267</v>
-      </c>
-      <c r="D1156" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1156" t="s">
-        <v>205</v>
-      </c>
-      <c r="H1156" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="1157" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1157" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1157" s="4" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C1157" s="1">
-        <v>44269</v>
-      </c>
-      <c r="D1157" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1157" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G1157" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1157" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1158" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1158" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1158" s="4" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C1158" s="1">
-        <v>44269</v>
-      </c>
-      <c r="D1158" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1158" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G1158" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1158" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="1159" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1159" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1159" s="4" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C1159" s="1">
-        <v>44269</v>
-      </c>
-      <c r="D1159" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1159" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G1159" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1159" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="1160" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1160" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1160" s="4" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C1160" s="1">
-        <v>44269</v>
-      </c>
-      <c r="D1160" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1160" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G1160" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1160" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="1161" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1161" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1161" s="4" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C1161" s="1">
-        <v>44269</v>
-      </c>
-      <c r="D1161" t="s">
-        <v>1075</v>
-      </c>
-      <c r="G1161" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1161" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="1162" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1162" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1162" s="4" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C1162" s="1">
-        <v>44273</v>
-      </c>
-      <c r="D1162" t="s">
-        <v>492</v>
-      </c>
-      <c r="E1162" t="s">
-        <v>723</v>
-      </c>
-      <c r="G1162" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1162" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1163" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1163" t="s">
-        <v>588</v>
-      </c>
-      <c r="B1163" s="4" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C1163" s="1">
-        <v>44272</v>
-      </c>
-      <c r="D1163" t="s">
-        <v>161</v>
-      </c>
-      <c r="G1163" t="s">
-        <v>218</v>
-      </c>
-      <c r="H1163" t="s">
-        <v>219</v>
-      </c>
-      <c r="I1163" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="1164" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1164" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1164" s="4" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C1164" s="1">
-        <v>44274</v>
-      </c>
-      <c r="D1164" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1164" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1164" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1164" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="1165" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1165" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1165" s="4" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C1165" s="1">
-        <v>44274</v>
-      </c>
-      <c r="D1165" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1165" t="s">
-        <v>189</v>
-      </c>
-      <c r="F1165" t="s">
-        <v>205</v>
-      </c>
-      <c r="H1165" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="1166" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1166" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1166" s="4" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C1166" s="1">
-        <v>44274</v>
-      </c>
-      <c r="D1166" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1166" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1166" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="1167" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1167" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1167" s="4" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C1167" s="1">
-        <v>44274</v>
-      </c>
-      <c r="D1167" t="s">
-        <v>356</v>
-      </c>
-      <c r="E1167" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1167" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1167" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="1168" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1168" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1168" s="4" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C1168" s="1">
-        <v>44274</v>
-      </c>
-      <c r="D1168" t="s">
-        <v>548</v>
-      </c>
-      <c r="E1168" t="s">
-        <v>409</v>
-      </c>
-      <c r="F1168" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1168" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="1169" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1169" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1169" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="C1169" s="1">
-        <v>44274</v>
-      </c>
-      <c r="D1169" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1169" t="s">
-        <v>261</v>
-      </c>
-      <c r="H1169" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="1170" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1170" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1170" s="4" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C1170" s="1">
-        <v>44274</v>
-      </c>
-    </row>
-    <row r="1171" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1171" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1171" s="4" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C1171" s="1">
-        <v>44274</v>
-      </c>
-      <c r="D1171" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1171" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="1172" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1172" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1172" s="4" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C1172" s="1">
-        <v>44288</v>
-      </c>
-      <c r="D1172" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1172" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1172" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="1173" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1173" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1173" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1173" s="1">
-        <v>44288</v>
-      </c>
-      <c r="D1173" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1173" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1173" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="1174" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1174" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1174" s="4" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C1174" s="1">
-        <v>44288</v>
-      </c>
-      <c r="D1174" t="s">
-        <v>356</v>
-      </c>
-      <c r="E1174" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1174" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="1175" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1175" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1175" s="4" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C1175" s="1">
-        <v>44288</v>
-      </c>
-      <c r="D1175" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1175" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1175" t="s">
-        <v>205</v>
-      </c>
-      <c r="H1175" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="1176" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1176" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1176" s="4" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C1176" s="1">
-        <v>44284</v>
-      </c>
-      <c r="D1176" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1176" t="s">
-        <v>143</v>
-      </c>
-      <c r="H1176" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="1177" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1177" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1177" s="4" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C1177" s="1">
-        <v>44287</v>
-      </c>
-      <c r="D1177" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1177" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1177" t="s">
-        <v>523</v>
-      </c>
-      <c r="H1177" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="1178" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1178" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1178" s="4" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C1178" s="1">
-        <v>44287</v>
-      </c>
-      <c r="D1178" t="s">
-        <v>224</v>
-      </c>
-      <c r="E1178" t="s">
-        <v>205</v>
-      </c>
-      <c r="F1178" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1178" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="1179" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1179" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1179" s="4" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C1179" s="1">
-        <v>44286</v>
-      </c>
-      <c r="D1179" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1179" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1179" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1179" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="1180" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1180" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1180" s="4" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C1180" s="1">
-        <v>44285</v>
-      </c>
-      <c r="D1180" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1180" t="s">
-        <v>1091</v>
-      </c>
-      <c r="H1180" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="1181" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1181" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1181" s="4" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C1181" s="1">
-        <v>44284</v>
-      </c>
-      <c r="D1181" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1181" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1181" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1181" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="1182" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1182" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1182" s="4" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C1182" s="1">
-        <v>44284</v>
-      </c>
-      <c r="D1182" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1182" t="s">
-        <v>159</v>
-      </c>
-      <c r="F1182" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1182" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="1183" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1183" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1183" s="4" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C1183" s="1">
-        <v>44285</v>
-      </c>
-      <c r="D1183" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1183" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1183" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1183" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="1184" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1184" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1184" s="4" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C1184" s="1">
-        <v>44285</v>
-      </c>
-      <c r="D1184" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E1184" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1184" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1184" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="1185" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1185" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1185" s="4" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C1185" s="1">
-        <v>44286</v>
-      </c>
-      <c r="D1185" t="s">
-        <v>142</v>
-      </c>
-      <c r="E1185" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1185" t="s">
-        <v>1098</v>
-      </c>
-      <c r="H1185" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="1186" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1186" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1186" s="4" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C1186" s="1">
-        <v>44287</v>
-      </c>
-      <c r="D1186" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1186" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1186" t="s">
-        <v>262</v>
-      </c>
-      <c r="H1186" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="1187" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1187" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1187" s="4" t="s">
-        <v>629</v>
-      </c>
-      <c r="C1187" s="1">
-        <v>44283</v>
-      </c>
-      <c r="G1187" t="s">
-        <v>1100</v>
-      </c>
-      <c r="H1187" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="1188" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1188" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1188" s="4" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C1188" s="1">
-        <v>44283</v>
-      </c>
-      <c r="D1188" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1188" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1188" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1188" t="s">
-        <v>1100</v>
-      </c>
-      <c r="H1188" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="1189" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1189" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1189" s="4" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C1189" s="1">
-        <v>44284</v>
-      </c>
-      <c r="G1189" t="s">
-        <v>1100</v>
-      </c>
-      <c r="H1189" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="1190" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1190" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1190" s="4" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C1190" s="1">
-        <v>44285</v>
-      </c>
-      <c r="D1190" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1190" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1190" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1190" t="s">
-        <v>218</v>
-      </c>
-      <c r="H1190" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="1191" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1191" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1191" s="4" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C1191" s="1">
-        <v>44285</v>
-      </c>
-      <c r="D1191" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1191" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1191" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1191" t="s">
-        <v>218</v>
-      </c>
-      <c r="H1191" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="1192" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1192" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1192" s="4" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C1192" s="1">
-        <v>44285</v>
-      </c>
-      <c r="D1192" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1192" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1192" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1192" t="s">
-        <v>218</v>
-      </c>
-      <c r="H1192" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="1193" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1193" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1193" s="4" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C1193" s="1">
-        <v>44285</v>
-      </c>
-      <c r="D1193" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1193" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1193" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1193" t="s">
-        <v>267</v>
-      </c>
-      <c r="H1193" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="1194" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1194" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1194" s="4" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C1194" s="1">
-        <v>44285</v>
-      </c>
-      <c r="D1194" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1194" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1194" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1194" t="s">
-        <v>267</v>
-      </c>
-      <c r="H1194" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="1195" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1195" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1195" s="4" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C1195" s="1">
-        <v>44285</v>
-      </c>
-      <c r="D1195" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1195" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1195" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1195" t="s">
-        <v>267</v>
-      </c>
-      <c r="H1195" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="1196" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1196" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1196" s="4" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C1196" s="1">
-        <v>44293</v>
-      </c>
-      <c r="D1196" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1196" t="s">
-        <v>1115</v>
-      </c>
-      <c r="F1196" t="s">
-        <v>179</v>
-      </c>
-      <c r="G1196" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1196" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="1197" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1197" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1197" s="4" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C1197" s="1">
-        <v>44293</v>
-      </c>
-      <c r="D1197" t="s">
-        <v>205</v>
-      </c>
-      <c r="E1197" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1197" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1197" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1197" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1198" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1198" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1198" s="4" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C1198" s="1">
-        <v>44293</v>
-      </c>
-      <c r="D1198" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1198" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1198" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1198" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1198" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="1199" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1199" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1199" s="4" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C1199" s="1">
-        <v>44293</v>
-      </c>
-      <c r="D1199" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1199" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1199" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1199" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1199" t="s">
-        <v>99</v>
-      </c>
-      <c r="J1199" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="1200" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1200" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1200" s="4" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C1200" s="1">
-        <v>44294</v>
-      </c>
-      <c r="D1200" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1200" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1200" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="1201" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1201" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1201" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="C1201" s="1">
-        <v>44294</v>
-      </c>
-      <c r="D1201" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1201" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1201" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1201" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="1202" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1202" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1202" s="4" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C1202" s="1">
-        <v>44294</v>
-      </c>
-      <c r="D1202" t="s">
-        <v>413</v>
-      </c>
-      <c r="E1202" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F1202" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1202" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="1203" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1203" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1203" s="4" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C1203" s="1">
-        <v>44294</v>
-      </c>
-      <c r="D1203" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1203" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1203" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="1204" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1204" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1204" s="4" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C1204" s="1">
-        <v>44294</v>
-      </c>
-      <c r="D1204" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1204" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1204" t="s">
-        <v>628</v>
-      </c>
-      <c r="H1204" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="1205" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1205" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1205" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C1205" s="1">
-        <v>44294</v>
-      </c>
-      <c r="D1205" t="s">
-        <v>247</v>
-      </c>
-      <c r="H1205" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="1206" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1206" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1206" s="4" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C1206" s="1">
-        <v>44297</v>
-      </c>
-      <c r="G1206" t="s">
-        <v>194</v>
-      </c>
-      <c r="H1206" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="1207" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1207">
-        <v>200187061</v>
-      </c>
-      <c r="C1207" s="1">
-        <v>44298</v>
-      </c>
-      <c r="D1207" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1207" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1207" t="s">
-        <v>192</v>
-      </c>
-      <c r="H1207" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="1208" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1208">
-        <v>200187061</v>
-      </c>
-      <c r="C1208" s="1">
-        <v>44298</v>
-      </c>
-      <c r="G1208" t="s">
-        <v>1100</v>
-      </c>
-      <c r="H1208" t="s">
-        <v>1102</v>
-      </c>
-      <c r="I1208" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="1209" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1209">
-        <v>80205399</v>
-      </c>
-      <c r="C1209" s="1">
-        <v>44294</v>
-      </c>
-      <c r="D1209" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1209" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="1210" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1210">
-        <v>71621858</v>
-      </c>
-      <c r="C1210" s="1">
-        <v>44294</v>
-      </c>
-      <c r="D1210" t="s">
-        <v>262</v>
-      </c>
-      <c r="E1210" t="s">
-        <v>217</v>
-      </c>
-      <c r="H1210" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="1211" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1211">
-        <v>200308551</v>
-      </c>
-      <c r="C1211" s="1">
-        <v>44294</v>
-      </c>
-      <c r="D1211" t="s">
-        <v>1125</v>
-      </c>
-      <c r="E1211" t="s">
-        <v>177</v>
-      </c>
-      <c r="F1211" t="s">
-        <v>161</v>
-      </c>
-      <c r="H1211" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="1212" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1212">
-        <v>200308551</v>
-      </c>
-      <c r="C1212" s="1">
-        <v>44298</v>
-      </c>
-      <c r="G1212" t="s">
-        <v>218</v>
-      </c>
-      <c r="H1212" t="s">
-        <v>219</v>
-      </c>
-      <c r="I1212" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="1213" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1213">
-        <v>200318254</v>
-      </c>
-      <c r="C1213" s="1">
-        <v>44293</v>
-      </c>
-      <c r="D1213" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1213" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1213" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="1214" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1214">
-        <v>200318089</v>
-      </c>
-      <c r="C1214" s="1">
-        <v>44292</v>
-      </c>
-      <c r="D1214" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1214" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1214" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="1215" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1215">
-        <v>80304753</v>
-      </c>
-      <c r="C1215" s="1">
-        <v>44292</v>
-      </c>
-      <c r="D1215" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1215" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1215" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1215" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1215" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="1216" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1216">
-        <v>80747402</v>
-      </c>
-      <c r="C1216" s="1">
-        <v>44293</v>
-      </c>
-      <c r="D1216" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1216" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1216" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1216" t="s">
-        <v>218</v>
-      </c>
-      <c r="H1216" t="s">
-        <v>219</v>
-      </c>
-      <c r="I1216" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="1217" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1217">
-        <v>76221902</v>
-      </c>
-      <c r="C1217" s="1">
-        <v>44291</v>
-      </c>
-      <c r="D1217" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1217" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1217" t="s">
-        <v>192</v>
-      </c>
-      <c r="H1217" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="1218" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1218">
-        <v>200296075</v>
-      </c>
-      <c r="C1218" s="1">
-        <v>44293</v>
-      </c>
-      <c r="D1218" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1218" t="s">
-        <v>1091</v>
-      </c>
-      <c r="G1218" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1218" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="1219" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1219">
-        <v>200296075</v>
-      </c>
-      <c r="C1219" s="1">
-        <v>44293</v>
-      </c>
-      <c r="G1219" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1219" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="1220" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1220">
-        <v>200296075</v>
-      </c>
-      <c r="C1220" s="1">
-        <v>44293</v>
-      </c>
-      <c r="H1220" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="1221" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1221">
-        <v>80702661</v>
-      </c>
-      <c r="C1221" s="1">
-        <v>44290</v>
-      </c>
-      <c r="D1221" t="s">
-        <v>161</v>
-      </c>
-      <c r="H1221" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="1222" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1222">
-        <v>200309504</v>
-      </c>
-      <c r="C1222" s="1">
-        <v>44289</v>
-      </c>
-      <c r="D1222" t="s">
-        <v>161</v>
-      </c>
-      <c r="E1222" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1222" t="s">
-        <v>218</v>
-      </c>
-      <c r="H1222" t="s">
-        <v>219</v>
-      </c>
-      <c r="I1222" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="1223" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1223" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1223" s="4" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C1223" s="1">
-        <v>44302</v>
-      </c>
-      <c r="H1223" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="1224" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1224" s="4" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D1224" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1224" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1224" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
